--- a/static/download/2013/RP1_ERT_ATFM_2013.xlsx
+++ b/static/download/2013/RP1_ERT_ATFM_2013.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="ERT_ATFM_PP vs ACT" sheetId="1" r:id="rId3"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="119">
   <si>
     <t>Data source</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Meta data</t>
   </si>
   <si>
+    <t>Metadata - Single European Sky Portal</t>
+  </si>
+  <si>
     <t>Release date</t>
   </si>
   <si>
@@ -37,7 +40,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
+    <t>pru-support@eurocontrol.int</t>
   </si>
   <si>
     <t>Period: JAN-DEC</t>
@@ -399,8 +402,8 @@
     <font>
       <u/>
       <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -468,7 +471,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="44">
+    <border/>
     <border>
       <left/>
       <right/>
@@ -560,7 +564,25 @@
       </bottom>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -771,6 +793,28 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -885,455 +929,469 @@
   </cellStyleXfs>
   <cellXfs count="155">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="32" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="31" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="34" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="35" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="36" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="37" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="38" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="39" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="41" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="42" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="34" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="41" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="42" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="41" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="42" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="41" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="42" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="41" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="42" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="42" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="16" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="16" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="11" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="22" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="22" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="25" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="24" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="29" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="34" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="35" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="35" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="35" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="36" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="35" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="36" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="35" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="36" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="36" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="22" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="24" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="20" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="37" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="25" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="23" fillId="3" fontId="5" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="22" fillId="3" fontId="5" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="43" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="43" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,7 +1408,7 @@
           <bgColor rgb="FFD8D8D8"/>
         </patternFill>
       </fill>
-      <alignment/>
+      <alignment shrinkToFit="0" wrapText="0"/>
       <border>
         <left/>
         <right/>
@@ -1368,7 +1426,7 @@
           <bgColor rgb="FFD8D8D8"/>
         </patternFill>
       </fill>
-      <alignment/>
+      <alignment shrinkToFit="0" wrapText="0"/>
       <border>
         <left/>
         <right/>
@@ -1380,35 +1438,38 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.57"/>
-    <col customWidth="1" min="2" max="2" width="21.43"/>
-    <col customWidth="1" min="3" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="5" width="12.29"/>
-    <col customWidth="1" min="6" max="6" width="11.0"/>
-    <col customWidth="1" min="7" max="7" width="10.57"/>
+    <col customWidth="1" min="1" max="1" width="14.5"/>
+    <col customWidth="1" min="2" max="2" width="18.75"/>
+    <col customWidth="1" min="3" max="4" width="9.13"/>
+    <col customWidth="1" min="5" max="5" width="10.75"/>
+    <col customWidth="1" min="6" max="6" width="9.63"/>
+    <col customWidth="1" min="7" max="7" width="9.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -1427,30 +1488,29 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Minutes_of_en_route_ATFM_delay_per_flight","En route ATFM delay")</f>
-        <v>En route ATFM delay</v>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6">
         <v>41670.0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6">
         <v>41639.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="8"/>
     </row>
@@ -1465,54 +1525,54 @@
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="15">
         <v>1.7</v>
@@ -1523,21 +1583,21 @@
       <c r="E6" s="16">
         <v>599553.0</v>
       </c>
-      <c r="F6" s="17" t="str">
+      <c r="F6" s="17">
         <f t="shared" ref="F6:F28" si="1">E6/D6</f>
-        <v>2.16</v>
-      </c>
-      <c r="G6" s="17" t="str">
+        <v>2.161353583</v>
+      </c>
+      <c r="G6" s="17">
         <f t="shared" ref="G6:G28" si="2">F6-C6</f>
-        <v>0.46</v>
+        <v>0.4613535835</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="15">
         <v>0.2</v>
@@ -1548,21 +1608,21 @@
       <c r="E7" s="16">
         <v>121001.0</v>
       </c>
-      <c r="F7" s="17" t="str">
+      <c r="F7" s="17">
         <f t="shared" si="1"/>
-        <v>0.27</v>
-      </c>
-      <c r="G7" s="17" t="str">
+        <v>0.270872089</v>
+      </c>
+      <c r="G7" s="17">
         <f t="shared" si="2"/>
-        <v>0.07</v>
+        <v>0.07087208899</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="15">
         <v>0.0</v>
@@ -1573,21 +1633,21 @@
       <c r="E8" s="16">
         <v>0.0</v>
       </c>
-      <c r="F8" s="17" t="str">
+      <c r="F8" s="17">
         <f t="shared" si="1"/>
-        <v>0.00</v>
-      </c>
-      <c r="G8" s="17" t="str">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17">
         <f t="shared" si="2"/>
-        <v>0.00</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="15">
         <v>0.04</v>
@@ -1598,21 +1658,21 @@
       <c r="E9" s="16">
         <v>23503.0</v>
       </c>
-      <c r="F9" s="17" t="str">
+      <c r="F9" s="17">
         <f t="shared" si="1"/>
-        <v>0.04</v>
-      </c>
-      <c r="G9" s="17" t="str">
+        <v>0.03832450352</v>
+      </c>
+      <c r="G9" s="17">
         <f t="shared" si="2"/>
-        <v>0.00</v>
+        <v>-0.001675496484</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="15">
         <v>0.03</v>
@@ -1623,96 +1683,96 @@
       <c r="E10" s="16">
         <v>860.0</v>
       </c>
-      <c r="F10" s="17" t="str">
+      <c r="F10" s="17">
         <f t="shared" si="1"/>
-        <v>0.00</v>
-      </c>
-      <c r="G10" s="17" t="str">
+        <v>0.003316583302</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.0266834167</v>
+      </c>
+    </row>
+    <row r="11" ht="12.0" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="16">
+        <v>234339.0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>445.0</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="1"/>
+        <v>0.001898958347</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.02810104165</v>
+      </c>
+    </row>
+    <row r="12" ht="12.0" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="D12" s="16">
+        <v>225403.0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>371.0</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="1"/>
+        <v>0.001645940826</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="2"/>
+        <v>-0.02835405917</v>
+      </c>
+    </row>
+    <row r="13" ht="12.0" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="D13" s="16">
+        <v>109348.0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
         <f t="shared" si="2"/>
         <v>-0.03</v>
       </c>
     </row>
-    <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="D11" s="16">
-        <v>234339.0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>445.0</v>
-      </c>
-      <c r="F11" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>0.00</v>
-      </c>
-      <c r="G11" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="D12" s="16">
-        <v>225403.0</v>
-      </c>
-      <c r="E12" s="16">
-        <v>371.0</v>
-      </c>
-      <c r="F12" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>0.00</v>
-      </c>
-      <c r="G12" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="D13" s="16">
-        <v>109348.0</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>0.00</v>
-      </c>
-      <c r="G13" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>-0.03</v>
-      </c>
-    </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="15">
         <v>0.05</v>
@@ -1723,21 +1783,21 @@
       <c r="E14" s="16">
         <v>0.0</v>
       </c>
-      <c r="F14" s="17" t="str">
+      <c r="F14" s="17">
         <f t="shared" si="1"/>
-        <v>0.00</v>
-      </c>
-      <c r="G14" s="17" t="str">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
         <f t="shared" si="2"/>
         <v>-0.05</v>
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="15">
         <v>0.07</v>
@@ -1748,21 +1808,21 @@
       <c r="E15" s="16">
         <v>619.0</v>
       </c>
-      <c r="F15" s="17" t="str">
+      <c r="F15" s="17">
         <f t="shared" si="1"/>
-        <v>0.00</v>
-      </c>
-      <c r="G15" s="17" t="str">
+        <v>0.001031386473</v>
+      </c>
+      <c r="G15" s="17">
         <f t="shared" si="2"/>
-        <v>-0.07</v>
+        <v>-0.06896861353</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="15">
         <v>0.12</v>
@@ -1773,21 +1833,21 @@
       <c r="E16" s="16">
         <v>0.0</v>
       </c>
-      <c r="F16" s="17" t="str">
+      <c r="F16" s="17">
         <f t="shared" si="1"/>
-        <v>0.00</v>
-      </c>
-      <c r="G16" s="17" t="str">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
         <f t="shared" si="2"/>
         <v>-0.12</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="15">
         <v>0.16</v>
@@ -1798,21 +1858,21 @@
       <c r="E17" s="16">
         <v>25859.0</v>
       </c>
-      <c r="F17" s="17" t="str">
+      <c r="F17" s="17">
         <f t="shared" si="1"/>
-        <v>0.04</v>
-      </c>
-      <c r="G17" s="17" t="str">
+        <v>0.03895548268</v>
+      </c>
+      <c r="G17" s="17">
         <f t="shared" si="2"/>
-        <v>-0.12</v>
+        <v>-0.1210445173</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="15">
         <v>0.13</v>
@@ -1823,21 +1883,21 @@
       <c r="E18" s="16">
         <v>0.0</v>
       </c>
-      <c r="F18" s="17" t="str">
+      <c r="F18" s="17">
         <f t="shared" si="1"/>
-        <v>0.00</v>
-      </c>
-      <c r="G18" s="17" t="str">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
         <f t="shared" si="2"/>
         <v>-0.13</v>
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="15">
         <v>0.15</v>
@@ -1848,21 +1908,21 @@
       <c r="E19" s="16">
         <v>19160.0</v>
       </c>
-      <c r="F19" s="17" t="str">
+      <c r="F19" s="17">
         <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="G19" s="17" t="str">
+        <v>0.01897189367</v>
+      </c>
+      <c r="G19" s="17">
         <f t="shared" si="2"/>
-        <v>-0.13</v>
+        <v>-0.1310281063</v>
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="15">
         <v>0.14</v>
@@ -1873,21 +1933,21 @@
       <c r="E20" s="16">
         <v>4297.0</v>
       </c>
-      <c r="F20" s="17" t="str">
+      <c r="F20" s="17">
         <f t="shared" si="1"/>
-        <v>0.00</v>
-      </c>
-      <c r="G20" s="17" t="str">
+        <v>0.002829015414</v>
+      </c>
+      <c r="G20" s="17">
         <f t="shared" si="2"/>
-        <v>-0.14</v>
+        <v>-0.1371709846</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="15">
         <v>0.263</v>
@@ -1898,21 +1958,21 @@
       <c r="E21" s="16">
         <v>271340.0</v>
       </c>
-      <c r="F21" s="17" t="str">
+      <c r="F21" s="17">
         <f t="shared" si="1"/>
-        <v>0.13</v>
-      </c>
-      <c r="G21" s="17" t="str">
+        <v>0.1250924916</v>
+      </c>
+      <c r="G21" s="17">
         <f t="shared" si="2"/>
-        <v>-0.14</v>
+        <v>-0.1379075084</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="15">
         <v>0.16</v>
@@ -1923,21 +1983,21 @@
       <c r="E22" s="16">
         <v>2824.0</v>
       </c>
-      <c r="F22" s="17" t="str">
+      <c r="F22" s="17">
         <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="G22" s="17" t="str">
+        <v>0.01549477381</v>
+      </c>
+      <c r="G22" s="17">
         <f t="shared" si="2"/>
-        <v>-0.14</v>
+        <v>-0.1445052262</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="15">
         <v>0.68</v>
@@ -1948,21 +2008,21 @@
       <c r="E23" s="16">
         <v>2549313.0</v>
       </c>
-      <c r="F23" s="17" t="str">
+      <c r="F23" s="17">
         <f t="shared" si="1"/>
-        <v>0.47</v>
-      </c>
-      <c r="G23" s="17" t="str">
+        <v>0.4693281368</v>
+      </c>
+      <c r="G23" s="17">
         <f t="shared" si="2"/>
-        <v>-0.21</v>
+        <v>-0.2106718632</v>
       </c>
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="15">
         <v>0.32</v>
@@ -1973,21 +2033,21 @@
       <c r="E24" s="16">
         <v>72.0</v>
       </c>
-      <c r="F24" s="17" t="str">
+      <c r="F24" s="17">
         <f t="shared" si="1"/>
-        <v>0.00</v>
-      </c>
-      <c r="G24" s="17" t="str">
+        <v>0.0001814154944</v>
+      </c>
+      <c r="G24" s="17">
         <f t="shared" si="2"/>
-        <v>-0.32</v>
+        <v>-0.3198185845</v>
       </c>
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="15">
         <v>0.75</v>
@@ -1998,21 +2058,21 @@
       <c r="E25" s="16">
         <v>665359.0</v>
       </c>
-      <c r="F25" s="17" t="str">
+      <c r="F25" s="17">
         <f t="shared" si="1"/>
-        <v>0.41</v>
-      </c>
-      <c r="G25" s="17" t="str">
+        <v>0.411128845</v>
+      </c>
+      <c r="G25" s="17">
         <f t="shared" si="2"/>
-        <v>-0.34</v>
+        <v>-0.338871155</v>
       </c>
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="15">
         <v>0.98</v>
@@ -2023,21 +2083,21 @@
       <c r="E26" s="16">
         <v>178772.0</v>
       </c>
-      <c r="F26" s="17" t="str">
+      <c r="F26" s="17">
         <f t="shared" si="1"/>
-        <v>0.21</v>
-      </c>
-      <c r="G26" s="17" t="str">
+        <v>0.2071604377</v>
+      </c>
+      <c r="G26" s="17">
         <f t="shared" si="2"/>
-        <v>-0.77</v>
+        <v>-0.7728395623</v>
       </c>
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="15">
         <v>1.0</v>
@@ -2048,21 +2108,21 @@
       <c r="E27" s="16">
         <v>39378.0</v>
       </c>
-      <c r="F27" s="17" t="str">
+      <c r="F27" s="17">
         <f t="shared" si="1"/>
-        <v>0.06</v>
-      </c>
-      <c r="G27" s="17" t="str">
+        <v>0.06320655532</v>
+      </c>
+      <c r="G27" s="17">
         <f t="shared" si="2"/>
-        <v>-0.94</v>
+        <v>-0.9367934447</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="15">
         <v>1.5</v>
@@ -2073,13 +2133,13 @@
       <c r="E28" s="16">
         <v>344909.0</v>
       </c>
-      <c r="F28" s="17" t="str">
+      <c r="F28" s="17">
         <f t="shared" si="1"/>
-        <v>0.51</v>
-      </c>
-      <c r="G28" s="17" t="str">
+        <v>0.5072056916</v>
+      </c>
+      <c r="G28" s="17">
         <f t="shared" si="2"/>
-        <v>-0.99</v>
+        <v>-0.9927943084</v>
       </c>
     </row>
   </sheetData>
@@ -2101,26 +2161,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="5" width="14.86"/>
-    <col customWidth="1" min="6" max="6" width="13.14"/>
-    <col customWidth="1" min="7" max="7" width="11.86"/>
-    <col customWidth="1" min="8" max="8" width="12.0"/>
-    <col customWidth="1" min="9" max="9" width="8.0"/>
-    <col customWidth="1" min="10" max="10" width="16.29"/>
-    <col customWidth="1" min="11" max="11" width="10.43"/>
-    <col customWidth="1" min="12" max="12" width="10.86"/>
-    <col customWidth="1" min="13" max="13" width="11.43"/>
-    <col customWidth="1" min="14" max="14" width="10.43"/>
-    <col customWidth="1" min="15" max="19" width="8.0"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="4" width="9.13"/>
+    <col customWidth="1" min="5" max="5" width="13.0"/>
+    <col customWidth="1" min="6" max="6" width="11.5"/>
+    <col customWidth="1" min="7" max="7" width="10.38"/>
+    <col customWidth="1" min="8" max="8" width="10.5"/>
+    <col customWidth="1" min="9" max="9" width="7.0"/>
+    <col customWidth="1" min="10" max="10" width="14.25"/>
+    <col customWidth="1" min="11" max="11" width="9.13"/>
+    <col customWidth="1" min="12" max="12" width="9.5"/>
+    <col customWidth="1" min="13" max="13" width="10.0"/>
+    <col customWidth="1" min="14" max="14" width="9.13"/>
+    <col customWidth="1" min="15" max="19" width="7.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -2139,9 +2202,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Minutes_of_en_route_ATFM_delay_per_flight","En route ATFM delay")</f>
-        <v>En route ATFM delay</v>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="19"/>
@@ -2159,23 +2221,22 @@
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6">
         <v>41670.0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6">
         <v>41639.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="20" t="str">
-        <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
-        <v>NSA-PRU-Support@eurocontrol.int</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="21"/>
@@ -2214,56 +2275,56 @@
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="26" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>9</v>
       </c>
       <c r="S4" s="26"/>
     </row>
@@ -2271,98 +2332,98 @@
       <c r="A5" s="27"/>
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
       <c r="H5" s="32"/>
       <c r="I5" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
       <c r="M5" s="32"/>
       <c r="N5" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
       <c r="Q5" s="32"/>
       <c r="R5" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S5" s="32"/>
     </row>
     <row r="6" ht="38.25" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="K6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="L6" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="M6" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>73</v>
-      </c>
       <c r="N6" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" s="37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="40">
         <v>9714049.0</v>
@@ -2382,51 +2443,51 @@
       <c r="H7" s="43">
         <v>1095260.0</v>
       </c>
-      <c r="I7" s="44" t="str">
+      <c r="I7" s="44">
         <f t="shared" ref="I7:M7" si="1">D7/$C7</f>
-        <v>1.40</v>
-      </c>
-      <c r="J7" s="45" t="str">
+        <v>1.399794257</v>
+      </c>
+      <c r="J7" s="45">
         <f t="shared" si="1"/>
-        <v>1.08</v>
-      </c>
-      <c r="K7" s="45" t="str">
+        <v>1.075487163</v>
+      </c>
+      <c r="K7" s="45">
         <f t="shared" si="1"/>
-        <v>0.08</v>
-      </c>
-      <c r="L7" s="45" t="str">
+        <v>0.08369537769</v>
+      </c>
+      <c r="L7" s="45">
         <f t="shared" si="1"/>
-        <v>0.13</v>
-      </c>
-      <c r="M7" s="46" t="str">
+        <v>0.1278616157</v>
+      </c>
+      <c r="M7" s="46">
         <f t="shared" si="1"/>
-        <v>0.11</v>
-      </c>
-      <c r="N7" s="47" t="str">
+        <v>0.1127501004</v>
+      </c>
+      <c r="N7" s="47">
         <f t="shared" ref="N7:Q7" si="2">E7/$D7</f>
-        <v>76.8%</v>
-      </c>
-      <c r="O7" s="48" t="str">
+        <v>0.768318028</v>
+      </c>
+      <c r="O7" s="48">
         <f t="shared" si="2"/>
-        <v>6.0%</v>
-      </c>
-      <c r="P7" s="48" t="str">
+        <v>0.05979119952</v>
+      </c>
+      <c r="P7" s="48">
         <f t="shared" si="2"/>
-        <v>9.1%</v>
-      </c>
-      <c r="Q7" s="49" t="str">
+        <v>0.09134314923</v>
+      </c>
+      <c r="Q7" s="49">
         <f t="shared" si="2"/>
-        <v>8.1%</v>
+        <v>0.08054762323</v>
       </c>
       <c r="R7" s="50"/>
       <c r="S7" s="51"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="54">
         <v>9032982.0</v>
@@ -2446,51 +2507,51 @@
       <c r="H8" s="57">
         <v>174865.0</v>
       </c>
-      <c r="I8" s="58" t="str">
+      <c r="I8" s="58">
         <f t="shared" ref="I8:M8" si="3">D8/$C8</f>
-        <v>0.93</v>
-      </c>
-      <c r="J8" s="59" t="str">
+        <v>0.9335004764</v>
+      </c>
+      <c r="J8" s="59">
         <f t="shared" si="3"/>
-        <v>0.79</v>
-      </c>
-      <c r="K8" s="59" t="str">
+        <v>0.7861144858</v>
+      </c>
+      <c r="K8" s="59">
         <f t="shared" si="3"/>
-        <v>0.04</v>
-      </c>
-      <c r="L8" s="59" t="str">
+        <v>0.03875597228</v>
+      </c>
+      <c r="L8" s="59">
         <f t="shared" si="3"/>
-        <v>0.09</v>
-      </c>
-      <c r="M8" s="60" t="str">
+        <v>0.08927151632</v>
+      </c>
+      <c r="M8" s="60">
         <f t="shared" si="3"/>
-        <v>0.02</v>
-      </c>
-      <c r="N8" s="61" t="str">
+        <v>0.01935850199</v>
+      </c>
+      <c r="N8" s="61">
         <f t="shared" ref="N8:Q8" si="4">E8/$D8</f>
-        <v>84.2%</v>
-      </c>
-      <c r="O8" s="62" t="str">
+        <v>0.842114713</v>
+      </c>
+      <c r="O8" s="62">
         <f t="shared" si="4"/>
-        <v>4.2%</v>
-      </c>
-      <c r="P8" s="62" t="str">
+        <v>0.04151682111</v>
+      </c>
+      <c r="P8" s="62">
         <f t="shared" si="4"/>
-        <v>9.6%</v>
-      </c>
-      <c r="Q8" s="63" t="str">
+        <v>0.09563092744</v>
+      </c>
+      <c r="Q8" s="63">
         <f t="shared" si="4"/>
-        <v>2.1%</v>
+        <v>0.02073753841</v>
       </c>
       <c r="R8" s="64"/>
       <c r="S8" s="65"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="54">
         <v>9053168.0</v>
@@ -2510,51 +2571,51 @@
       <c r="H9" s="57">
         <v>2229138.0</v>
       </c>
-      <c r="I9" s="58" t="str">
+      <c r="I9" s="58">
         <f t="shared" ref="I9:M9" si="5">D9/$C9</f>
-        <v>2.07</v>
-      </c>
-      <c r="J9" s="59" t="str">
+        <v>2.069378145</v>
+      </c>
+      <c r="J9" s="59">
         <f t="shared" si="5"/>
-        <v>1.27</v>
-      </c>
-      <c r="K9" s="59" t="str">
+        <v>1.266873983</v>
+      </c>
+      <c r="K9" s="59">
         <f t="shared" si="5"/>
-        <v>0.40</v>
-      </c>
-      <c r="L9" s="59" t="str">
+        <v>0.4046798866</v>
+      </c>
+      <c r="L9" s="59">
         <f t="shared" si="5"/>
-        <v>0.15</v>
-      </c>
-      <c r="M9" s="60" t="str">
+        <v>0.1515968775</v>
+      </c>
+      <c r="M9" s="60">
         <f t="shared" si="5"/>
-        <v>0.25</v>
-      </c>
-      <c r="N9" s="61" t="str">
+        <v>0.246227398</v>
+      </c>
+      <c r="N9" s="61">
         <f t="shared" ref="N9:Q9" si="6">E9/$D9</f>
-        <v>61.2%</v>
-      </c>
-      <c r="O9" s="62" t="str">
+        <v>0.6122003298</v>
+      </c>
+      <c r="O9" s="62">
         <f t="shared" si="6"/>
-        <v>19.6%</v>
-      </c>
-      <c r="P9" s="62" t="str">
+        <v>0.1955562775</v>
+      </c>
+      <c r="P9" s="62">
         <f t="shared" si="6"/>
-        <v>7.3%</v>
-      </c>
-      <c r="Q9" s="63" t="str">
+        <v>0.07325721394</v>
+      </c>
+      <c r="Q9" s="63">
         <f t="shared" si="6"/>
-        <v>11.9%</v>
+        <v>0.1189861788</v>
       </c>
       <c r="R9" s="64"/>
       <c r="S9" s="65"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" s="54">
         <v>9301162.0</v>
@@ -2574,51 +2635,51 @@
       <c r="H10" s="57">
         <v>409733.0</v>
       </c>
-      <c r="I10" s="58" t="str">
+      <c r="I10" s="58">
         <f t="shared" ref="I10:M10" si="7">D10/$C10</f>
-        <v>1.15</v>
-      </c>
-      <c r="J10" s="59" t="str">
+        <v>1.147477917</v>
+      </c>
+      <c r="J10" s="59">
         <f t="shared" si="7"/>
-        <v>0.92</v>
-      </c>
-      <c r="K10" s="59" t="str">
+        <v>0.9174524645</v>
+      </c>
+      <c r="K10" s="59">
         <f t="shared" si="7"/>
-        <v>0.06</v>
-      </c>
-      <c r="L10" s="59" t="str">
+        <v>0.05617523918</v>
+      </c>
+      <c r="L10" s="59">
         <f t="shared" si="7"/>
-        <v>0.13</v>
-      </c>
-      <c r="M10" s="60" t="str">
+        <v>0.1297984058</v>
+      </c>
+      <c r="M10" s="60">
         <f t="shared" si="7"/>
-        <v>0.04</v>
-      </c>
-      <c r="N10" s="61" t="str">
+        <v>0.04405180772</v>
+      </c>
+      <c r="N10" s="61">
         <f t="shared" ref="N10:Q10" si="8">E10/$D10</f>
-        <v>80.0%</v>
-      </c>
-      <c r="O10" s="62" t="str">
+        <v>0.7995382314</v>
+      </c>
+      <c r="O10" s="62">
         <f t="shared" si="8"/>
-        <v>4.9%</v>
-      </c>
-      <c r="P10" s="62" t="str">
+        <v>0.04895539891</v>
+      </c>
+      <c r="P10" s="62">
         <f t="shared" si="8"/>
-        <v>11.3%</v>
-      </c>
-      <c r="Q10" s="63" t="str">
+        <v>0.113116256</v>
+      </c>
+      <c r="Q10" s="63">
         <f t="shared" si="8"/>
-        <v>3.8%</v>
+        <v>0.03839011371</v>
       </c>
       <c r="R10" s="64"/>
       <c r="S10" s="65"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="54">
         <v>9050691.0</v>
@@ -2638,56 +2699,56 @@
       <c r="H11" s="57">
         <v>238084.0</v>
       </c>
-      <c r="I11" s="58" t="str">
+      <c r="I11" s="58">
         <f t="shared" ref="I11:M11" si="9">D11/$C11</f>
-        <v>0.63</v>
-      </c>
-      <c r="J11" s="59" t="str">
+        <v>0.6336354871</v>
+      </c>
+      <c r="J11" s="59">
         <f t="shared" si="9"/>
-        <v>0.44</v>
-      </c>
-      <c r="K11" s="59" t="str">
+        <v>0.4378544135</v>
+      </c>
+      <c r="K11" s="59">
         <f t="shared" si="9"/>
-        <v>0.08</v>
-      </c>
-      <c r="L11" s="59" t="str">
+        <v>0.0777718519</v>
+      </c>
+      <c r="L11" s="59">
         <f t="shared" si="9"/>
-        <v>0.09</v>
-      </c>
-      <c r="M11" s="60" t="str">
+        <v>0.09170360584</v>
+      </c>
+      <c r="M11" s="60">
         <f t="shared" si="9"/>
-        <v>0.03</v>
-      </c>
-      <c r="N11" s="61" t="str">
+        <v>0.02630561578</v>
+      </c>
+      <c r="N11" s="61">
         <f t="shared" ref="N11:Q11" si="10">E11/$D11</f>
-        <v>69.1%</v>
-      </c>
-      <c r="O11" s="62" t="str">
+        <v>0.6910193991</v>
+      </c>
+      <c r="O11" s="62">
         <f t="shared" si="10"/>
-        <v>12.3%</v>
-      </c>
-      <c r="P11" s="62" t="str">
+        <v>0.1227391039</v>
+      </c>
+      <c r="P11" s="62">
         <f t="shared" si="10"/>
-        <v>14.5%</v>
-      </c>
-      <c r="Q11" s="63" t="str">
+        <v>0.1447261205</v>
+      </c>
+      <c r="Q11" s="63">
         <f t="shared" si="10"/>
-        <v>4.2%</v>
+        <v>0.04151537646</v>
       </c>
       <c r="R11" s="66">
         <v>0.7</v>
       </c>
-      <c r="S11" s="67" t="str">
+      <c r="S11" s="67">
         <f t="shared" ref="S11:S12" si="13">I11-R11</f>
-        <v>-0.07</v>
+        <v>-0.06636451294</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" s="54">
         <v>8910640.0</v>
@@ -2707,56 +2768,56 @@
       <c r="H12" s="57">
         <v>662223.0</v>
       </c>
-      <c r="I12" s="58" t="str">
+      <c r="I12" s="58">
         <f t="shared" ref="I12:M12" si="11">D12/$C12</f>
-        <v>0.54</v>
-      </c>
-      <c r="J12" s="59" t="str">
+        <v>0.5440277017</v>
+      </c>
+      <c r="J12" s="59">
         <f t="shared" si="11"/>
-        <v>0.28</v>
-      </c>
-      <c r="K12" s="59" t="str">
+        <v>0.282985285</v>
+      </c>
+      <c r="K12" s="59">
         <f t="shared" si="11"/>
-        <v>0.11</v>
-      </c>
-      <c r="L12" s="59" t="str">
+        <v>0.1080957148</v>
+      </c>
+      <c r="L12" s="59">
         <f t="shared" si="11"/>
-        <v>0.08</v>
-      </c>
-      <c r="M12" s="60" t="str">
+        <v>0.07862847113</v>
+      </c>
+      <c r="M12" s="60">
         <f t="shared" si="11"/>
-        <v>0.07</v>
-      </c>
-      <c r="N12" s="61" t="str">
+        <v>0.07431823079</v>
+      </c>
+      <c r="N12" s="61">
         <f t="shared" ref="N12:Q12" si="12">E12/$D12</f>
-        <v>52.0%</v>
-      </c>
-      <c r="O12" s="62" t="str">
+        <v>0.5201670505</v>
+      </c>
+      <c r="O12" s="62">
         <f t="shared" si="12"/>
-        <v>19.9%</v>
-      </c>
-      <c r="P12" s="62" t="str">
+        <v>0.1986952401</v>
+      </c>
+      <c r="P12" s="62">
         <f t="shared" si="12"/>
-        <v>14.5%</v>
-      </c>
-      <c r="Q12" s="63" t="str">
+        <v>0.1445302709</v>
+      </c>
+      <c r="Q12" s="63">
         <f t="shared" si="12"/>
-        <v>13.7%</v>
+        <v>0.1366074385</v>
       </c>
       <c r="R12" s="66">
         <v>0.6</v>
       </c>
-      <c r="S12" s="67" t="str">
+      <c r="S12" s="67">
         <f t="shared" si="13"/>
-        <v>-0.06</v>
+        <v>-0.05597229829</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="70"/>
       <c r="D13" s="71"/>
@@ -2799,32 +2860,34 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F1"/>
-    <hyperlink r:id="rId2" ref="F2"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5.0" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B7" sqref="B7" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="5" width="10.43"/>
-    <col customWidth="1" min="6" max="6" width="9.29"/>
-    <col customWidth="1" min="7" max="7" width="9.14"/>
-    <col customWidth="1" min="8" max="17" width="8.0"/>
-    <col customWidth="1" min="18" max="18" width="10.43"/>
-    <col customWidth="1" min="19" max="19" width="11.0"/>
-    <col customWidth="1" min="20" max="20" width="11.57"/>
-    <col customWidth="1" min="21" max="21" width="11.0"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="5" width="9.13"/>
+    <col customWidth="1" min="6" max="6" width="8.13"/>
+    <col customWidth="1" min="7" max="7" width="8.0"/>
+    <col customWidth="1" min="8" max="17" width="7.0"/>
+    <col customWidth="1" min="18" max="18" width="9.13"/>
+    <col customWidth="1" min="19" max="19" width="9.63"/>
+    <col customWidth="1" min="20" max="20" width="10.13"/>
+    <col customWidth="1" min="21" max="21" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -2843,9 +2906,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Minutes_of_en_route_ATFM_delay_per_flight","En route ATFM delay")</f>
-        <v>En route ATFM delay</v>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="19"/>
@@ -2865,23 +2927,22 @@
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6">
         <v>41670.0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6">
         <v>41639.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="20" t="str">
-        <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
-        <v>NSA-PRU-Support@eurocontrol.int</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="21"/>
@@ -2928,24 +2989,24 @@
       <c r="C4" s="82"/>
       <c r="D4" s="83"/>
       <c r="E4" s="84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="86"/>
       <c r="H4" s="86"/>
       <c r="I4" s="86"/>
       <c r="J4" s="87"/>
       <c r="K4" s="85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" s="86"/>
       <c r="M4" s="86"/>
       <c r="N4" s="86"/>
       <c r="O4" s="87"/>
       <c r="P4" s="88" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="86"/>
       <c r="R4" s="86"/>
@@ -2955,72 +3016,72 @@
     </row>
     <row r="5" ht="51.0" customHeight="1">
       <c r="A5" s="89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" s="91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5" s="92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" s="93" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5" s="94" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="94" t="s">
+      <c r="M5" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="95" t="s">
+      <c r="N5" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="94" t="s">
-        <v>72</v>
-      </c>
       <c r="O5" s="95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" s="96" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="97" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R5" s="97" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" s="98" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T5" s="89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U5" s="91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6" s="99">
         <v>2008.0</v>
@@ -3029,7 +3090,7 @@
         <v>39448.0</v>
       </c>
       <c r="D6" s="101" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6" s="40">
         <v>742800.0</v>
@@ -3049,51 +3110,51 @@
       <c r="J6" s="43">
         <v>250949.0</v>
       </c>
-      <c r="K6" s="44" t="str">
+      <c r="K6" s="44">
         <f t="shared" ref="K6:O6" si="1">F6/$E6</f>
-        <v>0.94</v>
-      </c>
-      <c r="L6" s="45" t="str">
+        <v>0.9440656974</v>
+      </c>
+      <c r="L6" s="45">
         <f t="shared" si="1"/>
-        <v>0.52</v>
-      </c>
-      <c r="M6" s="45" t="str">
+        <v>0.5232229402</v>
+      </c>
+      <c r="M6" s="45">
         <f t="shared" si="1"/>
-        <v>0.07</v>
-      </c>
-      <c r="N6" s="45" t="str">
+        <v>0.06658858374</v>
+      </c>
+      <c r="N6" s="45">
         <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="O6" s="46" t="str">
+        <v>0.01641222402</v>
+      </c>
+      <c r="O6" s="46">
         <f t="shared" si="1"/>
-        <v>0.34</v>
-      </c>
-      <c r="P6" s="61" t="str">
+        <v>0.3378419494</v>
+      </c>
+      <c r="P6" s="61">
         <f t="shared" ref="P6:S6" si="2">G6/$F6</f>
-        <v>55.4%</v>
-      </c>
-      <c r="Q6" s="62" t="str">
+        <v>0.5542230183</v>
+      </c>
+      <c r="Q6" s="62">
         <f t="shared" si="2"/>
-        <v>7.1%</v>
-      </c>
-      <c r="R6" s="62" t="str">
+        <v>0.07053384518</v>
+      </c>
+      <c r="R6" s="62">
         <f t="shared" si="2"/>
-        <v>1.7%</v>
-      </c>
-      <c r="S6" s="63" t="str">
+        <v>0.01738462065</v>
+      </c>
+      <c r="S6" s="63">
         <f t="shared" si="2"/>
-        <v>35.8%</v>
-      </c>
-      <c r="T6" s="102" t="str">
+        <v>0.3578585159</v>
+      </c>
+      <c r="T6" s="102">
         <f>F6/E6</f>
-        <v>0.94</v>
+        <v>0.9440656974</v>
       </c>
       <c r="U6" s="65"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" s="99">
         <v>2008.0</v>
@@ -3102,7 +3163,7 @@
         <v>39479.0</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" s="54">
         <v>724038.0</v>
@@ -3122,51 +3183,51 @@
       <c r="J7" s="57">
         <v>208721.0</v>
       </c>
-      <c r="K7" s="58" t="str">
+      <c r="K7" s="58">
         <f t="shared" ref="K7:O7" si="3">F7/$E7</f>
-        <v>1.18</v>
-      </c>
-      <c r="L7" s="59" t="str">
+        <v>1.176365053</v>
+      </c>
+      <c r="L7" s="59">
         <f t="shared" si="3"/>
-        <v>0.67</v>
-      </c>
-      <c r="M7" s="59" t="str">
+        <v>0.6685905988</v>
+      </c>
+      <c r="M7" s="59">
         <f t="shared" si="3"/>
-        <v>0.21</v>
-      </c>
-      <c r="N7" s="59" t="str">
+        <v>0.2105718208</v>
+      </c>
+      <c r="N7" s="59">
         <f t="shared" si="3"/>
-        <v>0.01</v>
-      </c>
-      <c r="O7" s="60" t="str">
+        <v>0.008929089357</v>
+      </c>
+      <c r="O7" s="60">
         <f t="shared" si="3"/>
-        <v>0.29</v>
-      </c>
-      <c r="P7" s="61" t="str">
+        <v>0.2882735437</v>
+      </c>
+      <c r="P7" s="61">
         <f t="shared" ref="P7:S7" si="4">G7/$F7</f>
-        <v>56.8%</v>
-      </c>
-      <c r="Q7" s="62" t="str">
+        <v>0.5683529933</v>
+      </c>
+      <c r="Q7" s="62">
         <f t="shared" si="4"/>
-        <v>17.9%</v>
-      </c>
-      <c r="R7" s="62" t="str">
+        <v>0.1790021051</v>
+      </c>
+      <c r="R7" s="62">
         <f t="shared" si="4"/>
-        <v>0.8%</v>
-      </c>
-      <c r="S7" s="63" t="str">
+        <v>0.007590406853</v>
+      </c>
+      <c r="S7" s="63">
         <f t="shared" si="4"/>
-        <v>24.5%</v>
-      </c>
-      <c r="T7" s="102" t="str">
+        <v>0.2450544948</v>
+      </c>
+      <c r="T7" s="102">
         <f t="shared" ref="T7:T17" si="7">SUM(F$6:F7)/SUM(E$6:E7)</f>
-        <v>1.06</v>
+        <v>1.05872973</v>
       </c>
       <c r="U7" s="103"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="99">
         <v>2008.0</v>
@@ -3175,7 +3236,7 @@
         <v>39508.0</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8" s="54">
         <v>776313.0</v>
@@ -3195,51 +3256,51 @@
       <c r="J8" s="57">
         <v>158083.0</v>
       </c>
-      <c r="K8" s="58" t="str">
+      <c r="K8" s="58">
         <f t="shared" ref="K8:O8" si="5">F8/$E8</f>
-        <v>1.13</v>
-      </c>
-      <c r="L8" s="59" t="str">
+        <v>1.133918922</v>
+      </c>
+      <c r="L8" s="59">
         <f t="shared" si="5"/>
-        <v>0.82</v>
-      </c>
-      <c r="M8" s="59" t="str">
+        <v>0.8150707253</v>
+      </c>
+      <c r="M8" s="59">
         <f t="shared" si="5"/>
-        <v>0.09</v>
-      </c>
-      <c r="N8" s="59" t="str">
+        <v>0.08688248168</v>
+      </c>
+      <c r="N8" s="59">
         <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-      <c r="O8" s="60" t="str">
+        <v>0.02833264418</v>
+      </c>
+      <c r="O8" s="60">
         <f t="shared" si="5"/>
-        <v>0.20</v>
-      </c>
-      <c r="P8" s="61" t="str">
+        <v>0.2036330707</v>
+      </c>
+      <c r="P8" s="61">
         <f t="shared" ref="P8:S8" si="6">G8/$F8</f>
-        <v>71.9%</v>
-      </c>
-      <c r="Q8" s="62" t="str">
+        <v>0.7188086464</v>
+      </c>
+      <c r="Q8" s="62">
         <f t="shared" si="6"/>
-        <v>7.7%</v>
-      </c>
-      <c r="R8" s="62" t="str">
+        <v>0.07662142328</v>
+      </c>
+      <c r="R8" s="62">
         <f t="shared" si="6"/>
-        <v>2.5%</v>
-      </c>
-      <c r="S8" s="63" t="str">
+        <v>0.02498648151</v>
+      </c>
+      <c r="S8" s="63">
         <f t="shared" si="6"/>
-        <v>18.0%</v>
-      </c>
-      <c r="T8" s="102" t="str">
+        <v>0.1795834488</v>
+      </c>
+      <c r="T8" s="102">
         <f t="shared" si="7"/>
-        <v>1.08</v>
+        <v>1.084751316</v>
       </c>
       <c r="U8" s="103"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" s="99">
         <v>2008.0</v>
@@ -3248,7 +3309,7 @@
         <v>39539.0</v>
       </c>
       <c r="D9" s="101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E9" s="54">
         <v>819117.0</v>
@@ -3268,51 +3329,51 @@
       <c r="J9" s="57">
         <v>141628.0</v>
       </c>
-      <c r="K9" s="58" t="str">
+      <c r="K9" s="58">
         <f t="shared" ref="K9:O9" si="8">F9/$E9</f>
-        <v>0.87</v>
-      </c>
-      <c r="L9" s="59" t="str">
+        <v>0.8686475803</v>
+      </c>
+      <c r="L9" s="59">
         <f t="shared" si="8"/>
-        <v>0.64</v>
-      </c>
-      <c r="M9" s="59" t="str">
+        <v>0.6391174887</v>
+      </c>
+      <c r="M9" s="59">
         <f t="shared" si="8"/>
-        <v>0.01</v>
-      </c>
-      <c r="N9" s="59" t="str">
+        <v>0.008813148793</v>
+      </c>
+      <c r="N9" s="59">
         <f t="shared" si="8"/>
-        <v>0.05</v>
-      </c>
-      <c r="O9" s="60" t="str">
+        <v>0.04781368229</v>
+      </c>
+      <c r="O9" s="60">
         <f t="shared" si="8"/>
-        <v>0.17</v>
-      </c>
-      <c r="P9" s="61" t="str">
+        <v>0.1729032605</v>
+      </c>
+      <c r="P9" s="61">
         <f t="shared" ref="P9:S9" si="9">G9/$F9</f>
-        <v>73.6%</v>
-      </c>
-      <c r="Q9" s="62" t="str">
+        <v>0.7357615485</v>
+      </c>
+      <c r="Q9" s="62">
         <f t="shared" si="9"/>
-        <v>1.0%</v>
-      </c>
-      <c r="R9" s="62" t="str">
+        <v>0.01014582783</v>
+      </c>
+      <c r="R9" s="62">
         <f t="shared" si="9"/>
-        <v>5.5%</v>
-      </c>
-      <c r="S9" s="63" t="str">
+        <v>0.05504382143</v>
+      </c>
+      <c r="S9" s="63">
         <f t="shared" si="9"/>
-        <v>19.9%</v>
-      </c>
-      <c r="T9" s="102" t="str">
+        <v>0.1990488023</v>
+      </c>
+      <c r="T9" s="102">
         <f t="shared" si="7"/>
-        <v>1.03</v>
+        <v>1.026946368</v>
       </c>
       <c r="U9" s="103"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" s="99">
         <v>2008.0</v>
@@ -3321,7 +3382,7 @@
         <v>39569.0</v>
       </c>
       <c r="D10" s="101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" s="54">
         <v>864626.0</v>
@@ -3341,51 +3402,51 @@
       <c r="J10" s="57">
         <v>39800.0</v>
       </c>
-      <c r="K10" s="58" t="str">
+      <c r="K10" s="58">
         <f t="shared" ref="K10:O10" si="10">F10/$E10</f>
-        <v>1.40</v>
-      </c>
-      <c r="L10" s="59" t="str">
+        <v>1.399447854</v>
+      </c>
+      <c r="L10" s="59">
         <f t="shared" si="10"/>
-        <v>1.08</v>
-      </c>
-      <c r="M10" s="59" t="str">
+        <v>1.076464275</v>
+      </c>
+      <c r="M10" s="59">
         <f t="shared" si="10"/>
-        <v>0.12</v>
-      </c>
-      <c r="N10" s="59" t="str">
+        <v>0.1236488378</v>
+      </c>
+      <c r="N10" s="59">
         <f t="shared" si="10"/>
-        <v>0.15</v>
-      </c>
-      <c r="O10" s="60" t="str">
+        <v>0.1533032779</v>
+      </c>
+      <c r="O10" s="60">
         <f t="shared" si="10"/>
-        <v>0.05</v>
-      </c>
-      <c r="P10" s="61" t="str">
+        <v>0.04603146331</v>
+      </c>
+      <c r="P10" s="61">
         <f t="shared" ref="P10:S10" si="11">G10/$F10</f>
-        <v>76.9%</v>
-      </c>
-      <c r="Q10" s="62" t="str">
+        <v>0.7692064208</v>
+      </c>
+      <c r="Q10" s="62">
         <f t="shared" si="11"/>
-        <v>8.8%</v>
-      </c>
-      <c r="R10" s="62" t="str">
+        <v>0.08835544492</v>
+      </c>
+      <c r="R10" s="62">
         <f t="shared" si="11"/>
-        <v>11.0%</v>
-      </c>
-      <c r="S10" s="63" t="str">
+        <v>0.1095455451</v>
+      </c>
+      <c r="S10" s="63">
         <f t="shared" si="11"/>
-        <v>3.3%</v>
-      </c>
-      <c r="T10" s="102" t="str">
+        <v>0.03289258917</v>
+      </c>
+      <c r="T10" s="102">
         <f t="shared" si="7"/>
-        <v>1.11</v>
+        <v>1.10896398</v>
       </c>
       <c r="U10" s="103"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="99">
         <v>2008.0</v>
@@ -3394,7 +3455,7 @@
         <v>39600.0</v>
       </c>
       <c r="D11" s="101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="54">
         <v>892997.0</v>
@@ -3414,51 +3475,51 @@
       <c r="J11" s="57">
         <v>49422.0</v>
       </c>
-      <c r="K11" s="58" t="str">
+      <c r="K11" s="58">
         <f t="shared" ref="K11:O11" si="12">F11/$E11</f>
-        <v>2.23</v>
-      </c>
-      <c r="L11" s="59" t="str">
+        <v>2.231363599</v>
+      </c>
+      <c r="L11" s="59">
         <f t="shared" si="12"/>
-        <v>1.76</v>
-      </c>
-      <c r="M11" s="59" t="str">
+        <v>1.758761788</v>
+      </c>
+      <c r="M11" s="59">
         <f t="shared" si="12"/>
-        <v>0.14</v>
-      </c>
-      <c r="N11" s="59" t="str">
+        <v>0.1380822108</v>
+      </c>
+      <c r="N11" s="59">
         <f t="shared" si="12"/>
-        <v>0.28</v>
-      </c>
-      <c r="O11" s="60" t="str">
+        <v>0.2791756299</v>
+      </c>
+      <c r="O11" s="60">
         <f t="shared" si="12"/>
-        <v>0.06</v>
-      </c>
-      <c r="P11" s="61" t="str">
+        <v>0.05534397092</v>
+      </c>
+      <c r="P11" s="61">
         <f t="shared" ref="P11:S11" si="13">G11/$F11</f>
-        <v>78.8%</v>
-      </c>
-      <c r="Q11" s="62" t="str">
+        <v>0.7882004476</v>
+      </c>
+      <c r="Q11" s="62">
         <f t="shared" si="13"/>
-        <v>6.2%</v>
-      </c>
-      <c r="R11" s="62" t="str">
+        <v>0.06188243406</v>
+      </c>
+      <c r="R11" s="62">
         <f t="shared" si="13"/>
-        <v>12.5%</v>
-      </c>
-      <c r="S11" s="63" t="str">
+        <v>0.1251143606</v>
+      </c>
+      <c r="S11" s="63">
         <f t="shared" si="13"/>
-        <v>2.5%</v>
-      </c>
-      <c r="T11" s="102" t="str">
+        <v>0.0248027578</v>
+      </c>
+      <c r="T11" s="102">
         <f t="shared" si="7"/>
-        <v>1.32</v>
+        <v>1.316914636</v>
       </c>
       <c r="U11" s="103"/>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="99">
         <v>2008.0</v>
@@ -3467,7 +3528,7 @@
         <v>39630.0</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E12" s="54">
         <v>910010.0</v>
@@ -3487,51 +3548,51 @@
       <c r="J12" s="57">
         <v>40788.0</v>
       </c>
-      <c r="K12" s="58" t="str">
+      <c r="K12" s="58">
         <f t="shared" ref="K12:O12" si="14">F12/$E12</f>
-        <v>2.50</v>
-      </c>
-      <c r="L12" s="59" t="str">
+        <v>2.502556016</v>
+      </c>
+      <c r="L12" s="59">
         <f t="shared" si="14"/>
-        <v>1.87</v>
-      </c>
-      <c r="M12" s="59" t="str">
+        <v>1.865797079</v>
+      </c>
+      <c r="M12" s="59">
         <f t="shared" si="14"/>
-        <v>0.10</v>
-      </c>
-      <c r="N12" s="59" t="str">
+        <v>0.1034483138</v>
+      </c>
+      <c r="N12" s="59">
         <f t="shared" si="14"/>
-        <v>0.49</v>
-      </c>
-      <c r="O12" s="60" t="str">
+        <v>0.4884891375</v>
+      </c>
+      <c r="O12" s="60">
         <f t="shared" si="14"/>
-        <v>0.04</v>
-      </c>
-      <c r="P12" s="61" t="str">
+        <v>0.04482148548</v>
+      </c>
+      <c r="P12" s="61">
         <f t="shared" ref="P12:S12" si="15">G12/$F12</f>
-        <v>74.6%</v>
-      </c>
-      <c r="Q12" s="62" t="str">
+        <v>0.7455565699</v>
+      </c>
+      <c r="Q12" s="62">
         <f t="shared" si="15"/>
-        <v>4.1%</v>
-      </c>
-      <c r="R12" s="62" t="str">
+        <v>0.04133706223</v>
+      </c>
+      <c r="R12" s="62">
         <f t="shared" si="15"/>
-        <v>19.5%</v>
-      </c>
-      <c r="S12" s="63" t="str">
+        <v>0.1951960853</v>
+      </c>
+      <c r="S12" s="63">
         <f t="shared" si="15"/>
-        <v>1.8%</v>
-      </c>
-      <c r="T12" s="102" t="str">
+        <v>0.0179102826</v>
+      </c>
+      <c r="T12" s="102">
         <f t="shared" si="7"/>
-        <v>1.51</v>
+        <v>1.505215535</v>
       </c>
       <c r="U12" s="103"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B13" s="99">
         <v>2008.0</v>
@@ -3540,7 +3601,7 @@
         <v>39661.0</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E13" s="54">
         <v>894450.0</v>
@@ -3560,51 +3621,51 @@
       <c r="J13" s="57">
         <v>19237.0</v>
       </c>
-      <c r="K13" s="58" t="str">
+      <c r="K13" s="58">
         <f t="shared" ref="K13:O13" si="16">F13/$E13</f>
-        <v>2.16</v>
-      </c>
-      <c r="L13" s="59" t="str">
+        <v>2.159184974</v>
+      </c>
+      <c r="L13" s="59">
         <f t="shared" si="16"/>
-        <v>1.89</v>
-      </c>
-      <c r="M13" s="59" t="str">
+        <v>1.891475208</v>
+      </c>
+      <c r="M13" s="59">
         <f t="shared" si="16"/>
-        <v>0.02</v>
-      </c>
-      <c r="N13" s="59" t="str">
+        <v>0.01818547711</v>
+      </c>
+      <c r="N13" s="59">
         <f t="shared" si="16"/>
-        <v>0.23</v>
-      </c>
-      <c r="O13" s="60" t="str">
+        <v>0.2280172173</v>
+      </c>
+      <c r="O13" s="60">
         <f t="shared" si="16"/>
-        <v>0.02</v>
-      </c>
-      <c r="P13" s="61" t="str">
+        <v>0.02150707138</v>
+      </c>
+      <c r="P13" s="61">
         <f t="shared" ref="P13:S13" si="17">G13/$F13</f>
-        <v>87.6%</v>
-      </c>
-      <c r="Q13" s="62" t="str">
+        <v>0.8760135102</v>
+      </c>
+      <c r="Q13" s="62">
         <f t="shared" si="17"/>
-        <v>0.8%</v>
-      </c>
-      <c r="R13" s="62" t="str">
+        <v>0.008422380355</v>
+      </c>
+      <c r="R13" s="62">
         <f t="shared" si="17"/>
-        <v>10.6%</v>
-      </c>
-      <c r="S13" s="63" t="str">
+        <v>0.1056033735</v>
+      </c>
+      <c r="S13" s="63">
         <f t="shared" si="17"/>
-        <v>1.0%</v>
-      </c>
-      <c r="T13" s="102" t="str">
+        <v>0.009960735946</v>
+      </c>
+      <c r="T13" s="102">
         <f t="shared" si="7"/>
-        <v>1.59</v>
+        <v>1.593517463</v>
       </c>
       <c r="U13" s="103"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="99">
         <v>2008.0</v>
@@ -3613,7 +3674,7 @@
         <v>39692.0</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E14" s="54">
         <v>878019.0</v>
@@ -3633,51 +3694,51 @@
       <c r="J14" s="57">
         <v>42184.0</v>
       </c>
-      <c r="K14" s="58" t="str">
+      <c r="K14" s="58">
         <f t="shared" ref="K14:O14" si="18">F14/$E14</f>
-        <v>1.73</v>
-      </c>
-      <c r="L14" s="59" t="str">
+        <v>1.728302007</v>
+      </c>
+      <c r="L14" s="59">
         <f t="shared" si="18"/>
-        <v>1.45</v>
-      </c>
-      <c r="M14" s="59" t="str">
+        <v>1.445239795</v>
+      </c>
+      <c r="M14" s="59">
         <f t="shared" si="18"/>
-        <v>0.12</v>
-      </c>
-      <c r="N14" s="59" t="str">
+        <v>0.1201443249</v>
+      </c>
+      <c r="N14" s="59">
         <f t="shared" si="18"/>
-        <v>0.11</v>
-      </c>
-      <c r="O14" s="60" t="str">
+        <v>0.1148733683</v>
+      </c>
+      <c r="O14" s="60">
         <f t="shared" si="18"/>
-        <v>0.05</v>
-      </c>
-      <c r="P14" s="61" t="str">
+        <v>0.0480445184</v>
+      </c>
+      <c r="P14" s="61">
         <f t="shared" ref="P14:S14" si="19">G14/$F14</f>
-        <v>83.6%</v>
-      </c>
-      <c r="Q14" s="62" t="str">
+        <v>0.8362194741</v>
+      </c>
+      <c r="Q14" s="62">
         <f t="shared" si="19"/>
-        <v>7.0%</v>
-      </c>
-      <c r="R14" s="62" t="str">
+        <v>0.06951581633</v>
+      </c>
+      <c r="R14" s="62">
         <f t="shared" si="19"/>
-        <v>6.6%</v>
-      </c>
-      <c r="S14" s="63" t="str">
+        <v>0.06646602727</v>
+      </c>
+      <c r="S14" s="63">
         <f t="shared" si="19"/>
-        <v>2.8%</v>
-      </c>
-      <c r="T14" s="102" t="str">
+        <v>0.02779868229</v>
+      </c>
+      <c r="T14" s="102">
         <f t="shared" si="7"/>
-        <v>1.61</v>
+        <v>1.609291597</v>
       </c>
       <c r="U14" s="103"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="99">
         <v>2008.0</v>
@@ -3686,7 +3747,7 @@
         <v>39722.0</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E15" s="54">
         <v>840694.0</v>
@@ -3706,51 +3767,51 @@
       <c r="J15" s="57">
         <v>17017.0</v>
       </c>
-      <c r="K15" s="58" t="str">
+      <c r="K15" s="58">
         <f t="shared" ref="K15:O15" si="20">F15/$E15</f>
-        <v>0.99</v>
-      </c>
-      <c r="L15" s="59" t="str">
+        <v>0.988214499</v>
+      </c>
+      <c r="L15" s="59">
         <f t="shared" si="20"/>
-        <v>0.89</v>
-      </c>
-      <c r="M15" s="59" t="str">
+        <v>0.8889429448</v>
+      </c>
+      <c r="M15" s="59">
         <f t="shared" si="20"/>
-        <v>0.07</v>
-      </c>
-      <c r="N15" s="59" t="str">
+        <v>0.06929988795</v>
+      </c>
+      <c r="N15" s="59">
         <f t="shared" si="20"/>
-        <v>0.01</v>
-      </c>
-      <c r="O15" s="60" t="str">
+        <v>0.009730056358</v>
+      </c>
+      <c r="O15" s="60">
         <f t="shared" si="20"/>
-        <v>0.02</v>
-      </c>
-      <c r="P15" s="61" t="str">
+        <v>0.02024160991</v>
+      </c>
+      <c r="P15" s="61">
         <f t="shared" ref="P15:S15" si="21">G15/$F15</f>
-        <v>90.0%</v>
-      </c>
-      <c r="Q15" s="62" t="str">
+        <v>0.8995445277</v>
+      </c>
+      <c r="Q15" s="62">
         <f t="shared" si="21"/>
-        <v>7.0%</v>
-      </c>
-      <c r="R15" s="62" t="str">
+        <v>0.07012636226</v>
+      </c>
+      <c r="R15" s="62">
         <f t="shared" si="21"/>
-        <v>1.0%</v>
-      </c>
-      <c r="S15" s="63" t="str">
+        <v>0.009846097551</v>
+      </c>
+      <c r="S15" s="63">
         <f t="shared" si="21"/>
-        <v>2.0%</v>
-      </c>
-      <c r="T15" s="102" t="str">
+        <v>0.02048301247</v>
+      </c>
+      <c r="T15" s="102">
         <f t="shared" si="7"/>
-        <v>1.55</v>
+        <v>1.54670838</v>
       </c>
       <c r="U15" s="103"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="99">
         <v>2008.0</v>
@@ -3759,7 +3820,7 @@
         <v>39753.0</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E16" s="54">
         <v>704407.0</v>
@@ -3779,51 +3840,51 @@
       <c r="J16" s="57">
         <v>22925.0</v>
       </c>
-      <c r="K16" s="58" t="str">
+      <c r="K16" s="58">
         <f t="shared" ref="K16:O16" si="22">F16/$E16</f>
-        <v>0.42</v>
-      </c>
-      <c r="L16" s="59" t="str">
+        <v>0.4160094945</v>
+      </c>
+      <c r="L16" s="59">
         <f t="shared" si="22"/>
-        <v>0.36</v>
-      </c>
-      <c r="M16" s="59" t="str">
+        <v>0.3588053497</v>
+      </c>
+      <c r="M16" s="59">
         <f t="shared" si="22"/>
-        <v>0.01</v>
-      </c>
-      <c r="N16" s="59" t="str">
+        <v>0.01427867696</v>
+      </c>
+      <c r="N16" s="59">
         <f t="shared" si="22"/>
-        <v>0.01</v>
-      </c>
-      <c r="O16" s="60" t="str">
+        <v>0.01038036249</v>
+      </c>
+      <c r="O16" s="60">
         <f t="shared" si="22"/>
-        <v>0.03</v>
-      </c>
-      <c r="P16" s="61" t="str">
+        <v>0.03254510532</v>
+      </c>
+      <c r="P16" s="61">
         <f t="shared" ref="P16:S16" si="23">G16/$F16</f>
-        <v>86.2%</v>
-      </c>
-      <c r="Q16" s="62" t="str">
+        <v>0.862493175</v>
+      </c>
+      <c r="Q16" s="62">
         <f t="shared" si="23"/>
-        <v>3.4%</v>
-      </c>
-      <c r="R16" s="62" t="str">
+        <v>0.03432295932</v>
+      </c>
+      <c r="R16" s="62">
         <f t="shared" si="23"/>
-        <v>2.5%</v>
-      </c>
-      <c r="S16" s="63" t="str">
+        <v>0.02495222495</v>
+      </c>
+      <c r="S16" s="63">
         <f t="shared" si="23"/>
-        <v>7.8%</v>
-      </c>
-      <c r="T16" s="102" t="str">
+        <v>0.07823164073</v>
+      </c>
+      <c r="T16" s="102">
         <f t="shared" si="7"/>
-        <v>1.46</v>
+        <v>1.4586758</v>
       </c>
       <c r="U16" s="103"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="104" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" s="105">
         <v>2008.0</v>
@@ -3832,7 +3893,7 @@
         <v>39783.0</v>
       </c>
       <c r="D17" s="107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E17" s="108">
         <v>666578.0</v>
@@ -3852,51 +3913,51 @@
       <c r="J17" s="111">
         <v>104506.0</v>
       </c>
-      <c r="K17" s="112" t="str">
+      <c r="K17" s="112">
         <f t="shared" ref="K17:O17" si="24">F17/$E17</f>
-        <v>0.60</v>
-      </c>
-      <c r="L17" s="113" t="str">
+        <v>0.6005943791</v>
+      </c>
+      <c r="L17" s="113">
         <f t="shared" si="24"/>
-        <v>0.39</v>
-      </c>
-      <c r="M17" s="113" t="str">
+        <v>0.3874775345</v>
+      </c>
+      <c r="M17" s="113">
         <f t="shared" si="24"/>
-        <v>0.03</v>
-      </c>
-      <c r="N17" s="113" t="str">
+        <v>0.03300588978</v>
+      </c>
+      <c r="N17" s="113">
         <f t="shared" si="24"/>
-        <v>0.02</v>
-      </c>
-      <c r="O17" s="114" t="str">
+        <v>0.02333110304</v>
+      </c>
+      <c r="O17" s="114">
         <f t="shared" si="24"/>
-        <v>0.16</v>
-      </c>
-      <c r="P17" s="115" t="str">
+        <v>0.1567798517</v>
+      </c>
+      <c r="P17" s="115">
         <f t="shared" ref="P17:S17" si="25">G17/$F17</f>
-        <v>64.5%</v>
-      </c>
-      <c r="Q17" s="116" t="str">
+        <v>0.6451567781</v>
+      </c>
+      <c r="Q17" s="116">
         <f t="shared" si="25"/>
-        <v>5.5%</v>
-      </c>
-      <c r="R17" s="116" t="str">
+        <v>0.05495537577</v>
+      </c>
+      <c r="R17" s="116">
         <f t="shared" si="25"/>
-        <v>3.9%</v>
-      </c>
-      <c r="S17" s="117" t="str">
+        <v>0.03884668896</v>
+      </c>
+      <c r="S17" s="117">
         <f t="shared" si="25"/>
-        <v>26.1%</v>
-      </c>
-      <c r="T17" s="118" t="str">
+        <v>0.2610411572</v>
+      </c>
+      <c r="T17" s="118">
         <f t="shared" si="7"/>
-        <v>1.40</v>
+        <v>1.399794257</v>
       </c>
       <c r="U17" s="119"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" s="120">
         <v>2009.0</v>
@@ -3905,7 +3966,7 @@
         <v>39814.0</v>
       </c>
       <c r="D18" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E18" s="40">
         <v>667202.0</v>
@@ -3925,51 +3986,51 @@
       <c r="J18" s="43">
         <v>4193.0</v>
       </c>
-      <c r="K18" s="44" t="str">
+      <c r="K18" s="44">
         <f t="shared" ref="K18:O18" si="26">F18/$E18</f>
-        <v>0.47</v>
-      </c>
-      <c r="L18" s="45" t="str">
+        <v>0.4662021397</v>
+      </c>
+      <c r="L18" s="45">
         <f t="shared" si="26"/>
-        <v>0.41</v>
-      </c>
-      <c r="M18" s="45" t="str">
+        <v>0.4062832545</v>
+      </c>
+      <c r="M18" s="45">
         <f t="shared" si="26"/>
-        <v>0.05</v>
-      </c>
-      <c r="N18" s="45" t="str">
+        <v>0.05193329756</v>
+      </c>
+      <c r="N18" s="45">
         <f t="shared" si="26"/>
-        <v>0.00</v>
-      </c>
-      <c r="O18" s="46" t="str">
+        <v>0.001701133989</v>
+      </c>
+      <c r="O18" s="46">
         <f t="shared" si="26"/>
-        <v>0.01</v>
-      </c>
-      <c r="P18" s="47" t="str">
+        <v>0.006284453584</v>
+      </c>
+      <c r="P18" s="47">
         <f t="shared" ref="P18:S18" si="27">G18/$F18</f>
-        <v>87.1%</v>
-      </c>
-      <c r="Q18" s="48" t="str">
+        <v>0.8714744527</v>
+      </c>
+      <c r="Q18" s="48">
         <f t="shared" si="27"/>
-        <v>11.1%</v>
-      </c>
-      <c r="R18" s="48" t="str">
+        <v>0.1113965234</v>
+      </c>
+      <c r="R18" s="48">
         <f t="shared" si="27"/>
-        <v>0.4%</v>
-      </c>
-      <c r="S18" s="49" t="str">
+        <v>0.003648919309</v>
+      </c>
+      <c r="S18" s="49">
         <f t="shared" si="27"/>
-        <v>1.3%</v>
-      </c>
-      <c r="T18" s="123" t="str">
+        <v>0.01348010455</v>
+      </c>
+      <c r="T18" s="123">
         <f>F18/E18</f>
-        <v>0.47</v>
+        <v>0.4662021397</v>
       </c>
       <c r="U18" s="124"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" s="99">
         <v>2009.0</v>
@@ -3978,7 +4039,7 @@
         <v>39845.0</v>
       </c>
       <c r="D19" s="101" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E19" s="54">
         <v>635114.0</v>
@@ -3998,51 +4059,51 @@
       <c r="J19" s="57">
         <v>15914.0</v>
       </c>
-      <c r="K19" s="58" t="str">
+      <c r="K19" s="58">
         <f t="shared" ref="K19:O19" si="28">F19/$E19</f>
-        <v>0.32</v>
-      </c>
-      <c r="L19" s="59" t="str">
+        <v>0.3193237749</v>
+      </c>
+      <c r="L19" s="59">
         <f t="shared" si="28"/>
-        <v>0.29</v>
-      </c>
-      <c r="M19" s="59" t="str">
+        <v>0.2866146865</v>
+      </c>
+      <c r="M19" s="59">
         <f t="shared" si="28"/>
-        <v>0.00</v>
-      </c>
-      <c r="N19" s="59" t="str">
+        <v>0.00380719052</v>
+      </c>
+      <c r="N19" s="59">
         <f t="shared" si="28"/>
-        <v>0.00</v>
-      </c>
-      <c r="O19" s="60" t="str">
+        <v>0.003844979012</v>
+      </c>
+      <c r="O19" s="60">
         <f t="shared" si="28"/>
-        <v>0.03</v>
-      </c>
-      <c r="P19" s="61" t="str">
+        <v>0.02505691892</v>
+      </c>
+      <c r="P19" s="61">
         <f t="shared" ref="P19:S19" si="29">G19/$F19</f>
-        <v>89.8%</v>
-      </c>
-      <c r="Q19" s="62" t="str">
+        <v>0.8975676382</v>
+      </c>
+      <c r="Q19" s="62">
         <f t="shared" si="29"/>
-        <v>1.2%</v>
-      </c>
-      <c r="R19" s="62" t="str">
+        <v>0.01192266539</v>
+      </c>
+      <c r="R19" s="62">
         <f t="shared" si="29"/>
-        <v>1.2%</v>
-      </c>
-      <c r="S19" s="63" t="str">
+        <v>0.0120410045</v>
+      </c>
+      <c r="S19" s="63">
         <f t="shared" si="29"/>
-        <v>7.8%</v>
-      </c>
-      <c r="T19" s="102" t="str">
+        <v>0.07846869191</v>
+      </c>
+      <c r="T19" s="102">
         <f t="shared" ref="T19:T29" si="32">SUM(F$18:F19)/SUM(E$18:E19)</f>
-        <v>0.39</v>
+        <v>0.3945724386</v>
       </c>
       <c r="U19" s="103"/>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" s="99">
         <v>2009.0</v>
@@ -4051,7 +4112,7 @@
         <v>39873.0</v>
       </c>
       <c r="D20" s="101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E20" s="54">
         <v>732672.0</v>
@@ -4071,51 +4132,51 @@
       <c r="J20" s="57">
         <v>11711.0</v>
       </c>
-      <c r="K20" s="58" t="str">
+      <c r="K20" s="58">
         <f t="shared" ref="K20:O20" si="30">F20/$E20</f>
-        <v>0.46</v>
-      </c>
-      <c r="L20" s="59" t="str">
+        <v>0.455520342</v>
+      </c>
+      <c r="L20" s="59">
         <f t="shared" si="30"/>
-        <v>0.32</v>
-      </c>
-      <c r="M20" s="59" t="str">
+        <v>0.3151696803</v>
+      </c>
+      <c r="M20" s="59">
         <f t="shared" si="30"/>
-        <v>0.12</v>
-      </c>
-      <c r="N20" s="59" t="str">
+        <v>0.1234795379</v>
+      </c>
+      <c r="N20" s="59">
         <f t="shared" si="30"/>
-        <v>0.00</v>
-      </c>
-      <c r="O20" s="60" t="str">
+        <v>0.0008871636967</v>
+      </c>
+      <c r="O20" s="60">
         <f t="shared" si="30"/>
-        <v>0.02</v>
-      </c>
-      <c r="P20" s="61" t="str">
+        <v>0.01598396008</v>
+      </c>
+      <c r="P20" s="61">
         <f t="shared" ref="P20:S20" si="31">G20/$F20</f>
-        <v>69.2%</v>
-      </c>
-      <c r="Q20" s="62" t="str">
+        <v>0.6918893653</v>
+      </c>
+      <c r="Q20" s="62">
         <f t="shared" si="31"/>
-        <v>27.1%</v>
-      </c>
-      <c r="R20" s="62" t="str">
+        <v>0.2710735977</v>
+      </c>
+      <c r="R20" s="62">
         <f t="shared" si="31"/>
-        <v>0.2%</v>
-      </c>
-      <c r="S20" s="63" t="str">
+        <v>0.001947583049</v>
+      </c>
+      <c r="S20" s="63">
         <f t="shared" si="31"/>
-        <v>3.5%</v>
-      </c>
-      <c r="T20" s="102" t="str">
+        <v>0.03508945399</v>
+      </c>
+      <c r="T20" s="102">
         <f t="shared" si="32"/>
-        <v>0.42</v>
+        <v>0.4165159696</v>
       </c>
       <c r="U20" s="103"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B21" s="99">
         <v>2009.0</v>
@@ -4124,7 +4185,7 @@
         <v>39904.0</v>
       </c>
       <c r="D21" s="101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E21" s="54">
         <v>742771.0</v>
@@ -4144,51 +4205,51 @@
       <c r="J21" s="57">
         <v>12108.0</v>
       </c>
-      <c r="K21" s="58" t="str">
+      <c r="K21" s="58">
         <f t="shared" ref="K21:O21" si="33">F21/$E21</f>
-        <v>0.46</v>
-      </c>
-      <c r="L21" s="59" t="str">
+        <v>0.4577709684</v>
+      </c>
+      <c r="L21" s="59">
         <f t="shared" si="33"/>
-        <v>0.42</v>
-      </c>
-      <c r="M21" s="59" t="str">
+        <v>0.4157647512</v>
+      </c>
+      <c r="M21" s="59">
         <f t="shared" si="33"/>
-        <v>0.01</v>
-      </c>
-      <c r="N21" s="59" t="str">
+        <v>0.01301208582</v>
+      </c>
+      <c r="N21" s="59">
         <f t="shared" si="33"/>
-        <v>0.01</v>
-      </c>
-      <c r="O21" s="60" t="str">
+        <v>0.01269301036</v>
+      </c>
+      <c r="O21" s="60">
         <f t="shared" si="33"/>
-        <v>0.02</v>
-      </c>
-      <c r="P21" s="61" t="str">
+        <v>0.01630112107</v>
+      </c>
+      <c r="P21" s="61">
         <f t="shared" ref="P21:S21" si="34">G21/$F21</f>
-        <v>90.8%</v>
-      </c>
-      <c r="Q21" s="62" t="str">
+        <v>0.9082374808</v>
+      </c>
+      <c r="Q21" s="62">
         <f t="shared" si="34"/>
-        <v>2.8%</v>
-      </c>
-      <c r="R21" s="62" t="str">
+        <v>0.02842488214</v>
+      </c>
+      <c r="R21" s="62">
         <f t="shared" si="34"/>
-        <v>2.8%</v>
-      </c>
-      <c r="S21" s="63" t="str">
+        <v>0.02772786227</v>
+      </c>
+      <c r="S21" s="63">
         <f t="shared" si="34"/>
-        <v>3.6%</v>
-      </c>
-      <c r="T21" s="102" t="str">
+        <v>0.03560977475</v>
+      </c>
+      <c r="T21" s="102">
         <f t="shared" si="32"/>
-        <v>0.43</v>
+        <v>0.4275475302</v>
       </c>
       <c r="U21" s="103"/>
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B22" s="99">
         <v>2009.0</v>
@@ -4197,7 +4258,7 @@
         <v>39934.0</v>
       </c>
       <c r="D22" s="101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E22" s="54">
         <v>794329.0</v>
@@ -4217,51 +4278,51 @@
       <c r="J22" s="57">
         <v>14053.0</v>
       </c>
-      <c r="K22" s="58" t="str">
+      <c r="K22" s="58">
         <f t="shared" ref="K22:O22" si="35">F22/$E22</f>
-        <v>0.63</v>
-      </c>
-      <c r="L22" s="59" t="str">
+        <v>0.6324470087</v>
+      </c>
+      <c r="L22" s="59">
         <f t="shared" si="35"/>
-        <v>0.48</v>
-      </c>
-      <c r="M22" s="59" t="str">
+        <v>0.4806396342</v>
+      </c>
+      <c r="M22" s="59">
         <f t="shared" si="35"/>
-        <v>0.04</v>
-      </c>
-      <c r="N22" s="59" t="str">
+        <v>0.04132292791</v>
+      </c>
+      <c r="N22" s="59">
         <f t="shared" si="35"/>
-        <v>0.09</v>
-      </c>
-      <c r="O22" s="60" t="str">
+        <v>0.09279278485</v>
+      </c>
+      <c r="O22" s="60">
         <f t="shared" si="35"/>
-        <v>0.02</v>
-      </c>
-      <c r="P22" s="61" t="str">
+        <v>0.01769166177</v>
+      </c>
+      <c r="P22" s="61">
         <f t="shared" ref="P22:S22" si="36">G22/$F22</f>
-        <v>76.0%</v>
-      </c>
-      <c r="Q22" s="62" t="str">
+        <v>0.7599682307</v>
+      </c>
+      <c r="Q22" s="62">
         <f t="shared" si="36"/>
-        <v>6.5%</v>
-      </c>
-      <c r="R22" s="62" t="str">
+        <v>0.06533816641</v>
+      </c>
+      <c r="R22" s="62">
         <f t="shared" si="36"/>
-        <v>14.7%</v>
-      </c>
-      <c r="S22" s="63" t="str">
+        <v>0.1467202526</v>
+      </c>
+      <c r="S22" s="63">
         <f t="shared" si="36"/>
-        <v>2.8%</v>
-      </c>
-      <c r="T22" s="102" t="str">
+        <v>0.02797335037</v>
+      </c>
+      <c r="T22" s="102">
         <f t="shared" si="32"/>
-        <v>0.47</v>
+        <v>0.4731112447</v>
       </c>
       <c r="U22" s="103"/>
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" s="99">
         <v>2009.0</v>
@@ -4270,7 +4331,7 @@
         <v>39965.0</v>
       </c>
       <c r="D23" s="101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" s="54">
         <v>817663.0</v>
@@ -4290,51 +4351,51 @@
       <c r="J23" s="57">
         <v>28264.0</v>
       </c>
-      <c r="K23" s="58" t="str">
+      <c r="K23" s="58">
         <f t="shared" ref="K23:O23" si="37">F23/$E23</f>
-        <v>1.30</v>
-      </c>
-      <c r="L23" s="59" t="str">
+        <v>1.298922661</v>
+      </c>
+      <c r="L23" s="59">
         <f t="shared" si="37"/>
-        <v>1.03</v>
-      </c>
-      <c r="M23" s="59" t="str">
+        <v>1.028702534</v>
+      </c>
+      <c r="M23" s="59">
         <f t="shared" si="37"/>
-        <v>0.04</v>
-      </c>
-      <c r="N23" s="59" t="str">
+        <v>0.04400223564</v>
+      </c>
+      <c r="N23" s="59">
         <f t="shared" si="37"/>
-        <v>0.19</v>
-      </c>
-      <c r="O23" s="60" t="str">
+        <v>0.1916510836</v>
+      </c>
+      <c r="O23" s="60">
         <f t="shared" si="37"/>
-        <v>0.03</v>
-      </c>
-      <c r="P23" s="61" t="str">
+        <v>0.03456680809</v>
+      </c>
+      <c r="P23" s="61">
         <f t="shared" ref="P23:S23" si="38">G23/$F23</f>
-        <v>79.2%</v>
-      </c>
-      <c r="Q23" s="62" t="str">
+        <v>0.7919659612</v>
+      </c>
+      <c r="Q23" s="62">
         <f t="shared" si="38"/>
-        <v>3.4%</v>
-      </c>
-      <c r="R23" s="62" t="str">
+        <v>0.03387594731</v>
+      </c>
+      <c r="R23" s="62">
         <f t="shared" si="38"/>
-        <v>14.8%</v>
-      </c>
-      <c r="S23" s="63" t="str">
+        <v>0.1475461853</v>
+      </c>
+      <c r="S23" s="63">
         <f t="shared" si="38"/>
-        <v>2.7%</v>
-      </c>
-      <c r="T23" s="102" t="str">
+        <v>0.02661190625</v>
+      </c>
+      <c r="T23" s="102">
         <f t="shared" si="32"/>
-        <v>0.63</v>
+        <v>0.6269321426</v>
       </c>
       <c r="U23" s="103"/>
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B24" s="99">
         <v>2009.0</v>
@@ -4343,7 +4404,7 @@
         <v>39995.0</v>
       </c>
       <c r="D24" s="101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E24" s="54">
         <v>850331.0</v>
@@ -4363,51 +4424,51 @@
       <c r="J24" s="57">
         <v>13847.0</v>
       </c>
-      <c r="K24" s="58" t="str">
+      <c r="K24" s="58">
         <f t="shared" ref="K24:O24" si="39">F24/$E24</f>
-        <v>2.03</v>
-      </c>
-      <c r="L24" s="59" t="str">
+        <v>2.028987535</v>
+      </c>
+      <c r="L24" s="59">
         <f t="shared" si="39"/>
-        <v>1.52</v>
-      </c>
-      <c r="M24" s="59" t="str">
+        <v>1.524171176</v>
+      </c>
+      <c r="M24" s="59">
         <f t="shared" si="39"/>
-        <v>0.02</v>
-      </c>
-      <c r="N24" s="59" t="str">
+        <v>0.01597260361</v>
+      </c>
+      <c r="N24" s="59">
         <f t="shared" si="39"/>
-        <v>0.47</v>
-      </c>
-      <c r="O24" s="60" t="str">
+        <v>0.4725595092</v>
+      </c>
+      <c r="O24" s="60">
         <f t="shared" si="39"/>
-        <v>0.02</v>
-      </c>
-      <c r="P24" s="61" t="str">
+        <v>0.01628424696</v>
+      </c>
+      <c r="P24" s="61">
         <f t="shared" ref="P24:S24" si="40">G24/$F24</f>
-        <v>75.1%</v>
-      </c>
-      <c r="Q24" s="62" t="str">
+        <v>0.7511979</v>
+      </c>
+      <c r="Q24" s="62">
         <f t="shared" si="40"/>
-        <v>0.8%</v>
-      </c>
-      <c r="R24" s="62" t="str">
+        <v>0.00787220391</v>
+      </c>
+      <c r="R24" s="62">
         <f t="shared" si="40"/>
-        <v>23.3%</v>
-      </c>
-      <c r="S24" s="63" t="str">
+        <v>0.2329040967</v>
+      </c>
+      <c r="S24" s="63">
         <f t="shared" si="40"/>
-        <v>0.8%</v>
-      </c>
-      <c r="T24" s="102" t="str">
+        <v>0.008025799407</v>
+      </c>
+      <c r="T24" s="102">
         <f t="shared" si="32"/>
-        <v>0.85</v>
+        <v>0.8544497968</v>
       </c>
       <c r="U24" s="103"/>
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="A25" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" s="99">
         <v>2009.0</v>
@@ -4416,7 +4477,7 @@
         <v>40026.0</v>
       </c>
       <c r="D25" s="101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E25" s="54">
         <v>835235.0</v>
@@ -4436,51 +4497,51 @@
       <c r="J25" s="57">
         <v>6900.0</v>
       </c>
-      <c r="K25" s="58" t="str">
+      <c r="K25" s="58">
         <f t="shared" ref="K25:O25" si="41">F25/$E25</f>
-        <v>1.20</v>
-      </c>
-      <c r="L25" s="59" t="str">
+        <v>1.202089232</v>
+      </c>
+      <c r="L25" s="59">
         <f t="shared" si="41"/>
-        <v>1.11</v>
-      </c>
-      <c r="M25" s="59" t="str">
+        <v>1.114955671</v>
+      </c>
+      <c r="M25" s="59">
         <f t="shared" si="41"/>
-        <v>0.01</v>
-      </c>
-      <c r="N25" s="59" t="str">
+        <v>0.00853771693</v>
+      </c>
+      <c r="N25" s="59">
         <f t="shared" si="41"/>
-        <v>0.07</v>
-      </c>
-      <c r="O25" s="60" t="str">
+        <v>0.07033469622</v>
+      </c>
+      <c r="O25" s="60">
         <f t="shared" si="41"/>
-        <v>0.01</v>
-      </c>
-      <c r="P25" s="61" t="str">
+        <v>0.00826114806</v>
+      </c>
+      <c r="P25" s="61">
         <f t="shared" ref="P25:S25" si="42">G25/$F25</f>
-        <v>92.8%</v>
-      </c>
-      <c r="Q25" s="62" t="str">
+        <v>0.9275148975</v>
+      </c>
+      <c r="Q25" s="62">
         <f t="shared" si="42"/>
-        <v>0.7%</v>
-      </c>
-      <c r="R25" s="62" t="str">
+        <v>0.007102398641</v>
+      </c>
+      <c r="R25" s="62">
         <f t="shared" si="42"/>
-        <v>5.9%</v>
-      </c>
-      <c r="S25" s="63" t="str">
+        <v>0.0585103787</v>
+      </c>
+      <c r="S25" s="63">
         <f t="shared" si="42"/>
-        <v>0.7%</v>
-      </c>
-      <c r="T25" s="102" t="str">
+        <v>0.006872325147</v>
+      </c>
+      <c r="T25" s="102">
         <f t="shared" si="32"/>
-        <v>0.90</v>
+        <v>0.9022432904</v>
       </c>
       <c r="U25" s="103"/>
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B26" s="99">
         <v>2009.0</v>
@@ -4489,7 +4550,7 @@
         <v>40057.0</v>
       </c>
       <c r="D26" s="101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E26" s="54">
         <v>819317.0</v>
@@ -4509,51 +4570,51 @@
       <c r="J26" s="57">
         <v>15748.0</v>
       </c>
-      <c r="K26" s="58" t="str">
+      <c r="K26" s="58">
         <f t="shared" ref="K26:O26" si="43">F26/$E26</f>
-        <v>0.96</v>
-      </c>
-      <c r="L26" s="59" t="str">
+        <v>0.9646986453</v>
+      </c>
+      <c r="L26" s="59">
         <f t="shared" si="43"/>
-        <v>0.90</v>
-      </c>
-      <c r="M26" s="59" t="str">
+        <v>0.8955825401</v>
+      </c>
+      <c r="M26" s="59">
         <f t="shared" si="43"/>
-        <v>0.02</v>
-      </c>
-      <c r="N26" s="59" t="str">
+        <v>0.0208588373</v>
+      </c>
+      <c r="N26" s="59">
         <f t="shared" si="43"/>
-        <v>0.03</v>
-      </c>
-      <c r="O26" s="60" t="str">
+        <v>0.0290363803</v>
+      </c>
+      <c r="O26" s="60">
         <f t="shared" si="43"/>
-        <v>0.02</v>
-      </c>
-      <c r="P26" s="61" t="str">
+        <v>0.01922088764</v>
+      </c>
+      <c r="P26" s="61">
         <f t="shared" ref="P26:S26" si="44">G26/$F26</f>
-        <v>92.8%</v>
-      </c>
-      <c r="Q26" s="62" t="str">
+        <v>0.9283547193</v>
+      </c>
+      <c r="Q26" s="62">
         <f t="shared" si="44"/>
-        <v>2.2%</v>
-      </c>
-      <c r="R26" s="62" t="str">
+        <v>0.0216221277</v>
+      </c>
+      <c r="R26" s="62">
         <f t="shared" si="44"/>
-        <v>3.0%</v>
-      </c>
-      <c r="S26" s="63" t="str">
+        <v>0.03009891269</v>
+      </c>
+      <c r="S26" s="63">
         <f t="shared" si="44"/>
-        <v>2.0%</v>
-      </c>
-      <c r="T26" s="102" t="str">
+        <v>0.01992424032</v>
+      </c>
+      <c r="T26" s="102">
         <f t="shared" si="32"/>
-        <v>0.91</v>
+        <v>0.9096651106</v>
       </c>
       <c r="U26" s="103"/>
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27" s="99">
         <v>2009.0</v>
@@ -4562,7 +4623,7 @@
         <v>40087.0</v>
       </c>
       <c r="D27" s="101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E27" s="54">
         <v>790266.0</v>
@@ -4582,51 +4643,51 @@
       <c r="J27" s="57">
         <v>10448.0</v>
       </c>
-      <c r="K27" s="58" t="str">
+      <c r="K27" s="58">
         <f t="shared" ref="K27:O27" si="45">F27/$E27</f>
-        <v>1.00</v>
-      </c>
-      <c r="L27" s="59" t="str">
+        <v>1.000530201</v>
+      </c>
+      <c r="L27" s="59">
         <f t="shared" si="45"/>
-        <v>0.92</v>
-      </c>
-      <c r="M27" s="59" t="str">
+        <v>0.9181149132</v>
+      </c>
+      <c r="M27" s="59">
         <f t="shared" si="45"/>
-        <v>0.06</v>
-      </c>
-      <c r="N27" s="59" t="str">
+        <v>0.05657335631</v>
+      </c>
+      <c r="N27" s="59">
         <f t="shared" si="45"/>
-        <v>0.01</v>
-      </c>
-      <c r="O27" s="60" t="str">
+        <v>0.01262106683</v>
+      </c>
+      <c r="O27" s="60">
         <f t="shared" si="45"/>
-        <v>0.01</v>
-      </c>
-      <c r="P27" s="61" t="str">
+        <v>0.01322086487</v>
+      </c>
+      <c r="P27" s="61">
         <f t="shared" ref="P27:S27" si="46">G27/$F27</f>
-        <v>91.8%</v>
-      </c>
-      <c r="Q27" s="62" t="str">
+        <v>0.9176283855</v>
+      </c>
+      <c r="Q27" s="62">
         <f t="shared" si="46"/>
-        <v>5.7%</v>
-      </c>
-      <c r="R27" s="62" t="str">
+        <v>0.05654337695</v>
+      </c>
+      <c r="R27" s="62">
         <f t="shared" si="46"/>
-        <v>1.3%</v>
-      </c>
-      <c r="S27" s="63" t="str">
+        <v>0.01261437867</v>
+      </c>
+      <c r="S27" s="63">
         <f t="shared" si="46"/>
-        <v>1.3%</v>
-      </c>
-      <c r="T27" s="102" t="str">
+        <v>0.01321385887</v>
+      </c>
+      <c r="T27" s="102">
         <f t="shared" si="32"/>
-        <v>0.92</v>
+        <v>0.9190090958</v>
       </c>
       <c r="U27" s="103"/>
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="A28" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B28" s="99">
         <v>2009.0</v>
@@ -4635,7 +4696,7 @@
         <v>40118.0</v>
       </c>
       <c r="D28" s="101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E28" s="54">
         <v>692820.0</v>
@@ -4655,51 +4716,51 @@
       <c r="J28" s="57">
         <v>6818.0</v>
       </c>
-      <c r="K28" s="58" t="str">
+      <c r="K28" s="58">
         <f t="shared" ref="K28:O28" si="47">F28/$E28</f>
-        <v>0.79</v>
-      </c>
-      <c r="L28" s="59" t="str">
+        <v>0.7853988049</v>
+      </c>
+      <c r="L28" s="59">
         <f t="shared" si="47"/>
-        <v>0.70</v>
-      </c>
-      <c r="M28" s="59" t="str">
+        <v>0.7036863832</v>
+      </c>
+      <c r="M28" s="59">
         <f t="shared" si="47"/>
-        <v>0.05</v>
-      </c>
-      <c r="N28" s="59" t="str">
+        <v>0.05463035132</v>
+      </c>
+      <c r="N28" s="59">
         <f t="shared" si="47"/>
-        <v>0.02</v>
-      </c>
-      <c r="O28" s="60" t="str">
+        <v>0.01724113045</v>
+      </c>
+      <c r="O28" s="60">
         <f t="shared" si="47"/>
-        <v>0.01</v>
-      </c>
-      <c r="P28" s="61" t="str">
+        <v>0.009840939927</v>
+      </c>
+      <c r="P28" s="61">
         <f t="shared" ref="P28:S28" si="48">G28/$F28</f>
-        <v>89.6%</v>
-      </c>
-      <c r="Q28" s="62" t="str">
+        <v>0.8959605984</v>
+      </c>
+      <c r="Q28" s="62">
         <f t="shared" si="48"/>
-        <v>7.0%</v>
-      </c>
-      <c r="R28" s="62" t="str">
+        <v>0.06955746683</v>
+      </c>
+      <c r="R28" s="62">
         <f t="shared" si="48"/>
-        <v>2.2%</v>
-      </c>
-      <c r="S28" s="63" t="str">
+        <v>0.02195207116</v>
+      </c>
+      <c r="S28" s="63">
         <f t="shared" si="48"/>
-        <v>1.3%</v>
-      </c>
-      <c r="T28" s="102" t="str">
+        <v>0.01252986364</v>
+      </c>
+      <c r="T28" s="102">
         <f t="shared" si="32"/>
-        <v>0.91</v>
+        <v>0.9079598029</v>
       </c>
       <c r="U28" s="103"/>
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="104" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="105">
         <v>2009.0</v>
@@ -4708,7 +4769,7 @@
         <v>40148.0</v>
       </c>
       <c r="D29" s="107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E29" s="108">
         <v>655262.0</v>
@@ -4728,51 +4789,51 @@
       <c r="J29" s="111">
         <v>34861.0</v>
       </c>
-      <c r="K29" s="112" t="str">
+      <c r="K29" s="112">
         <f t="shared" ref="K29:O29" si="49">F29/$E29</f>
-        <v>1.26</v>
-      </c>
-      <c r="L29" s="113" t="str">
+        <v>1.2600456</v>
+      </c>
+      <c r="L29" s="113">
         <f t="shared" si="49"/>
-        <v>1.09</v>
-      </c>
-      <c r="M29" s="113" t="str">
+        <v>1.08513999</v>
+      </c>
+      <c r="M29" s="113">
         <f t="shared" si="49"/>
-        <v>0.04</v>
-      </c>
-      <c r="N29" s="113" t="str">
+        <v>0.03619315633</v>
+      </c>
+      <c r="N29" s="113">
         <f t="shared" si="49"/>
-        <v>0.09</v>
-      </c>
-      <c r="O29" s="114" t="str">
+        <v>0.08551083383</v>
+      </c>
+      <c r="O29" s="114">
         <f t="shared" si="49"/>
-        <v>0.05</v>
-      </c>
-      <c r="P29" s="115" t="str">
+        <v>0.05320162012</v>
+      </c>
+      <c r="P29" s="115">
         <f t="shared" ref="P29:S29" si="50">G29/$F29</f>
-        <v>86.1%</v>
-      </c>
-      <c r="Q29" s="116" t="str">
+        <v>0.8611910472</v>
+      </c>
+      <c r="Q29" s="116">
         <f t="shared" si="50"/>
-        <v>2.9%</v>
-      </c>
-      <c r="R29" s="116" t="str">
+        <v>0.02872368772</v>
+      </c>
+      <c r="R29" s="116">
         <f t="shared" si="50"/>
-        <v>6.8%</v>
-      </c>
-      <c r="S29" s="117" t="str">
+        <v>0.06786328513</v>
+      </c>
+      <c r="S29" s="117">
         <f t="shared" si="50"/>
-        <v>4.2%</v>
-      </c>
-      <c r="T29" s="118" t="str">
+        <v>0.04222197999</v>
+      </c>
+      <c r="T29" s="118">
         <f t="shared" si="32"/>
-        <v>0.93</v>
+        <v>0.9335004764</v>
       </c>
       <c r="U29" s="119"/>
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B30" s="120">
         <v>2010.0</v>
@@ -4781,7 +4842,7 @@
         <v>40179.0</v>
       </c>
       <c r="D30" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E30" s="40">
         <v>648719.0</v>
@@ -4801,51 +4862,51 @@
       <c r="J30" s="43">
         <v>3511.0</v>
       </c>
-      <c r="K30" s="44" t="str">
+      <c r="K30" s="44">
         <f t="shared" ref="K30:O30" si="51">F30/$E30</f>
-        <v>0.91</v>
-      </c>
-      <c r="L30" s="45" t="str">
+        <v>0.9116489574</v>
+      </c>
+      <c r="L30" s="45">
         <f t="shared" si="51"/>
-        <v>0.48</v>
-      </c>
-      <c r="M30" s="45" t="str">
+        <v>0.4764759472</v>
+      </c>
+      <c r="M30" s="45">
         <f t="shared" si="51"/>
-        <v>0.41</v>
-      </c>
-      <c r="N30" s="45" t="str">
+        <v>0.4095039609</v>
+      </c>
+      <c r="N30" s="45">
         <f t="shared" si="51"/>
-        <v>0.02</v>
-      </c>
-      <c r="O30" s="46" t="str">
+        <v>0.02025684464</v>
+      </c>
+      <c r="O30" s="46">
         <f t="shared" si="51"/>
-        <v>0.01</v>
-      </c>
-      <c r="P30" s="47" t="str">
+        <v>0.005412204668</v>
+      </c>
+      <c r="P30" s="47">
         <f t="shared" ref="P30:S30" si="52">G30/$F30</f>
-        <v>52.3%</v>
-      </c>
-      <c r="Q30" s="48" t="str">
+        <v>0.5226528735</v>
+      </c>
+      <c r="Q30" s="48">
         <f t="shared" si="52"/>
-        <v>44.9%</v>
-      </c>
-      <c r="R30" s="48" t="str">
+        <v>0.4491904011</v>
+      </c>
+      <c r="R30" s="48">
         <f t="shared" si="52"/>
-        <v>2.2%</v>
-      </c>
-      <c r="S30" s="49" t="str">
+        <v>0.02222000528</v>
+      </c>
+      <c r="S30" s="49">
         <f t="shared" si="52"/>
-        <v>0.6%</v>
-      </c>
-      <c r="T30" s="123" t="str">
+        <v>0.005936720076</v>
+      </c>
+      <c r="T30" s="123">
         <f>F30/E30</f>
-        <v>0.91</v>
+        <v>0.9116489574</v>
       </c>
       <c r="U30" s="124"/>
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" s="99">
         <v>2010.0</v>
@@ -4854,7 +4915,7 @@
         <v>40210.0</v>
       </c>
       <c r="D31" s="101" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E31" s="54">
         <v>626284.0</v>
@@ -4874,51 +4935,51 @@
       <c r="J31" s="57">
         <v>34366.0</v>
       </c>
-      <c r="K31" s="58" t="str">
+      <c r="K31" s="58">
         <f t="shared" ref="K31:O31" si="53">F31/$E31</f>
-        <v>1.58</v>
-      </c>
-      <c r="L31" s="59" t="str">
+        <v>1.580166506</v>
+      </c>
+      <c r="L31" s="59">
         <f t="shared" si="53"/>
-        <v>0.44</v>
-      </c>
-      <c r="M31" s="59" t="str">
+        <v>0.4429875264</v>
+      </c>
+      <c r="M31" s="59">
         <f t="shared" si="53"/>
-        <v>1.04</v>
-      </c>
-      <c r="N31" s="59" t="str">
+        <v>1.03893122</v>
+      </c>
+      <c r="N31" s="59">
         <f t="shared" si="53"/>
-        <v>0.04</v>
-      </c>
-      <c r="O31" s="60" t="str">
+        <v>0.04337489062</v>
+      </c>
+      <c r="O31" s="60">
         <f t="shared" si="53"/>
-        <v>0.05</v>
-      </c>
-      <c r="P31" s="61" t="str">
+        <v>0.05487286918</v>
+      </c>
+      <c r="P31" s="61">
         <f t="shared" ref="P31:S31" si="54">G31/$F31</f>
-        <v>28.0%</v>
-      </c>
-      <c r="Q31" s="62" t="str">
+        <v>0.2803423087</v>
+      </c>
+      <c r="Q31" s="62">
         <f t="shared" si="54"/>
-        <v>65.7%</v>
-      </c>
-      <c r="R31" s="62" t="str">
+        <v>0.6574821171</v>
+      </c>
+      <c r="R31" s="62">
         <f t="shared" si="54"/>
-        <v>2.7%</v>
-      </c>
-      <c r="S31" s="63" t="str">
+        <v>0.02744956969</v>
+      </c>
+      <c r="S31" s="63">
         <f t="shared" si="54"/>
-        <v>3.5%</v>
-      </c>
-      <c r="T31" s="102" t="str">
+        <v>0.03472600449</v>
+      </c>
+      <c r="T31" s="102">
         <f t="shared" ref="T31:T41" si="57">SUM(F$30:F31)/SUM(E$30:E31)</f>
-        <v>1.24</v>
+        <v>1.240026102</v>
       </c>
       <c r="U31" s="103"/>
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B32" s="99">
         <v>2010.0</v>
@@ -4927,7 +4988,7 @@
         <v>40238.0</v>
       </c>
       <c r="D32" s="101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E32" s="54">
         <v>740215.0</v>
@@ -4947,51 +5008,51 @@
       <c r="J32" s="57">
         <v>45038.0</v>
       </c>
-      <c r="K32" s="58" t="str">
+      <c r="K32" s="58">
         <f t="shared" ref="K32:O32" si="55">F32/$E32</f>
-        <v>0.76</v>
-      </c>
-      <c r="L32" s="59" t="str">
+        <v>0.7608113859</v>
+      </c>
+      <c r="L32" s="59">
         <f t="shared" si="55"/>
-        <v>0.49</v>
-      </c>
-      <c r="M32" s="59" t="str">
+        <v>0.4914707213</v>
+      </c>
+      <c r="M32" s="59">
         <f t="shared" si="55"/>
-        <v>0.20</v>
-      </c>
-      <c r="N32" s="59" t="str">
+        <v>0.1984612579</v>
+      </c>
+      <c r="N32" s="59">
         <f t="shared" si="55"/>
-        <v>0.01</v>
-      </c>
-      <c r="O32" s="60" t="str">
+        <v>0.01003492229</v>
+      </c>
+      <c r="O32" s="60">
         <f t="shared" si="55"/>
-        <v>0.06</v>
-      </c>
-      <c r="P32" s="61" t="str">
+        <v>0.06084448437</v>
+      </c>
+      <c r="P32" s="61">
         <f t="shared" ref="P32:S32" si="56">G32/$F32</f>
-        <v>64.6%</v>
-      </c>
-      <c r="Q32" s="62" t="str">
+        <v>0.6459823426</v>
+      </c>
+      <c r="Q32" s="62">
         <f t="shared" si="56"/>
-        <v>26.1%</v>
-      </c>
-      <c r="R32" s="62" t="str">
+        <v>0.2608547421</v>
+      </c>
+      <c r="R32" s="62">
         <f t="shared" si="56"/>
-        <v>1.3%</v>
-      </c>
-      <c r="S32" s="63" t="str">
+        <v>0.01318976355</v>
+      </c>
+      <c r="S32" s="63">
         <f t="shared" si="56"/>
-        <v>8.0%</v>
-      </c>
-      <c r="T32" s="102" t="str">
+        <v>0.07997315169</v>
+      </c>
+      <c r="T32" s="102">
         <f t="shared" si="57"/>
-        <v>1.06</v>
+        <v>1.06400449</v>
       </c>
       <c r="U32" s="103"/>
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" s="99">
         <v>2010.0</v>
@@ -5000,7 +5061,7 @@
         <v>40269.0</v>
       </c>
       <c r="D33" s="101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E33" s="54">
         <v>655253.0</v>
@@ -5020,51 +5081,51 @@
       <c r="J33" s="57">
         <v>144913.0</v>
       </c>
-      <c r="K33" s="58" t="str">
+      <c r="K33" s="58">
         <f t="shared" ref="K33:O33" si="58">F33/$E33</f>
-        <v>1.02</v>
-      </c>
-      <c r="L33" s="59" t="str">
+        <v>1.019810669</v>
+      </c>
+      <c r="L33" s="59">
         <f t="shared" si="58"/>
-        <v>0.69</v>
-      </c>
-      <c r="M33" s="59" t="str">
+        <v>0.6937824016</v>
+      </c>
+      <c r="M33" s="59">
         <f t="shared" si="58"/>
-        <v>0.09</v>
-      </c>
-      <c r="N33" s="59" t="str">
+        <v>0.08842843909</v>
+      </c>
+      <c r="N33" s="59">
         <f t="shared" si="58"/>
-        <v>0.02</v>
-      </c>
-      <c r="O33" s="60" t="str">
+        <v>0.01644403002</v>
+      </c>
+      <c r="O33" s="60">
         <f t="shared" si="58"/>
-        <v>0.22</v>
-      </c>
-      <c r="P33" s="61" t="str">
+        <v>0.2211557978</v>
+      </c>
+      <c r="P33" s="61">
         <f t="shared" ref="P33:S33" si="59">G33/$F33</f>
-        <v>68.0%</v>
-      </c>
-      <c r="Q33" s="62" t="str">
+        <v>0.6803051027</v>
+      </c>
+      <c r="Q33" s="62">
         <f t="shared" si="59"/>
-        <v>8.7%</v>
-      </c>
-      <c r="R33" s="62" t="str">
+        <v>0.08671064328</v>
+      </c>
+      <c r="R33" s="62">
         <f t="shared" si="59"/>
-        <v>1.6%</v>
-      </c>
-      <c r="S33" s="63" t="str">
+        <v>0.01612459109</v>
+      </c>
+      <c r="S33" s="63">
         <f t="shared" si="59"/>
-        <v>21.7%</v>
-      </c>
-      <c r="T33" s="102" t="str">
+        <v>0.2168596629</v>
+      </c>
+      <c r="T33" s="102">
         <f t="shared" si="57"/>
-        <v>1.05</v>
+        <v>1.05316066</v>
       </c>
       <c r="U33" s="103"/>
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="99">
         <v>2010.0</v>
@@ -5073,7 +5134,7 @@
         <v>40299.0</v>
       </c>
       <c r="D34" s="101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E34" s="54">
         <v>804472.0</v>
@@ -5093,51 +5154,51 @@
       <c r="J34" s="57">
         <v>317430.0</v>
       </c>
-      <c r="K34" s="58" t="str">
+      <c r="K34" s="58">
         <f t="shared" ref="K34:O34" si="60">F34/$E34</f>
-        <v>2.07</v>
-      </c>
-      <c r="L34" s="59" t="str">
+        <v>2.067859416</v>
+      </c>
+      <c r="L34" s="59">
         <f t="shared" si="60"/>
-        <v>1.26</v>
-      </c>
-      <c r="M34" s="59" t="str">
+        <v>1.262920276</v>
+      </c>
+      <c r="M34" s="59">
         <f t="shared" si="60"/>
-        <v>0.27</v>
-      </c>
-      <c r="N34" s="59" t="str">
+        <v>0.2654150797</v>
+      </c>
+      <c r="N34" s="59">
         <f t="shared" si="60"/>
-        <v>0.14</v>
-      </c>
-      <c r="O34" s="60" t="str">
+        <v>0.1449422727</v>
+      </c>
+      <c r="O34" s="60">
         <f t="shared" si="60"/>
-        <v>0.39</v>
-      </c>
-      <c r="P34" s="61" t="str">
+        <v>0.3945817878</v>
+      </c>
+      <c r="P34" s="61">
         <f t="shared" ref="P34:S34" si="61">G34/$F34</f>
-        <v>61.1%</v>
-      </c>
-      <c r="Q34" s="62" t="str">
+        <v>0.6107379767</v>
+      </c>
+      <c r="Q34" s="62">
         <f t="shared" si="61"/>
-        <v>12.8%</v>
-      </c>
-      <c r="R34" s="62" t="str">
+        <v>0.1283525745</v>
+      </c>
+      <c r="R34" s="62">
         <f t="shared" si="61"/>
-        <v>7.0%</v>
-      </c>
-      <c r="S34" s="63" t="str">
+        <v>0.07009290457</v>
+      </c>
+      <c r="S34" s="63">
         <f t="shared" si="61"/>
-        <v>19.1%</v>
-      </c>
-      <c r="T34" s="102" t="str">
+        <v>0.1908165443</v>
+      </c>
+      <c r="T34" s="102">
         <f t="shared" si="57"/>
-        <v>1.29</v>
+        <v>1.288070049</v>
       </c>
       <c r="U34" s="103"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35" s="99">
         <v>2010.0</v>
@@ -5146,7 +5207,7 @@
         <v>40330.0</v>
       </c>
       <c r="D35" s="101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35" s="54">
         <v>839635.0</v>
@@ -5166,51 +5227,51 @@
       <c r="J35" s="57">
         <v>335259.0</v>
       </c>
-      <c r="K35" s="58" t="str">
+      <c r="K35" s="58">
         <f t="shared" ref="K35:O35" si="62">F35/$E35</f>
-        <v>3.01</v>
-      </c>
-      <c r="L35" s="59" t="str">
+        <v>3.013468948</v>
+      </c>
+      <c r="L35" s="59">
         <f t="shared" si="62"/>
-        <v>1.76</v>
-      </c>
-      <c r="M35" s="59" t="str">
+        <v>1.757670893</v>
+      </c>
+      <c r="M35" s="59">
         <f t="shared" si="62"/>
-        <v>0.47</v>
-      </c>
-      <c r="N35" s="59" t="str">
+        <v>0.468311826</v>
+      </c>
+      <c r="N35" s="59">
         <f t="shared" si="62"/>
-        <v>0.39</v>
-      </c>
-      <c r="O35" s="60" t="str">
+        <v>0.3881948704</v>
+      </c>
+      <c r="O35" s="60">
         <f t="shared" si="62"/>
-        <v>0.40</v>
-      </c>
-      <c r="P35" s="61" t="str">
+        <v>0.3992913587</v>
+      </c>
+      <c r="P35" s="61">
         <f t="shared" ref="P35:S35" si="63">G35/$F35</f>
-        <v>58.3%</v>
-      </c>
-      <c r="Q35" s="62" t="str">
+        <v>0.5832716126</v>
+      </c>
+      <c r="Q35" s="62">
         <f t="shared" si="63"/>
-        <v>15.5%</v>
-      </c>
-      <c r="R35" s="62" t="str">
+        <v>0.1554062226</v>
+      </c>
+      <c r="R35" s="62">
         <f t="shared" si="63"/>
-        <v>12.9%</v>
-      </c>
-      <c r="S35" s="63" t="str">
+        <v>0.1288199338</v>
+      </c>
+      <c r="S35" s="63">
         <f t="shared" si="63"/>
-        <v>13.3%</v>
-      </c>
-      <c r="T35" s="102" t="str">
+        <v>0.132502231</v>
+      </c>
+      <c r="T35" s="102">
         <f t="shared" si="57"/>
-        <v>1.62</v>
+        <v>1.623839921</v>
       </c>
       <c r="U35" s="103"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="A36" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="99">
         <v>2010.0</v>
@@ -5219,7 +5280,7 @@
         <v>40360.0</v>
       </c>
       <c r="D36" s="101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E36" s="54">
         <v>869917.0</v>
@@ -5239,51 +5300,51 @@
       <c r="J36" s="57">
         <v>278742.0</v>
       </c>
-      <c r="K36" s="58" t="str">
+      <c r="K36" s="58">
         <f t="shared" ref="K36:O36" si="64">F36/$E36</f>
-        <v>4.51</v>
-      </c>
-      <c r="L36" s="59" t="str">
+        <v>4.513763957</v>
+      </c>
+      <c r="L36" s="59">
         <f t="shared" si="64"/>
-        <v>3.26</v>
-      </c>
-      <c r="M36" s="59" t="str">
+        <v>3.256938306</v>
+      </c>
+      <c r="M36" s="59">
         <f t="shared" si="64"/>
-        <v>0.30</v>
-      </c>
-      <c r="N36" s="59" t="str">
+        <v>0.3012885137</v>
+      </c>
+      <c r="N36" s="59">
         <f t="shared" si="64"/>
-        <v>0.64</v>
-      </c>
-      <c r="O36" s="60" t="str">
+        <v>0.6351134648</v>
+      </c>
+      <c r="O36" s="60">
         <f t="shared" si="64"/>
-        <v>0.32</v>
-      </c>
-      <c r="P36" s="61" t="str">
+        <v>0.3204236726</v>
+      </c>
+      <c r="P36" s="61">
         <f t="shared" ref="P36:S36" si="65">G36/$F36</f>
-        <v>72.2%</v>
-      </c>
-      <c r="Q36" s="62" t="str">
+        <v>0.7215570723</v>
+      </c>
+      <c r="Q36" s="62">
         <f t="shared" si="65"/>
-        <v>6.7%</v>
-      </c>
-      <c r="R36" s="62" t="str">
+        <v>0.06674884124</v>
+      </c>
+      <c r="R36" s="62">
         <f t="shared" si="65"/>
-        <v>14.1%</v>
-      </c>
-      <c r="S36" s="63" t="str">
+        <v>0.1407059543</v>
+      </c>
+      <c r="S36" s="63">
         <f t="shared" si="65"/>
-        <v>7.1%</v>
-      </c>
-      <c r="T36" s="102" t="str">
+        <v>0.07098813223</v>
+      </c>
+      <c r="T36" s="102">
         <f t="shared" si="57"/>
-        <v>2.11</v>
+        <v>2.108746175</v>
       </c>
       <c r="U36" s="103"/>
     </row>
     <row r="37" ht="12.0" customHeight="1">
       <c r="A37" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" s="99">
         <v>2010.0</v>
@@ -5292,7 +5353,7 @@
         <v>40391.0</v>
       </c>
       <c r="D37" s="101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E37" s="54">
         <v>859495.0</v>
@@ -5312,51 +5373,51 @@
       <c r="J37" s="57">
         <v>288818.0</v>
       </c>
-      <c r="K37" s="58" t="str">
+      <c r="K37" s="58">
         <f t="shared" ref="K37:O37" si="66">F37/$E37</f>
-        <v>2.52</v>
-      </c>
-      <c r="L37" s="59" t="str">
+        <v>2.518135649</v>
+      </c>
+      <c r="L37" s="59">
         <f t="shared" si="66"/>
-        <v>1.90</v>
-      </c>
-      <c r="M37" s="59" t="str">
+        <v>1.899621289</v>
+      </c>
+      <c r="M37" s="59">
         <f t="shared" si="66"/>
-        <v>0.05</v>
-      </c>
-      <c r="N37" s="59" t="str">
+        <v>0.05410386332</v>
+      </c>
+      <c r="N37" s="59">
         <f t="shared" si="66"/>
-        <v>0.23</v>
-      </c>
-      <c r="O37" s="60" t="str">
+        <v>0.2283782919</v>
+      </c>
+      <c r="O37" s="60">
         <f t="shared" si="66"/>
-        <v>0.34</v>
-      </c>
-      <c r="P37" s="61" t="str">
+        <v>0.336032205</v>
+      </c>
+      <c r="P37" s="61">
         <f t="shared" ref="P37:S37" si="67">G37/$F37</f>
-        <v>75.4%</v>
-      </c>
-      <c r="Q37" s="62" t="str">
+        <v>0.7543760757</v>
+      </c>
+      <c r="Q37" s="62">
         <f t="shared" si="67"/>
-        <v>2.1%</v>
-      </c>
-      <c r="R37" s="62" t="str">
+        <v>0.0214856826</v>
+      </c>
+      <c r="R37" s="62">
         <f t="shared" si="67"/>
-        <v>9.1%</v>
-      </c>
-      <c r="S37" s="63" t="str">
+        <v>0.09069340326</v>
+      </c>
+      <c r="S37" s="63">
         <f t="shared" si="67"/>
-        <v>13.3%</v>
-      </c>
-      <c r="T37" s="102" t="str">
+        <v>0.1334448385</v>
+      </c>
+      <c r="T37" s="102">
         <f t="shared" si="57"/>
-        <v>2.17</v>
+        <v>2.166964042</v>
       </c>
       <c r="U37" s="103"/>
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38" s="99">
         <v>2010.0</v>
@@ -5365,7 +5426,7 @@
         <v>40422.0</v>
       </c>
       <c r="D38" s="101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E38" s="54">
         <v>841305.0</v>
@@ -5385,51 +5446,51 @@
       <c r="J38" s="57">
         <v>276933.0</v>
       </c>
-      <c r="K38" s="58" t="str">
+      <c r="K38" s="58">
         <f t="shared" ref="K38:O38" si="68">F38/$E38</f>
-        <v>2.72</v>
-      </c>
-      <c r="L38" s="59" t="str">
+        <v>2.717404508</v>
+      </c>
+      <c r="L38" s="59">
         <f t="shared" si="68"/>
-        <v>1.26</v>
-      </c>
-      <c r="M38" s="59" t="str">
+        <v>1.259357783</v>
+      </c>
+      <c r="M38" s="59">
         <f t="shared" si="68"/>
-        <v>1.08</v>
-      </c>
-      <c r="N38" s="59" t="str">
+        <v>1.081578025</v>
+      </c>
+      <c r="N38" s="59">
         <f t="shared" si="68"/>
-        <v>0.05</v>
-      </c>
-      <c r="O38" s="60" t="str">
+        <v>0.04729794783</v>
+      </c>
+      <c r="O38" s="60">
         <f t="shared" si="68"/>
-        <v>0.33</v>
-      </c>
-      <c r="P38" s="61" t="str">
+        <v>0.3291707526</v>
+      </c>
+      <c r="P38" s="61">
         <f t="shared" ref="P38:S38" si="69">G38/$F38</f>
-        <v>46.3%</v>
-      </c>
-      <c r="Q38" s="62" t="str">
+        <v>0.4634414124</v>
+      </c>
+      <c r="Q38" s="62">
         <f t="shared" si="69"/>
-        <v>39.8%</v>
-      </c>
-      <c r="R38" s="62" t="str">
+        <v>0.398018779</v>
+      </c>
+      <c r="R38" s="62">
         <f t="shared" si="69"/>
-        <v>1.7%</v>
-      </c>
-      <c r="S38" s="63" t="str">
+        <v>0.01740556023</v>
+      </c>
+      <c r="S38" s="63">
         <f t="shared" si="69"/>
-        <v>12.1%</v>
-      </c>
-      <c r="T38" s="102" t="str">
+        <v>0.1211342483</v>
+      </c>
+      <c r="T38" s="102">
         <f t="shared" si="57"/>
-        <v>2.23</v>
+        <v>2.234221627</v>
       </c>
       <c r="U38" s="103"/>
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" s="99">
         <v>2010.0</v>
@@ -5438,7 +5499,7 @@
         <v>40452.0</v>
       </c>
       <c r="D39" s="101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E39" s="54">
         <v>816896.0</v>
@@ -5458,51 +5519,51 @@
       <c r="J39" s="57">
         <v>158143.0</v>
       </c>
-      <c r="K39" s="58" t="str">
+      <c r="K39" s="58">
         <f t="shared" ref="K39:O39" si="70">F39/$E39</f>
-        <v>2.23</v>
-      </c>
-      <c r="L39" s="59" t="str">
+        <v>2.231172634</v>
+      </c>
+      <c r="L39" s="59">
         <f t="shared" si="70"/>
-        <v>1.19</v>
-      </c>
-      <c r="M39" s="59" t="str">
+        <v>1.191773494</v>
+      </c>
+      <c r="M39" s="59">
         <f t="shared" si="70"/>
-        <v>0.81</v>
-      </c>
-      <c r="N39" s="59" t="str">
+        <v>0.8130900384</v>
+      </c>
+      <c r="N39" s="59">
         <f t="shared" si="70"/>
-        <v>0.03</v>
-      </c>
-      <c r="O39" s="60" t="str">
+        <v>0.03271897524</v>
+      </c>
+      <c r="O39" s="60">
         <f t="shared" si="70"/>
-        <v>0.19</v>
-      </c>
-      <c r="P39" s="61" t="str">
+        <v>0.1935901265</v>
+      </c>
+      <c r="P39" s="61">
         <f t="shared" ref="P39:S39" si="71">G39/$F39</f>
-        <v>53.4%</v>
-      </c>
-      <c r="Q39" s="62" t="str">
+        <v>0.5341466974</v>
+      </c>
+      <c r="Q39" s="62">
         <f t="shared" si="71"/>
-        <v>36.4%</v>
-      </c>
-      <c r="R39" s="62" t="str">
+        <v>0.3644227372</v>
+      </c>
+      <c r="R39" s="62">
         <f t="shared" si="71"/>
-        <v>1.5%</v>
-      </c>
-      <c r="S39" s="63" t="str">
+        <v>0.01466447497</v>
+      </c>
+      <c r="S39" s="63">
         <f t="shared" si="71"/>
-        <v>8.7%</v>
-      </c>
-      <c r="T39" s="102" t="str">
+        <v>0.08676609043</v>
+      </c>
+      <c r="T39" s="102">
         <f t="shared" si="57"/>
-        <v>2.23</v>
+        <v>2.233898251</v>
       </c>
       <c r="U39" s="103"/>
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" s="99">
         <v>2010.0</v>
@@ -5511,7 +5572,7 @@
         <v>40483.0</v>
       </c>
       <c r="D40" s="101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E40" s="54">
         <v>706122.0</v>
@@ -5531,51 +5592,51 @@
       <c r="J40" s="57">
         <v>53921.0</v>
       </c>
-      <c r="K40" s="58" t="str">
+      <c r="K40" s="58">
         <f t="shared" ref="K40:O40" si="72">F40/$E40</f>
-        <v>0.71</v>
-      </c>
-      <c r="L40" s="59" t="str">
+        <v>0.712978777</v>
+      </c>
+      <c r="L40" s="59">
         <f t="shared" si="72"/>
-        <v>0.55</v>
-      </c>
-      <c r="M40" s="59" t="str">
+        <v>0.554591133</v>
+      </c>
+      <c r="M40" s="59">
         <f t="shared" si="72"/>
-        <v>0.05</v>
-      </c>
-      <c r="N40" s="59" t="str">
+        <v>0.05061306686</v>
+      </c>
+      <c r="N40" s="59">
         <f t="shared" si="72"/>
-        <v>0.03</v>
-      </c>
-      <c r="O40" s="60" t="str">
+        <v>0.03141241882</v>
+      </c>
+      <c r="O40" s="60">
         <f t="shared" si="72"/>
-        <v>0.08</v>
-      </c>
-      <c r="P40" s="61" t="str">
+        <v>0.07636215838</v>
+      </c>
+      <c r="P40" s="61">
         <f t="shared" ref="P40:S40" si="73">G40/$F40</f>
-        <v>77.8%</v>
-      </c>
-      <c r="Q40" s="62" t="str">
+        <v>0.7778508293</v>
+      </c>
+      <c r="Q40" s="62">
         <f t="shared" si="73"/>
-        <v>7.1%</v>
-      </c>
-      <c r="R40" s="62" t="str">
+        <v>0.07098818155</v>
+      </c>
+      <c r="R40" s="62">
         <f t="shared" si="73"/>
-        <v>4.4%</v>
-      </c>
-      <c r="S40" s="63" t="str">
+        <v>0.0440579998</v>
+      </c>
+      <c r="S40" s="63">
         <f t="shared" si="73"/>
-        <v>10.7%</v>
-      </c>
-      <c r="T40" s="102" t="str">
+        <v>0.1071029894</v>
+      </c>
+      <c r="T40" s="102">
         <f t="shared" si="57"/>
-        <v>2.11</v>
+        <v>2.106172903</v>
       </c>
       <c r="U40" s="103"/>
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="104" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="105">
         <v>2010.0</v>
@@ -5584,7 +5645,7 @@
         <v>40513.0</v>
       </c>
       <c r="D41" s="107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E41" s="108">
         <v>644855.0</v>
@@ -5604,51 +5665,51 @@
       <c r="J41" s="111">
         <v>292064.0</v>
       </c>
-      <c r="K41" s="112" t="str">
+      <c r="K41" s="112">
         <f t="shared" ref="K41:O41" si="74">F41/$E41</f>
-        <v>1.59</v>
-      </c>
-      <c r="L41" s="113" t="str">
+        <v>1.589608517</v>
+      </c>
+      <c r="L41" s="113">
         <f t="shared" si="74"/>
-        <v>1.06</v>
-      </c>
-      <c r="M41" s="113" t="str">
+        <v>1.057378791</v>
+      </c>
+      <c r="M41" s="113">
         <f t="shared" si="74"/>
-        <v>0.03</v>
-      </c>
-      <c r="N41" s="113" t="str">
+        <v>0.02675795334</v>
+      </c>
+      <c r="N41" s="113">
         <f t="shared" si="74"/>
-        <v>0.05</v>
-      </c>
-      <c r="O41" s="114" t="str">
+        <v>0.0525575517</v>
+      </c>
+      <c r="O41" s="114">
         <f t="shared" si="74"/>
-        <v>0.45</v>
-      </c>
-      <c r="P41" s="115" t="str">
+        <v>0.452914221</v>
+      </c>
+      <c r="P41" s="115">
         <f t="shared" ref="P41:S41" si="75">G41/$F41</f>
-        <v>66.5%</v>
-      </c>
-      <c r="Q41" s="116" t="str">
+        <v>0.6651818857</v>
+      </c>
+      <c r="Q41" s="116">
         <f t="shared" si="75"/>
-        <v>1.7%</v>
-      </c>
-      <c r="R41" s="116" t="str">
+        <v>0.01683304604</v>
+      </c>
+      <c r="R41" s="116">
         <f t="shared" si="75"/>
-        <v>3.3%</v>
-      </c>
-      <c r="S41" s="117" t="str">
+        <v>0.03306320465</v>
+      </c>
+      <c r="S41" s="117">
         <f t="shared" si="75"/>
-        <v>28.5%</v>
-      </c>
-      <c r="T41" s="118" t="str">
+        <v>0.2849218636</v>
+      </c>
+      <c r="T41" s="118">
         <f t="shared" si="57"/>
-        <v>2.07</v>
+        <v>2.069378145</v>
       </c>
       <c r="U41" s="119"/>
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" s="120">
         <v>2011.0</v>
@@ -5657,7 +5718,7 @@
         <v>40544.0</v>
       </c>
       <c r="D42" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E42" s="40">
         <v>679741.0</v>
@@ -5677,51 +5738,51 @@
       <c r="J42" s="43">
         <v>96759.0</v>
       </c>
-      <c r="K42" s="44" t="str">
+      <c r="K42" s="44">
         <f t="shared" ref="K42:O42" si="76">F42/$E42</f>
-        <v>0.57</v>
-      </c>
-      <c r="L42" s="45" t="str">
+        <v>0.5690402668</v>
+      </c>
+      <c r="L42" s="45">
         <f t="shared" si="76"/>
-        <v>0.41</v>
-      </c>
-      <c r="M42" s="45" t="str">
+        <v>0.4144416771</v>
+      </c>
+      <c r="M42" s="45">
         <f t="shared" si="76"/>
-        <v>0.00</v>
-      </c>
-      <c r="N42" s="45" t="str">
+        <v>0.004587041241</v>
+      </c>
+      <c r="N42" s="45">
         <f t="shared" si="76"/>
-        <v>0.01</v>
-      </c>
-      <c r="O42" s="46" t="str">
+        <v>0.007664684049</v>
+      </c>
+      <c r="O42" s="46">
         <f t="shared" si="76"/>
-        <v>0.14</v>
-      </c>
-      <c r="P42" s="47" t="str">
+        <v>0.1423468645</v>
+      </c>
+      <c r="P42" s="47">
         <f t="shared" ref="P42:S42" si="77">G42/$F42</f>
-        <v>72.8%</v>
-      </c>
-      <c r="Q42" s="48" t="str">
+        <v>0.7283169597</v>
+      </c>
+      <c r="Q42" s="48">
         <f t="shared" si="77"/>
-        <v>0.8%</v>
-      </c>
-      <c r="R42" s="48" t="str">
+        <v>0.008061013444</v>
+      </c>
+      <c r="R42" s="48">
         <f t="shared" si="77"/>
-        <v>1.3%</v>
-      </c>
-      <c r="S42" s="49" t="str">
+        <v>0.01346949328</v>
+      </c>
+      <c r="S42" s="49">
         <f t="shared" si="77"/>
-        <v>25.0%</v>
-      </c>
-      <c r="T42" s="123" t="str">
+        <v>0.2501525336</v>
+      </c>
+      <c r="T42" s="123">
         <f>F42/E42</f>
-        <v>0.57</v>
+        <v>0.5690402668</v>
       </c>
       <c r="U42" s="124"/>
     </row>
     <row r="43" ht="12.0" customHeight="1">
       <c r="A43" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43" s="99">
         <v>2011.0</v>
@@ -5730,7 +5791,7 @@
         <v>40575.0</v>
       </c>
       <c r="D43" s="101" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E43" s="54">
         <v>643712.0</v>
@@ -5750,51 +5811,51 @@
       <c r="J43" s="57">
         <v>62846.0</v>
       </c>
-      <c r="K43" s="58" t="str">
+      <c r="K43" s="58">
         <f t="shared" ref="K43:O43" si="78">F43/$E43</f>
-        <v>0.49</v>
-      </c>
-      <c r="L43" s="59" t="str">
+        <v>0.4943685996</v>
+      </c>
+      <c r="L43" s="59">
         <f t="shared" si="78"/>
-        <v>0.36</v>
-      </c>
-      <c r="M43" s="59" t="str">
+        <v>0.355362336</v>
+      </c>
+      <c r="M43" s="59">
         <f t="shared" si="78"/>
-        <v>0.04</v>
-      </c>
-      <c r="N43" s="59" t="str">
+        <v>0.03781349423</v>
+      </c>
+      <c r="N43" s="59">
         <f t="shared" si="78"/>
-        <v>0.00</v>
-      </c>
-      <c r="O43" s="60" t="str">
+        <v>0.003562152018</v>
+      </c>
+      <c r="O43" s="60">
         <f t="shared" si="78"/>
-        <v>0.10</v>
-      </c>
-      <c r="P43" s="61" t="str">
+        <v>0.09763061742</v>
+      </c>
+      <c r="P43" s="61">
         <f t="shared" ref="P43:S43" si="79">G43/$F43</f>
-        <v>71.9%</v>
-      </c>
-      <c r="Q43" s="62" t="str">
+        <v>0.7188206052</v>
+      </c>
+      <c r="Q43" s="62">
         <f t="shared" si="79"/>
-        <v>7.6%</v>
-      </c>
-      <c r="R43" s="62" t="str">
+        <v>0.07648846278</v>
+      </c>
+      <c r="R43" s="62">
         <f t="shared" si="79"/>
-        <v>0.7%</v>
-      </c>
-      <c r="S43" s="63" t="str">
+        <v>0.007205457671</v>
+      </c>
+      <c r="S43" s="63">
         <f t="shared" si="79"/>
-        <v>19.7%</v>
-      </c>
-      <c r="T43" s="102" t="str">
+        <v>0.1974854744</v>
+      </c>
+      <c r="T43" s="102">
         <f t="shared" ref="T43:T53" si="82">SUM(F$42:F43)/SUM(E$42:E43)</f>
-        <v>0.53</v>
+        <v>0.5327208446</v>
       </c>
       <c r="U43" s="103"/>
     </row>
     <row r="44" ht="12.0" customHeight="1">
       <c r="A44" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B44" s="99">
         <v>2011.0</v>
@@ -5803,7 +5864,7 @@
         <v>40603.0</v>
       </c>
       <c r="D44" s="101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E44" s="54">
         <v>750748.0</v>
@@ -5823,51 +5884,51 @@
       <c r="J44" s="57">
         <v>35937.0</v>
       </c>
-      <c r="K44" s="58" t="str">
+      <c r="K44" s="58">
         <f t="shared" ref="K44:O44" si="80">F44/$E44</f>
-        <v>0.54</v>
-      </c>
-      <c r="L44" s="59" t="str">
+        <v>0.5386840857</v>
+      </c>
+      <c r="L44" s="59">
         <f t="shared" si="80"/>
-        <v>0.40</v>
-      </c>
-      <c r="M44" s="59" t="str">
+        <v>0.4021429295</v>
+      </c>
+      <c r="M44" s="59">
         <f t="shared" si="80"/>
-        <v>0.06</v>
-      </c>
-      <c r="N44" s="59" t="str">
+        <v>0.06204212332</v>
+      </c>
+      <c r="N44" s="59">
         <f t="shared" si="80"/>
-        <v>0.03</v>
-      </c>
-      <c r="O44" s="60" t="str">
+        <v>0.02663077358</v>
+      </c>
+      <c r="O44" s="60">
         <f t="shared" si="80"/>
-        <v>0.05</v>
-      </c>
-      <c r="P44" s="61" t="str">
+        <v>0.04786825939</v>
+      </c>
+      <c r="P44" s="61">
         <f t="shared" ref="P44:S44" si="81">G44/$F44</f>
-        <v>74.7%</v>
-      </c>
-      <c r="Q44" s="62" t="str">
+        <v>0.7465283273</v>
+      </c>
+      <c r="Q44" s="62">
         <f t="shared" si="81"/>
-        <v>11.5%</v>
-      </c>
-      <c r="R44" s="62" t="str">
+        <v>0.1151734847</v>
+      </c>
+      <c r="R44" s="62">
         <f t="shared" si="81"/>
-        <v>4.9%</v>
-      </c>
-      <c r="S44" s="63" t="str">
+        <v>0.04943671863</v>
+      </c>
+      <c r="S44" s="63">
         <f t="shared" si="81"/>
-        <v>8.9%</v>
-      </c>
-      <c r="T44" s="102" t="str">
+        <v>0.08886146938</v>
+      </c>
+      <c r="T44" s="102">
         <f t="shared" si="82"/>
-        <v>0.53</v>
+        <v>0.5348792137</v>
       </c>
       <c r="U44" s="103"/>
     </row>
     <row r="45" ht="12.0" customHeight="1">
       <c r="A45" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B45" s="99">
         <v>2011.0</v>
@@ -5876,7 +5937,7 @@
         <v>40634.0</v>
       </c>
       <c r="D45" s="101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E45" s="54">
         <v>760422.0</v>
@@ -5896,51 +5957,51 @@
       <c r="J45" s="57">
         <v>68593.0</v>
       </c>
-      <c r="K45" s="58" t="str">
+      <c r="K45" s="58">
         <f t="shared" ref="K45:O45" si="83">F45/$E45</f>
-        <v>0.89</v>
-      </c>
-      <c r="L45" s="59" t="str">
+        <v>0.8863867695</v>
+      </c>
+      <c r="L45" s="59">
         <f t="shared" si="83"/>
-        <v>0.70</v>
-      </c>
-      <c r="M45" s="59" t="str">
+        <v>0.6984963612</v>
+      </c>
+      <c r="M45" s="59">
         <f t="shared" si="83"/>
-        <v>0.03</v>
-      </c>
-      <c r="N45" s="59" t="str">
+        <v>0.02892078346</v>
+      </c>
+      <c r="N45" s="59">
         <f t="shared" si="83"/>
-        <v>0.07</v>
-      </c>
-      <c r="O45" s="60" t="str">
+        <v>0.06876576427</v>
+      </c>
+      <c r="O45" s="60">
         <f t="shared" si="83"/>
-        <v>0.09</v>
-      </c>
-      <c r="P45" s="61" t="str">
+        <v>0.09020386049</v>
+      </c>
+      <c r="P45" s="61">
         <f t="shared" ref="P45:S45" si="84">G45/$F45</f>
-        <v>78.8%</v>
-      </c>
-      <c r="Q45" s="62" t="str">
+        <v>0.7880266102</v>
+      </c>
+      <c r="Q45" s="62">
         <f t="shared" si="84"/>
-        <v>3.3%</v>
-      </c>
-      <c r="R45" s="62" t="str">
+        <v>0.03262772466</v>
+      </c>
+      <c r="R45" s="62">
         <f t="shared" si="84"/>
-        <v>7.8%</v>
-      </c>
-      <c r="S45" s="63" t="str">
+        <v>0.07757986315</v>
+      </c>
+      <c r="S45" s="63">
         <f t="shared" si="84"/>
-        <v>10.2%</v>
-      </c>
-      <c r="T45" s="102" t="str">
+        <v>0.101765802</v>
+      </c>
+      <c r="T45" s="102">
         <f t="shared" si="82"/>
-        <v>0.63</v>
+        <v>0.6291753789</v>
       </c>
       <c r="U45" s="103"/>
     </row>
     <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B46" s="99">
         <v>2011.0</v>
@@ -5949,7 +6010,7 @@
         <v>40664.0</v>
       </c>
       <c r="D46" s="101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E46" s="54">
         <v>839087.0</v>
@@ -5969,51 +6030,51 @@
       <c r="J46" s="57">
         <v>33736.0</v>
       </c>
-      <c r="K46" s="58" t="str">
+      <c r="K46" s="58">
         <f t="shared" ref="K46:O46" si="85">F46/$E46</f>
-        <v>1.16</v>
-      </c>
-      <c r="L46" s="59" t="str">
+        <v>1.164300007</v>
+      </c>
+      <c r="L46" s="59">
         <f t="shared" si="85"/>
-        <v>0.91</v>
-      </c>
-      <c r="M46" s="59" t="str">
+        <v>0.9073290374</v>
+      </c>
+      <c r="M46" s="59">
         <f t="shared" si="85"/>
-        <v>0.03</v>
-      </c>
-      <c r="N46" s="59" t="str">
+        <v>0.02783501592</v>
+      </c>
+      <c r="N46" s="59">
         <f t="shared" si="85"/>
-        <v>0.19</v>
-      </c>
-      <c r="O46" s="60" t="str">
+        <v>0.1889303493</v>
+      </c>
+      <c r="O46" s="60">
         <f t="shared" si="85"/>
-        <v>0.04</v>
-      </c>
-      <c r="P46" s="61" t="str">
+        <v>0.04020560442</v>
+      </c>
+      <c r="P46" s="61">
         <f t="shared" ref="P46:S46" si="86">G46/$F46</f>
-        <v>77.9%</v>
-      </c>
-      <c r="Q46" s="62" t="str">
+        <v>0.7792914471</v>
+      </c>
+      <c r="Q46" s="62">
         <f t="shared" si="86"/>
-        <v>2.4%</v>
-      </c>
-      <c r="R46" s="62" t="str">
+        <v>0.02390708215</v>
+      </c>
+      <c r="R46" s="62">
         <f t="shared" si="86"/>
-        <v>16.2%</v>
-      </c>
-      <c r="S46" s="63" t="str">
+        <v>0.1622694736</v>
+      </c>
+      <c r="S46" s="63">
         <f t="shared" si="86"/>
-        <v>3.5%</v>
-      </c>
-      <c r="T46" s="102" t="str">
+        <v>0.03453199706</v>
+      </c>
+      <c r="T46" s="102">
         <f t="shared" si="82"/>
-        <v>0.75</v>
+        <v>0.7513995389</v>
       </c>
       <c r="U46" s="103"/>
     </row>
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" s="99">
         <v>2011.0</v>
@@ -6022,7 +6083,7 @@
         <v>40695.0</v>
       </c>
       <c r="D47" s="101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47" s="54">
         <v>844440.0</v>
@@ -6042,51 +6103,51 @@
       <c r="J47" s="57">
         <v>5469.0</v>
       </c>
-      <c r="K47" s="58" t="str">
+      <c r="K47" s="58">
         <f t="shared" ref="K47:O47" si="87">F47/$E47</f>
-        <v>1.67</v>
-      </c>
-      <c r="L47" s="59" t="str">
+        <v>1.667316802</v>
+      </c>
+      <c r="L47" s="59">
         <f t="shared" si="87"/>
-        <v>1.22</v>
-      </c>
-      <c r="M47" s="59" t="str">
+        <v>1.223610914</v>
+      </c>
+      <c r="M47" s="59">
         <f t="shared" si="87"/>
-        <v>0.03</v>
-      </c>
-      <c r="N47" s="59" t="str">
+        <v>0.03374188812</v>
+      </c>
+      <c r="N47" s="59">
         <f t="shared" si="87"/>
-        <v>0.40</v>
-      </c>
-      <c r="O47" s="60" t="str">
+        <v>0.4034875184</v>
+      </c>
+      <c r="O47" s="60">
         <f t="shared" si="87"/>
-        <v>0.01</v>
-      </c>
-      <c r="P47" s="61" t="str">
+        <v>0.006476481455</v>
+      </c>
+      <c r="P47" s="61">
         <f t="shared" ref="P47:S47" si="88">G47/$F47</f>
-        <v>73.4%</v>
-      </c>
-      <c r="Q47" s="62" t="str">
+        <v>0.7338802755</v>
+      </c>
+      <c r="Q47" s="62">
         <f t="shared" si="88"/>
-        <v>2.0%</v>
-      </c>
-      <c r="R47" s="62" t="str">
+        <v>0.02023723871</v>
+      </c>
+      <c r="R47" s="62">
         <f t="shared" si="88"/>
-        <v>24.2%</v>
-      </c>
-      <c r="S47" s="63" t="str">
+        <v>0.2419981121</v>
+      </c>
+      <c r="S47" s="63">
         <f t="shared" si="88"/>
-        <v>0.4%</v>
-      </c>
-      <c r="T47" s="102" t="str">
+        <v>0.003884373653</v>
+      </c>
+      <c r="T47" s="102">
         <f t="shared" si="82"/>
-        <v>0.92</v>
+        <v>0.9225840222</v>
       </c>
       <c r="U47" s="103"/>
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48" s="99">
         <v>2011.0</v>
@@ -6095,7 +6156,7 @@
         <v>40725.0</v>
       </c>
       <c r="D48" s="101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48" s="54">
         <v>881010.0</v>
@@ -6115,51 +6176,51 @@
       <c r="J48" s="57">
         <v>4279.0</v>
       </c>
-      <c r="K48" s="58" t="str">
+      <c r="K48" s="58">
         <f t="shared" ref="K48:O48" si="89">F48/$E48</f>
-        <v>2.02</v>
-      </c>
-      <c r="L48" s="59" t="str">
+        <v>2.024765894</v>
+      </c>
+      <c r="L48" s="59">
         <f t="shared" si="89"/>
-        <v>1.70</v>
-      </c>
-      <c r="M48" s="59" t="str">
+        <v>1.695080646</v>
+      </c>
+      <c r="M48" s="59">
         <f t="shared" si="89"/>
-        <v>0.04</v>
-      </c>
-      <c r="N48" s="59" t="str">
+        <v>0.04093029591</v>
+      </c>
+      <c r="N48" s="59">
         <f t="shared" si="89"/>
-        <v>0.28</v>
-      </c>
-      <c r="O48" s="60" t="str">
+        <v>0.2838980261</v>
+      </c>
+      <c r="O48" s="60">
         <f t="shared" si="89"/>
-        <v>0.00</v>
-      </c>
-      <c r="P48" s="61" t="str">
+        <v>0.004856925574</v>
+      </c>
+      <c r="P48" s="61">
         <f t="shared" ref="P48:S48" si="90">G48/$F48</f>
-        <v>83.7%</v>
-      </c>
-      <c r="Q48" s="62" t="str">
+        <v>0.8371736463</v>
+      </c>
+      <c r="Q48" s="62">
         <f t="shared" si="90"/>
-        <v>2.0%</v>
-      </c>
-      <c r="R48" s="62" t="str">
+        <v>0.0202148288</v>
+      </c>
+      <c r="R48" s="62">
         <f t="shared" si="90"/>
-        <v>14.0%</v>
-      </c>
-      <c r="S48" s="63" t="str">
+        <v>0.1402127658</v>
+      </c>
+      <c r="S48" s="63">
         <f t="shared" si="90"/>
-        <v>0.2%</v>
-      </c>
-      <c r="T48" s="102" t="str">
+        <v>0.002398759081</v>
+      </c>
+      <c r="T48" s="102">
         <f t="shared" si="82"/>
-        <v>1.10</v>
+        <v>1.102432971</v>
       </c>
       <c r="U48" s="103"/>
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B49" s="99">
         <v>2011.0</v>
@@ -6168,7 +6229,7 @@
         <v>40756.0</v>
       </c>
       <c r="D49" s="101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E49" s="54">
         <v>869814.0</v>
@@ -6188,51 +6249,51 @@
       <c r="J49" s="57">
         <v>2586.0</v>
       </c>
-      <c r="K49" s="58" t="str">
+      <c r="K49" s="58">
         <f t="shared" ref="K49:O49" si="91">F49/$E49</f>
-        <v>1.63</v>
-      </c>
-      <c r="L49" s="59" t="str">
+        <v>1.634187309</v>
+      </c>
+      <c r="L49" s="59">
         <f t="shared" si="91"/>
-        <v>1.38</v>
-      </c>
-      <c r="M49" s="59" t="str">
+        <v>1.382125374</v>
+      </c>
+      <c r="M49" s="59">
         <f t="shared" si="91"/>
-        <v>0.02</v>
-      </c>
-      <c r="N49" s="59" t="str">
+        <v>0.01712090171</v>
+      </c>
+      <c r="N49" s="59">
         <f t="shared" si="91"/>
-        <v>0.23</v>
-      </c>
-      <c r="O49" s="60" t="str">
+        <v>0.231967984</v>
+      </c>
+      <c r="O49" s="60">
         <f t="shared" si="91"/>
-        <v>0.00</v>
-      </c>
-      <c r="P49" s="61" t="str">
+        <v>0.002973049411</v>
+      </c>
+      <c r="P49" s="61">
         <f t="shared" ref="P49:S49" si="92">G49/$F49</f>
-        <v>84.6%</v>
-      </c>
-      <c r="Q49" s="62" t="str">
+        <v>0.845757011</v>
+      </c>
+      <c r="Q49" s="62">
         <f t="shared" si="92"/>
-        <v>1.0%</v>
-      </c>
-      <c r="R49" s="62" t="str">
+        <v>0.01047670706</v>
+      </c>
+      <c r="R49" s="62">
         <f t="shared" si="92"/>
-        <v>14.2%</v>
-      </c>
-      <c r="S49" s="63" t="str">
+        <v>0.1419469988</v>
+      </c>
+      <c r="S49" s="63">
         <f t="shared" si="92"/>
-        <v>0.2%</v>
-      </c>
-      <c r="T49" s="102" t="str">
+        <v>0.001819283135</v>
+      </c>
+      <c r="T49" s="102">
         <f t="shared" si="82"/>
-        <v>1.18</v>
+        <v>1.176213364</v>
       </c>
       <c r="U49" s="103"/>
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B50" s="99">
         <v>2011.0</v>
@@ -6241,7 +6302,7 @@
         <v>40787.0</v>
       </c>
       <c r="D50" s="101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" s="54">
         <v>860329.0</v>
@@ -6261,51 +6322,51 @@
       <c r="J50" s="57">
         <v>12027.0</v>
       </c>
-      <c r="K50" s="58" t="str">
+      <c r="K50" s="58">
         <f t="shared" ref="K50:O50" si="93">F50/$E50</f>
-        <v>1.92</v>
-      </c>
-      <c r="L50" s="59" t="str">
+        <v>1.922147225</v>
+      </c>
+      <c r="L50" s="59">
         <f t="shared" si="93"/>
-        <v>1.73</v>
-      </c>
-      <c r="M50" s="59" t="str">
+        <v>1.728950204</v>
+      </c>
+      <c r="M50" s="59">
         <f t="shared" si="93"/>
-        <v>0.04</v>
-      </c>
-      <c r="N50" s="59" t="str">
+        <v>0.03505984339</v>
+      </c>
+      <c r="N50" s="59">
         <f t="shared" si="93"/>
-        <v>0.14</v>
-      </c>
-      <c r="O50" s="60" t="str">
+        <v>0.144157642</v>
+      </c>
+      <c r="O50" s="60">
         <f t="shared" si="93"/>
-        <v>0.01</v>
-      </c>
-      <c r="P50" s="61" t="str">
+        <v>0.01397953574</v>
+      </c>
+      <c r="P50" s="61">
         <f t="shared" ref="P50:S50" si="94">G50/$F50</f>
-        <v>89.9%</v>
-      </c>
-      <c r="Q50" s="62" t="str">
+        <v>0.8994889577</v>
+      </c>
+      <c r="Q50" s="62">
         <f t="shared" si="94"/>
-        <v>1.8%</v>
-      </c>
-      <c r="R50" s="62" t="str">
+        <v>0.01823993653</v>
+      </c>
+      <c r="R50" s="62">
         <f t="shared" si="94"/>
-        <v>7.5%</v>
-      </c>
-      <c r="S50" s="63" t="str">
+        <v>0.07499823122</v>
+      </c>
+      <c r="S50" s="63">
         <f t="shared" si="94"/>
-        <v>0.7%</v>
-      </c>
-      <c r="T50" s="102" t="str">
+        <v>0.007272874603</v>
+      </c>
+      <c r="T50" s="102">
         <f t="shared" si="82"/>
-        <v>1.27</v>
+        <v>1.266228971</v>
       </c>
       <c r="U50" s="103"/>
     </row>
     <row r="51" ht="12.0" customHeight="1">
       <c r="A51" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B51" s="99">
         <v>2011.0</v>
@@ -6314,7 +6375,7 @@
         <v>40817.0</v>
       </c>
       <c r="D51" s="101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E51" s="54">
         <v>815363.0</v>
@@ -6334,51 +6395,51 @@
       <c r="J51" s="57">
         <v>8368.0</v>
       </c>
-      <c r="K51" s="58" t="str">
+      <c r="K51" s="58">
         <f t="shared" ref="K51:O51" si="95">F51/$E51</f>
-        <v>1.39</v>
-      </c>
-      <c r="L51" s="59" t="str">
+        <v>1.394800843</v>
+      </c>
+      <c r="L51" s="59">
         <f t="shared" si="95"/>
-        <v>1.03</v>
-      </c>
-      <c r="M51" s="59" t="str">
+        <v>1.026353906</v>
+      </c>
+      <c r="M51" s="59">
         <f t="shared" si="95"/>
-        <v>0.31</v>
-      </c>
-      <c r="N51" s="59" t="str">
+        <v>0.3130556574</v>
+      </c>
+      <c r="N51" s="59">
         <f t="shared" si="95"/>
-        <v>0.05</v>
-      </c>
-      <c r="O51" s="60" t="str">
+        <v>0.04512836614</v>
+      </c>
+      <c r="O51" s="60">
         <f t="shared" si="95"/>
-        <v>0.01</v>
-      </c>
-      <c r="P51" s="61" t="str">
+        <v>0.01026291357</v>
+      </c>
+      <c r="P51" s="61">
         <f t="shared" ref="P51:S51" si="96">G51/$F51</f>
-        <v>73.6%</v>
-      </c>
-      <c r="Q51" s="62" t="str">
+        <v>0.7358426195</v>
+      </c>
+      <c r="Q51" s="62">
         <f t="shared" si="96"/>
-        <v>22.4%</v>
-      </c>
-      <c r="R51" s="62" t="str">
+        <v>0.2244447004</v>
+      </c>
+      <c r="R51" s="62">
         <f t="shared" si="96"/>
-        <v>3.2%</v>
-      </c>
-      <c r="S51" s="63" t="str">
+        <v>0.03235470236</v>
+      </c>
+      <c r="S51" s="63">
         <f t="shared" si="96"/>
-        <v>0.7%</v>
-      </c>
-      <c r="T51" s="102" t="str">
+        <v>0.007357977752</v>
+      </c>
+      <c r="T51" s="102">
         <f t="shared" si="82"/>
-        <v>1.28</v>
+        <v>1.279424333</v>
       </c>
       <c r="U51" s="103"/>
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="A52" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B52" s="99">
         <v>2011.0</v>
@@ -6387,7 +6448,7 @@
         <v>40848.0</v>
       </c>
       <c r="D52" s="101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E52" s="54">
         <v>695921.0</v>
@@ -6407,51 +6468,51 @@
       <c r="J52" s="57">
         <v>53160.0</v>
       </c>
-      <c r="K52" s="58" t="str">
+      <c r="K52" s="58">
         <f t="shared" ref="K52:O52" si="97">F52/$E52</f>
-        <v>0.43</v>
-      </c>
-      <c r="L52" s="59" t="str">
+        <v>0.428698085</v>
+      </c>
+      <c r="L52" s="59">
         <f t="shared" si="97"/>
-        <v>0.30</v>
-      </c>
-      <c r="M52" s="59" t="str">
+        <v>0.3009220874</v>
+      </c>
+      <c r="M52" s="59">
         <f t="shared" si="97"/>
-        <v>0.04</v>
-      </c>
-      <c r="N52" s="59" t="str">
+        <v>0.04301493991</v>
+      </c>
+      <c r="N52" s="59">
         <f t="shared" si="97"/>
-        <v>0.01</v>
-      </c>
-      <c r="O52" s="60" t="str">
+        <v>0.008373076829</v>
+      </c>
+      <c r="O52" s="60">
         <f t="shared" si="97"/>
-        <v>0.08</v>
-      </c>
-      <c r="P52" s="61" t="str">
+        <v>0.07638798082</v>
+      </c>
+      <c r="P52" s="61">
         <f t="shared" ref="P52:S52" si="98">G52/$F52</f>
-        <v>70.2%</v>
-      </c>
-      <c r="Q52" s="62" t="str">
+        <v>0.7019440906</v>
+      </c>
+      <c r="Q52" s="62">
         <f t="shared" si="98"/>
-        <v>10.0%</v>
-      </c>
-      <c r="R52" s="62" t="str">
+        <v>0.1003385399</v>
+      </c>
+      <c r="R52" s="62">
         <f t="shared" si="98"/>
-        <v>2.0%</v>
-      </c>
-      <c r="S52" s="63" t="str">
+        <v>0.01953140712</v>
+      </c>
+      <c r="S52" s="63">
         <f t="shared" si="98"/>
-        <v>17.8%</v>
-      </c>
-      <c r="T52" s="102" t="str">
+        <v>0.1781859623</v>
+      </c>
+      <c r="T52" s="102">
         <f t="shared" si="82"/>
-        <v>1.21</v>
+        <v>1.210906041</v>
       </c>
       <c r="U52" s="103"/>
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="104" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B53" s="105">
         <v>2011.0</v>
@@ -6460,7 +6521,7 @@
         <v>40878.0</v>
       </c>
       <c r="D53" s="107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E53" s="108">
         <v>660575.0</v>
@@ -6480,51 +6541,51 @@
       <c r="J53" s="111">
         <v>25973.0</v>
       </c>
-      <c r="K53" s="112" t="str">
+      <c r="K53" s="112">
         <f t="shared" ref="K53:O53" si="99">F53/$E53</f>
-        <v>0.32</v>
-      </c>
-      <c r="L53" s="113" t="str">
+        <v>0.3178125118</v>
+      </c>
+      <c r="L53" s="113">
         <f t="shared" si="99"/>
-        <v>0.25</v>
-      </c>
-      <c r="M53" s="113" t="str">
+        <v>0.2512144722</v>
+      </c>
+      <c r="M53" s="113">
         <f t="shared" si="99"/>
-        <v>0.01</v>
-      </c>
-      <c r="N53" s="113" t="str">
+        <v>0.01258449078</v>
+      </c>
+      <c r="N53" s="113">
         <f t="shared" si="99"/>
-        <v>0.01</v>
-      </c>
-      <c r="O53" s="114" t="str">
+        <v>0.01469477349</v>
+      </c>
+      <c r="O53" s="114">
         <f t="shared" si="99"/>
-        <v>0.04</v>
-      </c>
-      <c r="P53" s="115" t="str">
+        <v>0.03931877531</v>
+      </c>
+      <c r="P53" s="115">
         <f t="shared" ref="P53:S53" si="100">G53/$F53</f>
-        <v>79.0%</v>
-      </c>
-      <c r="Q53" s="116" t="str">
+        <v>0.7904486541</v>
+      </c>
+      <c r="Q53" s="116">
         <f t="shared" si="100"/>
-        <v>4.0%</v>
-      </c>
-      <c r="R53" s="116" t="str">
+        <v>0.03959721633</v>
+      </c>
+      <c r="R53" s="116">
         <f t="shared" si="100"/>
-        <v>4.6%</v>
-      </c>
-      <c r="S53" s="117" t="str">
+        <v>0.04623724034</v>
+      </c>
+      <c r="S53" s="117">
         <f t="shared" si="100"/>
-        <v>12.4%</v>
-      </c>
-      <c r="T53" s="118" t="str">
+        <v>0.1237168892</v>
+      </c>
+      <c r="T53" s="118">
         <f t="shared" si="82"/>
-        <v>1.15</v>
+        <v>1.147477917</v>
       </c>
       <c r="U53" s="119"/>
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="A54" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B54" s="120">
         <v>2012.0</v>
@@ -6533,7 +6594,7 @@
         <v>40909.0</v>
       </c>
       <c r="D54" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E54" s="40">
         <v>660803.0</v>
@@ -6553,45 +6614,45 @@
       <c r="J54" s="43">
         <v>13940.0</v>
       </c>
-      <c r="K54" s="44" t="str">
+      <c r="K54" s="44">
         <f t="shared" ref="K54:O54" si="101">F54/$E54</f>
-        <v>0.21</v>
-      </c>
-      <c r="L54" s="45" t="str">
+        <v>0.2081074087</v>
+      </c>
+      <c r="L54" s="45">
         <f t="shared" si="101"/>
-        <v>0.18</v>
-      </c>
-      <c r="M54" s="45" t="str">
+        <v>0.1803260578</v>
+      </c>
+      <c r="M54" s="45">
         <f t="shared" si="101"/>
-        <v>0.00</v>
-      </c>
-      <c r="N54" s="45" t="str">
+        <v>0.002363790721</v>
+      </c>
+      <c r="N54" s="45">
         <f t="shared" si="101"/>
-        <v>0.00</v>
-      </c>
-      <c r="O54" s="46" t="str">
+        <v>0.004322014277</v>
+      </c>
+      <c r="O54" s="46">
         <f t="shared" si="101"/>
-        <v>0.02</v>
-      </c>
-      <c r="P54" s="47" t="str">
+        <v>0.02109554587</v>
+      </c>
+      <c r="P54" s="47">
         <f t="shared" ref="P54:S54" si="102">G54/$F54</f>
-        <v>86.7%</v>
-      </c>
-      <c r="Q54" s="48" t="str">
+        <v>0.8665047485</v>
+      </c>
+      <c r="Q54" s="48">
         <f t="shared" si="102"/>
-        <v>1.1%</v>
-      </c>
-      <c r="R54" s="48" t="str">
+        <v>0.01135851307</v>
+      </c>
+      <c r="R54" s="48">
         <f t="shared" si="102"/>
-        <v>2.1%</v>
-      </c>
-      <c r="S54" s="49" t="str">
+        <v>0.02076819035</v>
+      </c>
+      <c r="S54" s="49">
         <f t="shared" si="102"/>
-        <v>10.1%</v>
-      </c>
-      <c r="T54" s="123" t="str">
+        <v>0.1013685481</v>
+      </c>
+      <c r="T54" s="123">
         <f>F54/E54</f>
-        <v>0.21</v>
+        <v>0.2081074087</v>
       </c>
       <c r="U54" s="125">
         <v>0.348575305485442</v>
@@ -6599,7 +6660,7 @@
     </row>
     <row r="55" ht="12.0" customHeight="1">
       <c r="A55" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B55" s="99">
         <v>2012.0</v>
@@ -6608,7 +6669,7 @@
         <v>40940.0</v>
       </c>
       <c r="D55" s="101" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E55" s="54">
         <v>634783.0</v>
@@ -6628,45 +6689,45 @@
       <c r="J55" s="57">
         <v>13085.0</v>
       </c>
-      <c r="K55" s="58" t="str">
+      <c r="K55" s="58">
         <f t="shared" ref="K55:O55" si="103">F55/$E55</f>
-        <v>0.35</v>
-      </c>
-      <c r="L55" s="59" t="str">
+        <v>0.3547527265</v>
+      </c>
+      <c r="L55" s="59">
         <f t="shared" si="103"/>
-        <v>0.24</v>
-      </c>
-      <c r="M55" s="59" t="str">
+        <v>0.2372164976</v>
+      </c>
+      <c r="M55" s="59">
         <f t="shared" si="103"/>
-        <v>0.09</v>
-      </c>
-      <c r="N55" s="59" t="str">
+        <v>0.09067508109</v>
+      </c>
+      <c r="N55" s="59">
         <f t="shared" si="103"/>
-        <v>0.01</v>
-      </c>
-      <c r="O55" s="60" t="str">
+        <v>0.006247804368</v>
+      </c>
+      <c r="O55" s="60">
         <f t="shared" si="103"/>
-        <v>0.02</v>
-      </c>
-      <c r="P55" s="61" t="str">
+        <v>0.02061334346</v>
+      </c>
+      <c r="P55" s="61">
         <f t="shared" ref="P55:S55" si="104">G55/$F55</f>
-        <v>66.9%</v>
-      </c>
-      <c r="Q55" s="62" t="str">
+        <v>0.6686812528</v>
+      </c>
+      <c r="Q55" s="62">
         <f t="shared" si="104"/>
-        <v>25.6%</v>
-      </c>
-      <c r="R55" s="62" t="str">
+        <v>0.2556008011</v>
+      </c>
+      <c r="R55" s="62">
         <f t="shared" si="104"/>
-        <v>1.8%</v>
-      </c>
-      <c r="S55" s="63" t="str">
+        <v>0.01761171628</v>
+      </c>
+      <c r="S55" s="63">
         <f t="shared" si="104"/>
-        <v>5.8%</v>
-      </c>
-      <c r="T55" s="102" t="str">
+        <v>0.05810622982</v>
+      </c>
+      <c r="T55" s="102">
         <f t="shared" ref="T55:T65" si="107">SUM(F$54:F55)/SUM(E$54:E55)</f>
-        <v>0.28</v>
+        <v>0.2799574864</v>
       </c>
       <c r="U55" s="126">
         <v>0.334761521794803</v>
@@ -6674,7 +6735,7 @@
     </row>
     <row r="56" ht="12.0" customHeight="1">
       <c r="A56" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B56" s="99">
         <v>2012.0</v>
@@ -6683,7 +6744,7 @@
         <v>40969.0</v>
       </c>
       <c r="D56" s="101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E56" s="54">
         <v>728866.0</v>
@@ -6703,45 +6764,45 @@
       <c r="J56" s="57">
         <v>16749.0</v>
       </c>
-      <c r="K56" s="58" t="str">
+      <c r="K56" s="58">
         <f t="shared" ref="K56:O56" si="105">F56/$E56</f>
-        <v>0.30</v>
-      </c>
-      <c r="L56" s="59" t="str">
+        <v>0.2989328628</v>
+      </c>
+      <c r="L56" s="59">
         <f t="shared" si="105"/>
-        <v>0.25</v>
-      </c>
-      <c r="M56" s="59" t="str">
+        <v>0.2526157071</v>
+      </c>
+      <c r="M56" s="59">
         <f t="shared" si="105"/>
-        <v>0.02</v>
-      </c>
-      <c r="N56" s="59" t="str">
+        <v>0.01998309703</v>
+      </c>
+      <c r="N56" s="59">
         <f t="shared" si="105"/>
-        <v>0.00</v>
-      </c>
-      <c r="O56" s="60" t="str">
+        <v>0.003354526072</v>
+      </c>
+      <c r="O56" s="60">
         <f t="shared" si="105"/>
-        <v>0.02</v>
-      </c>
-      <c r="P56" s="61" t="str">
+        <v>0.02297953259</v>
+      </c>
+      <c r="P56" s="61">
         <f t="shared" ref="P56:S56" si="106">G56/$F56</f>
-        <v>84.5%</v>
-      </c>
-      <c r="Q56" s="62" t="str">
+        <v>0.8450583343</v>
+      </c>
+      <c r="Q56" s="62">
         <f t="shared" si="106"/>
-        <v>6.7%</v>
-      </c>
-      <c r="R56" s="62" t="str">
+        <v>0.06684811045</v>
+      </c>
+      <c r="R56" s="62">
         <f t="shared" si="106"/>
-        <v>1.1%</v>
-      </c>
-      <c r="S56" s="63" t="str">
+        <v>0.01122167045</v>
+      </c>
+      <c r="S56" s="63">
         <f t="shared" si="106"/>
-        <v>7.7%</v>
-      </c>
-      <c r="T56" s="102" t="str">
+        <v>0.07687188478</v>
+      </c>
+      <c r="T56" s="102">
         <f t="shared" si="107"/>
-        <v>0.29</v>
+        <v>0.2867892151</v>
       </c>
       <c r="U56" s="126">
         <v>0.342241013994336</v>
@@ -6749,7 +6810,7 @@
     </row>
     <row r="57" ht="12.0" customHeight="1">
       <c r="A57" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B57" s="99">
         <v>2012.0</v>
@@ -6758,7 +6819,7 @@
         <v>41000.0</v>
       </c>
       <c r="D57" s="101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E57" s="54">
         <v>738288.0</v>
@@ -6778,45 +6839,45 @@
       <c r="J57" s="57">
         <v>46798.0</v>
       </c>
-      <c r="K57" s="58" t="str">
+      <c r="K57" s="58">
         <f t="shared" ref="K57:O57" si="108">F57/$E57</f>
-        <v>1.02</v>
-      </c>
-      <c r="L57" s="59" t="str">
+        <v>1.01643803</v>
+      </c>
+      <c r="L57" s="59">
         <f t="shared" si="108"/>
-        <v>0.37</v>
-      </c>
-      <c r="M57" s="59" t="str">
+        <v>0.3715257461</v>
+      </c>
+      <c r="M57" s="59">
         <f t="shared" si="108"/>
-        <v>0.54</v>
-      </c>
-      <c r="N57" s="59" t="str">
+        <v>0.5439313655</v>
+      </c>
+      <c r="N57" s="59">
         <f t="shared" si="108"/>
-        <v>0.04</v>
-      </c>
-      <c r="O57" s="60" t="str">
+        <v>0.03759373036</v>
+      </c>
+      <c r="O57" s="60">
         <f t="shared" si="108"/>
-        <v>0.06</v>
-      </c>
-      <c r="P57" s="61" t="str">
+        <v>0.06338718766</v>
+      </c>
+      <c r="P57" s="61">
         <f t="shared" ref="P57:S57" si="109">G57/$F57</f>
-        <v>36.6%</v>
-      </c>
-      <c r="Q57" s="62" t="str">
+        <v>0.3655173609</v>
+      </c>
+      <c r="Q57" s="62">
         <f t="shared" si="109"/>
-        <v>53.5%</v>
-      </c>
-      <c r="R57" s="62" t="str">
+        <v>0.5351348038</v>
+      </c>
+      <c r="R57" s="62">
         <f t="shared" si="109"/>
-        <v>3.7%</v>
-      </c>
-      <c r="S57" s="63" t="str">
+        <v>0.03698575739</v>
+      </c>
+      <c r="S57" s="63">
         <f t="shared" si="109"/>
-        <v>6.2%</v>
-      </c>
-      <c r="T57" s="102" t="str">
+        <v>0.06236207797</v>
+      </c>
+      <c r="T57" s="102">
         <f t="shared" si="107"/>
-        <v>0.48</v>
+        <v>0.4817735292</v>
       </c>
       <c r="U57" s="126">
         <v>0.365582547734484</v>
@@ -6824,7 +6885,7 @@
     </row>
     <row r="58" ht="12.0" customHeight="1">
       <c r="A58" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" s="99">
         <v>2012.0</v>
@@ -6833,7 +6894,7 @@
         <v>41030.0</v>
       </c>
       <c r="D58" s="101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E58" s="54">
         <v>809783.0</v>
@@ -6853,45 +6914,45 @@
       <c r="J58" s="57">
         <v>18459.0</v>
       </c>
-      <c r="K58" s="58" t="str">
+      <c r="K58" s="58">
         <f t="shared" ref="K58:O58" si="110">F58/$E58</f>
-        <v>0.55</v>
-      </c>
-      <c r="L58" s="59" t="str">
+        <v>0.5548301212</v>
+      </c>
+      <c r="L58" s="59">
         <f t="shared" si="110"/>
-        <v>0.35</v>
-      </c>
-      <c r="M58" s="59" t="str">
+        <v>0.3543949428</v>
+      </c>
+      <c r="M58" s="59">
         <f t="shared" si="110"/>
-        <v>0.01</v>
-      </c>
-      <c r="N58" s="59" t="str">
+        <v>0.007502009798</v>
+      </c>
+      <c r="N58" s="59">
         <f t="shared" si="110"/>
-        <v>0.17</v>
-      </c>
-      <c r="O58" s="60" t="str">
+        <v>0.1701381728</v>
+      </c>
+      <c r="O58" s="60">
         <f t="shared" si="110"/>
-        <v>0.02</v>
-      </c>
-      <c r="P58" s="61" t="str">
+        <v>0.0227949957</v>
+      </c>
+      <c r="P58" s="61">
         <f t="shared" ref="P58:S58" si="111">G58/$F58</f>
-        <v>63.9%</v>
-      </c>
-      <c r="Q58" s="62" t="str">
+        <v>0.6387449587</v>
+      </c>
+      <c r="Q58" s="62">
         <f t="shared" si="111"/>
-        <v>1.4%</v>
-      </c>
-      <c r="R58" s="62" t="str">
+        <v>0.01352127347</v>
+      </c>
+      <c r="R58" s="62">
         <f t="shared" si="111"/>
-        <v>30.7%</v>
-      </c>
-      <c r="S58" s="63" t="str">
+        <v>0.306649128</v>
+      </c>
+      <c r="S58" s="63">
         <f t="shared" si="111"/>
-        <v>4.1%</v>
-      </c>
-      <c r="T58" s="102" t="str">
+        <v>0.04108463983</v>
+      </c>
+      <c r="T58" s="102">
         <f t="shared" si="107"/>
-        <v>0.50</v>
+        <v>0.4983332508</v>
       </c>
       <c r="U58" s="126">
         <v>0.431948111545936</v>
@@ -6899,7 +6960,7 @@
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B59" s="99">
         <v>2012.0</v>
@@ -6908,7 +6969,7 @@
         <v>41061.0</v>
       </c>
       <c r="D59" s="101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E59" s="54">
         <v>836999.0</v>
@@ -6928,45 +6989,45 @@
       <c r="J59" s="57">
         <v>18501.0</v>
       </c>
-      <c r="K59" s="58" t="str">
+      <c r="K59" s="58">
         <f t="shared" ref="K59:O59" si="112">F59/$E59</f>
-        <v>0.83</v>
-      </c>
-      <c r="L59" s="59" t="str">
+        <v>0.8317500977</v>
+      </c>
+      <c r="L59" s="59">
         <f t="shared" si="112"/>
-        <v>0.59</v>
-      </c>
-      <c r="M59" s="59" t="str">
+        <v>0.589588518</v>
+      </c>
+      <c r="M59" s="59">
         <f t="shared" si="112"/>
-        <v>0.01</v>
-      </c>
-      <c r="N59" s="59" t="str">
+        <v>0.006725217115</v>
+      </c>
+      <c r="N59" s="59">
         <f t="shared" si="112"/>
-        <v>0.21</v>
-      </c>
-      <c r="O59" s="60" t="str">
+        <v>0.2133323935</v>
+      </c>
+      <c r="O59" s="60">
         <f t="shared" si="112"/>
-        <v>0.02</v>
-      </c>
-      <c r="P59" s="61" t="str">
+        <v>0.02210396906</v>
+      </c>
+      <c r="P59" s="61">
         <f t="shared" ref="P59:S59" si="113">G59/$F59</f>
-        <v>70.9%</v>
-      </c>
-      <c r="Q59" s="62" t="str">
+        <v>0.7088529592</v>
+      </c>
+      <c r="Q59" s="62">
         <f t="shared" si="113"/>
-        <v>0.8%</v>
-      </c>
-      <c r="R59" s="62" t="str">
+        <v>0.008085622273</v>
+      </c>
+      <c r="R59" s="62">
         <f t="shared" si="113"/>
-        <v>25.6%</v>
-      </c>
-      <c r="S59" s="63" t="str">
+        <v>0.2564861658</v>
+      </c>
+      <c r="S59" s="63">
         <f t="shared" si="113"/>
-        <v>2.7%</v>
-      </c>
-      <c r="T59" s="102" t="str">
+        <v>0.02657525274</v>
+      </c>
+      <c r="T59" s="102">
         <f t="shared" si="107"/>
-        <v>0.56</v>
+        <v>0.5616211916</v>
       </c>
       <c r="U59" s="126">
         <v>0.544367780626771</v>
@@ -6974,7 +7035,7 @@
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="A60" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" s="99">
         <v>2012.0</v>
@@ -6983,7 +7044,7 @@
         <v>41091.0</v>
       </c>
       <c r="D60" s="101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E60" s="54">
         <v>867831.0</v>
@@ -7003,45 +7064,45 @@
       <c r="J60" s="57">
         <v>21301.0</v>
       </c>
-      <c r="K60" s="58" t="str">
+      <c r="K60" s="58">
         <f t="shared" ref="K60:O60" si="114">F60/$E60</f>
-        <v>1.25</v>
-      </c>
-      <c r="L60" s="59" t="str">
+        <v>1.250107452</v>
+      </c>
+      <c r="L60" s="59">
         <f t="shared" si="114"/>
-        <v>0.87</v>
-      </c>
-      <c r="M60" s="59" t="str">
+        <v>0.8725224151</v>
+      </c>
+      <c r="M60" s="59">
         <f t="shared" si="114"/>
-        <v>0.03</v>
-      </c>
-      <c r="N60" s="59" t="str">
+        <v>0.02723571755</v>
+      </c>
+      <c r="N60" s="59">
         <f t="shared" si="114"/>
-        <v>0.33</v>
-      </c>
-      <c r="O60" s="60" t="str">
+        <v>0.3258042176</v>
+      </c>
+      <c r="O60" s="60">
         <f t="shared" si="114"/>
-        <v>0.02</v>
-      </c>
-      <c r="P60" s="61" t="str">
+        <v>0.02454510152</v>
+      </c>
+      <c r="P60" s="61">
         <f t="shared" ref="P60:S60" si="115">G60/$F60</f>
-        <v>69.8%</v>
-      </c>
-      <c r="Q60" s="62" t="str">
+        <v>0.6979579346</v>
+      </c>
+      <c r="Q60" s="62">
         <f t="shared" si="115"/>
-        <v>2.2%</v>
-      </c>
-      <c r="R60" s="62" t="str">
+        <v>0.02178670123</v>
+      </c>
+      <c r="R60" s="62">
         <f t="shared" si="115"/>
-        <v>26.1%</v>
-      </c>
-      <c r="S60" s="63" t="str">
+        <v>0.2606209708</v>
+      </c>
+      <c r="S60" s="63">
         <f t="shared" si="115"/>
-        <v>2.0%</v>
-      </c>
-      <c r="T60" s="102" t="str">
+        <v>0.01963439342</v>
+      </c>
+      <c r="T60" s="102">
         <f t="shared" si="107"/>
-        <v>0.67</v>
+        <v>0.6748388823</v>
       </c>
       <c r="U60" s="126">
         <v>0.694976786891911</v>
@@ -7049,7 +7110,7 @@
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="A61" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" s="99">
         <v>2012.0</v>
@@ -7058,7 +7119,7 @@
         <v>41122.0</v>
       </c>
       <c r="D61" s="101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E61" s="54">
         <v>855392.0</v>
@@ -7078,45 +7139,45 @@
       <c r="J61" s="57">
         <v>3863.0</v>
       </c>
-      <c r="K61" s="58" t="str">
+      <c r="K61" s="58">
         <f t="shared" ref="K61:O61" si="116">F61/$E61</f>
-        <v>0.70</v>
-      </c>
-      <c r="L61" s="59" t="str">
+        <v>0.6968419158</v>
+      </c>
+      <c r="L61" s="59">
         <f t="shared" si="116"/>
-        <v>0.59</v>
-      </c>
-      <c r="M61" s="59" t="str">
+        <v>0.589408131</v>
+      </c>
+      <c r="M61" s="59">
         <f t="shared" si="116"/>
-        <v>0.00</v>
-      </c>
-      <c r="N61" s="59" t="str">
+        <v>0.002056367139</v>
+      </c>
+      <c r="N61" s="59">
         <f t="shared" si="116"/>
-        <v>0.10</v>
-      </c>
-      <c r="O61" s="60" t="str">
+        <v>0.1008613595</v>
+      </c>
+      <c r="O61" s="60">
         <f t="shared" si="116"/>
-        <v>0.00</v>
-      </c>
-      <c r="P61" s="61" t="str">
+        <v>0.004516058135</v>
+      </c>
+      <c r="P61" s="61">
         <f t="shared" ref="P61:S61" si="117">G61/$F61</f>
-        <v>84.6%</v>
-      </c>
-      <c r="Q61" s="62" t="str">
+        <v>0.8458276084</v>
+      </c>
+      <c r="Q61" s="62">
         <f t="shared" si="117"/>
-        <v>0.3%</v>
-      </c>
-      <c r="R61" s="62" t="str">
+        <v>0.002950980836</v>
+      </c>
+      <c r="R61" s="62">
         <f t="shared" si="117"/>
-        <v>14.5%</v>
-      </c>
-      <c r="S61" s="63" t="str">
+        <v>0.144740661</v>
+      </c>
+      <c r="S61" s="63">
         <f t="shared" si="117"/>
-        <v>0.6%</v>
-      </c>
-      <c r="T61" s="102" t="str">
+        <v>0.006480749841</v>
+      </c>
+      <c r="T61" s="102">
         <f t="shared" si="107"/>
-        <v>0.68</v>
+        <v>0.6779078537</v>
       </c>
       <c r="U61" s="126">
         <v>0.742076292130876</v>
@@ -7124,7 +7185,7 @@
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="A62" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" s="99">
         <v>2012.0</v>
@@ -7133,7 +7194,7 @@
         <v>41153.0</v>
       </c>
       <c r="D62" s="101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E62" s="54">
         <v>830808.0</v>
@@ -7153,45 +7214,45 @@
       <c r="J62" s="57">
         <v>24021.0</v>
       </c>
-      <c r="K62" s="58" t="str">
+      <c r="K62" s="58">
         <f t="shared" ref="K62:O62" si="118">F62/$E62</f>
-        <v>0.77</v>
-      </c>
-      <c r="L62" s="59" t="str">
+        <v>0.7736769506</v>
+      </c>
+      <c r="L62" s="59">
         <f t="shared" si="118"/>
-        <v>0.59</v>
-      </c>
-      <c r="M62" s="59" t="str">
+        <v>0.5906310483</v>
+      </c>
+      <c r="M62" s="59">
         <f t="shared" si="118"/>
-        <v>0.05</v>
-      </c>
-      <c r="N62" s="59" t="str">
+        <v>0.04706382221</v>
+      </c>
+      <c r="N62" s="59">
         <f t="shared" si="118"/>
-        <v>0.11</v>
-      </c>
-      <c r="O62" s="60" t="str">
+        <v>0.1070692627</v>
+      </c>
+      <c r="O62" s="60">
         <f t="shared" si="118"/>
-        <v>0.03</v>
-      </c>
-      <c r="P62" s="61" t="str">
+        <v>0.0289128174</v>
+      </c>
+      <c r="P62" s="61">
         <f t="shared" ref="P62:S62" si="119">G62/$F62</f>
-        <v>76.3%</v>
-      </c>
-      <c r="Q62" s="62" t="str">
+        <v>0.7634078382</v>
+      </c>
+      <c r="Q62" s="62">
         <f t="shared" si="119"/>
-        <v>6.1%</v>
-      </c>
-      <c r="R62" s="62" t="str">
+        <v>0.06083136142</v>
+      </c>
+      <c r="R62" s="62">
         <f t="shared" si="119"/>
-        <v>13.8%</v>
-      </c>
-      <c r="S62" s="63" t="str">
+        <v>0.1383901415</v>
+      </c>
+      <c r="S62" s="63">
         <f t="shared" si="119"/>
-        <v>3.7%</v>
-      </c>
-      <c r="T62" s="102" t="str">
+        <v>0.03737065888</v>
+      </c>
+      <c r="T62" s="102">
         <f t="shared" si="107"/>
-        <v>0.69</v>
+        <v>0.6893338788</v>
       </c>
       <c r="U62" s="126">
         <v>0.752100419510298</v>
@@ -7199,7 +7260,7 @@
     </row>
     <row r="63" ht="12.0" customHeight="1">
       <c r="A63" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" s="99">
         <v>2012.0</v>
@@ -7208,7 +7269,7 @@
         <v>41183.0</v>
       </c>
       <c r="D63" s="101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E63" s="54">
         <v>796883.0</v>
@@ -7228,45 +7289,45 @@
       <c r="J63" s="57">
         <v>15098.0</v>
       </c>
-      <c r="K63" s="58" t="str">
+      <c r="K63" s="58">
         <f t="shared" ref="K63:O63" si="120">F63/$E63</f>
-        <v>0.62</v>
-      </c>
-      <c r="L63" s="59" t="str">
+        <v>0.6185073593</v>
+      </c>
+      <c r="L63" s="59">
         <f t="shared" si="120"/>
-        <v>0.48</v>
-      </c>
-      <c r="M63" s="59" t="str">
+        <v>0.481177287</v>
+      </c>
+      <c r="M63" s="59">
         <f t="shared" si="120"/>
-        <v>0.10</v>
-      </c>
-      <c r="N63" s="59" t="str">
+        <v>0.1024127758</v>
+      </c>
+      <c r="N63" s="59">
         <f t="shared" si="120"/>
-        <v>0.02</v>
-      </c>
-      <c r="O63" s="60" t="str">
+        <v>0.01597097692</v>
+      </c>
+      <c r="O63" s="60">
         <f t="shared" si="120"/>
-        <v>0.02</v>
-      </c>
-      <c r="P63" s="61" t="str">
+        <v>0.0189463196</v>
+      </c>
+      <c r="P63" s="61">
         <f t="shared" ref="P63:S63" si="121">G63/$F63</f>
-        <v>77.8%</v>
-      </c>
-      <c r="Q63" s="62" t="str">
+        <v>0.7779653383</v>
+      </c>
+      <c r="Q63" s="62">
         <f t="shared" si="121"/>
-        <v>16.6%</v>
-      </c>
-      <c r="R63" s="62" t="str">
+        <v>0.1655805291</v>
+      </c>
+      <c r="R63" s="62">
         <f t="shared" si="121"/>
-        <v>2.6%</v>
-      </c>
-      <c r="S63" s="63" t="str">
+        <v>0.0258218058</v>
+      </c>
+      <c r="S63" s="63">
         <f t="shared" si="121"/>
-        <v>3.1%</v>
-      </c>
-      <c r="T63" s="102" t="str">
+        <v>0.03063232686</v>
+      </c>
+      <c r="T63" s="102">
         <f t="shared" si="107"/>
-        <v>0.68</v>
+        <v>0.6820610337</v>
       </c>
       <c r="U63" s="126">
         <v>0.741421953758934</v>
@@ -7274,7 +7335,7 @@
     </row>
     <row r="64" ht="12.0" customHeight="1">
       <c r="A64" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" s="99">
         <v>2012.0</v>
@@ -7283,7 +7344,7 @@
         <v>41214.0</v>
       </c>
       <c r="D64" s="101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E64" s="54">
         <v>669353.0</v>
@@ -7303,45 +7364,45 @@
       <c r="J64" s="57">
         <v>5577.0</v>
       </c>
-      <c r="K64" s="58" t="str">
+      <c r="K64" s="58">
         <f t="shared" ref="K64:O64" si="122">F64/$E64</f>
-        <v>0.41</v>
-      </c>
-      <c r="L64" s="59" t="str">
+        <v>0.4102050786</v>
+      </c>
+      <c r="L64" s="59">
         <f t="shared" si="122"/>
-        <v>0.31</v>
-      </c>
-      <c r="M64" s="59" t="str">
+        <v>0.3063973718</v>
+      </c>
+      <c r="M64" s="59">
         <f t="shared" si="122"/>
-        <v>0.09</v>
-      </c>
-      <c r="N64" s="59" t="str">
+        <v>0.09197389121</v>
+      </c>
+      <c r="N64" s="59">
         <f t="shared" si="122"/>
-        <v>0.00</v>
-      </c>
-      <c r="O64" s="60" t="str">
+        <v>0.003501889138</v>
+      </c>
+      <c r="O64" s="60">
         <f t="shared" si="122"/>
-        <v>0.01</v>
-      </c>
-      <c r="P64" s="61" t="str">
+        <v>0.008331926502</v>
+      </c>
+      <c r="P64" s="61">
         <f t="shared" ref="P64:S64" si="123">G64/$F64</f>
-        <v>74.7%</v>
-      </c>
-      <c r="Q64" s="62" t="str">
+        <v>0.7469370511</v>
+      </c>
+      <c r="Q64" s="62">
         <f t="shared" si="123"/>
-        <v>22.4%</v>
-      </c>
-      <c r="R64" s="62" t="str">
+        <v>0.2242144137</v>
+      </c>
+      <c r="R64" s="62">
         <f t="shared" si="123"/>
-        <v>0.9%</v>
-      </c>
-      <c r="S64" s="63" t="str">
+        <v>0.00853692292</v>
+      </c>
+      <c r="S64" s="63">
         <f t="shared" si="123"/>
-        <v>2.0%</v>
-      </c>
-      <c r="T64" s="102" t="str">
+        <v>0.02031161225</v>
+      </c>
+      <c r="T64" s="102">
         <f t="shared" si="107"/>
-        <v>0.66</v>
+        <v>0.6604747758</v>
       </c>
       <c r="U64" s="126">
         <v>0.709293462633004</v>
@@ -7349,7 +7410,7 @@
     </row>
     <row r="65" ht="12.0" customHeight="1">
       <c r="A65" s="104" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B65" s="105">
         <v>2012.0</v>
@@ -7358,7 +7419,7 @@
         <v>41244.0</v>
       </c>
       <c r="D65" s="107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E65" s="108">
         <v>620902.0</v>
@@ -7378,45 +7439,45 @@
       <c r="J65" s="111">
         <v>40692.0</v>
       </c>
-      <c r="K65" s="112" t="str">
+      <c r="K65" s="112">
         <f t="shared" ref="K65:O65" si="124">F65/$E65</f>
-        <v>0.27</v>
-      </c>
-      <c r="L65" s="113" t="str">
+        <v>0.2692469987</v>
+      </c>
+      <c r="L65" s="113">
         <f t="shared" si="124"/>
-        <v>0.18</v>
-      </c>
-      <c r="M65" s="113" t="str">
+        <v>0.1830433788</v>
+      </c>
+      <c r="M65" s="113">
         <f t="shared" si="124"/>
-        <v>0.01</v>
-      </c>
-      <c r="N65" s="113" t="str">
+        <v>0.01489929168</v>
+      </c>
+      <c r="N65" s="113">
         <f t="shared" si="124"/>
-        <v>0.01</v>
-      </c>
-      <c r="O65" s="114" t="str">
+        <v>0.005767415792</v>
+      </c>
+      <c r="O65" s="114">
         <f t="shared" si="124"/>
-        <v>0.07</v>
-      </c>
-      <c r="P65" s="115" t="str">
+        <v>0.06553691243</v>
+      </c>
+      <c r="P65" s="115">
         <f t="shared" ref="P65:S65" si="125">G65/$F65</f>
-        <v>68.0%</v>
-      </c>
-      <c r="Q65" s="116" t="str">
+        <v>0.679834426</v>
+      </c>
+      <c r="Q65" s="116">
         <f t="shared" si="125"/>
-        <v>5.5%</v>
-      </c>
-      <c r="R65" s="116" t="str">
+        <v>0.05533689046</v>
+      </c>
+      <c r="R65" s="116">
         <f t="shared" si="125"/>
-        <v>2.1%</v>
-      </c>
-      <c r="S65" s="117" t="str">
+        <v>0.02142053883</v>
+      </c>
+      <c r="S65" s="117">
         <f t="shared" si="125"/>
-        <v>24.3%</v>
-      </c>
-      <c r="T65" s="118" t="str">
+        <v>0.2434081447</v>
+      </c>
+      <c r="T65" s="118">
         <f t="shared" si="107"/>
-        <v>0.63</v>
+        <v>0.6336354871</v>
       </c>
       <c r="U65" s="127">
         <v>0.7</v>
@@ -7424,7 +7485,7 @@
     </row>
     <row r="66" ht="12.0" customHeight="1">
       <c r="A66" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66" s="120">
         <v>2013.0</v>
@@ -7433,7 +7494,7 @@
         <v>41275.0</v>
       </c>
       <c r="D66" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E66" s="40">
         <v>627864.0</v>
@@ -7453,45 +7514,45 @@
       <c r="J66" s="43">
         <v>36200.0</v>
       </c>
-      <c r="K66" s="44" t="str">
+      <c r="K66" s="44">
         <f t="shared" ref="K66:O66" si="126">F66/$E66</f>
-        <v>0.18</v>
-      </c>
-      <c r="L66" s="45" t="str">
+        <v>0.1769778169</v>
+      </c>
+      <c r="L66" s="45">
         <f t="shared" si="126"/>
-        <v>0.09</v>
-      </c>
-      <c r="M66" s="45" t="str">
+        <v>0.09420511448</v>
+      </c>
+      <c r="M66" s="45">
         <f t="shared" si="126"/>
-        <v>0.02</v>
-      </c>
-      <c r="N66" s="45" t="str">
+        <v>0.02105551521</v>
+      </c>
+      <c r="N66" s="45">
         <f t="shared" si="126"/>
-        <v>0.00</v>
-      </c>
-      <c r="O66" s="46" t="str">
+        <v>0.004061389091</v>
+      </c>
+      <c r="O66" s="46">
         <f t="shared" si="126"/>
-        <v>0.06</v>
-      </c>
-      <c r="P66" s="47" t="str">
+        <v>0.05765579807</v>
+      </c>
+      <c r="P66" s="47">
         <f t="shared" ref="P66:S66" si="127">G66/$F66</f>
-        <v>53.2%</v>
-      </c>
-      <c r="Q66" s="48" t="str">
+        <v>0.5322989975</v>
+      </c>
+      <c r="Q66" s="48">
         <f t="shared" si="127"/>
-        <v>11.9%</v>
-      </c>
-      <c r="R66" s="48" t="str">
+        <v>0.1189726237</v>
+      </c>
+      <c r="R66" s="48">
         <f t="shared" si="127"/>
-        <v>2.3%</v>
-      </c>
-      <c r="S66" s="49" t="str">
+        <v>0.02294857719</v>
+      </c>
+      <c r="S66" s="49">
         <f t="shared" si="127"/>
-        <v>32.6%</v>
-      </c>
-      <c r="T66" s="123" t="str">
+        <v>0.3257798017</v>
+      </c>
+      <c r="T66" s="123">
         <f>F66/E66</f>
-        <v>0.18</v>
+        <v>0.1769778169</v>
       </c>
       <c r="U66" s="125">
         <v>0.294696832076738</v>
@@ -7499,7 +7560,7 @@
     </row>
     <row r="67" ht="12.0" customHeight="1">
       <c r="A67" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" s="99">
         <v>2013.0</v>
@@ -7508,7 +7569,7 @@
         <v>41306.0</v>
       </c>
       <c r="D67" s="101" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E67" s="54">
         <v>594073.0</v>
@@ -7528,45 +7589,45 @@
       <c r="J67" s="57">
         <v>15205.0</v>
       </c>
-      <c r="K67" s="58" t="str">
+      <c r="K67" s="58">
         <f t="shared" ref="K67:O67" si="128">F67/$E67</f>
-        <v>0.17</v>
-      </c>
-      <c r="L67" s="59" t="str">
+        <v>0.1691509293</v>
+      </c>
+      <c r="L67" s="59">
         <f t="shared" si="128"/>
-        <v>0.13</v>
-      </c>
-      <c r="M67" s="59" t="str">
+        <v>0.1258027212</v>
+      </c>
+      <c r="M67" s="59">
         <f t="shared" si="128"/>
-        <v>0.02</v>
-      </c>
-      <c r="N67" s="59" t="str">
+        <v>0.01525906749</v>
+      </c>
+      <c r="N67" s="59">
         <f t="shared" si="128"/>
-        <v>0.00</v>
-      </c>
-      <c r="O67" s="60" t="str">
+        <v>0.002494642914</v>
+      </c>
+      <c r="O67" s="60">
         <f t="shared" si="128"/>
-        <v>0.03</v>
-      </c>
-      <c r="P67" s="61" t="str">
+        <v>0.02559449765</v>
+      </c>
+      <c r="P67" s="61">
         <f t="shared" ref="P67:S67" si="129">G67/$F67</f>
-        <v>74.4%</v>
-      </c>
-      <c r="Q67" s="62" t="str">
+        <v>0.7437305947</v>
+      </c>
+      <c r="Q67" s="62">
         <f t="shared" si="129"/>
-        <v>9.0%</v>
-      </c>
-      <c r="R67" s="62" t="str">
+        <v>0.09020977629</v>
+      </c>
+      <c r="R67" s="62">
         <f t="shared" si="129"/>
-        <v>1.5%</v>
-      </c>
-      <c r="S67" s="63" t="str">
+        <v>0.01474802962</v>
+      </c>
+      <c r="S67" s="63">
         <f t="shared" si="129"/>
-        <v>15.1%</v>
-      </c>
-      <c r="T67" s="102" t="str">
+        <v>0.1513115994</v>
+      </c>
+      <c r="T67" s="102">
         <f t="shared" ref="T67:T77" si="132">SUM(F$66:F67)/SUM(E$66:E67)</f>
-        <v>0.17</v>
+        <v>0.173172594</v>
       </c>
       <c r="U67" s="126">
         <v>0.28821206523281</v>
@@ -7574,7 +7635,7 @@
     </row>
     <row r="68" ht="12.0" customHeight="1">
       <c r="A68" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B68" s="99">
         <v>2013.0</v>
@@ -7583,7 +7644,7 @@
         <v>41334.0</v>
       </c>
       <c r="D68" s="101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E68" s="54">
         <v>684938.0</v>
@@ -7603,45 +7664,45 @@
       <c r="J68" s="57">
         <v>69720.0</v>
       </c>
-      <c r="K68" s="58" t="str">
+      <c r="K68" s="58">
         <f t="shared" ref="K68:O68" si="130">F68/$E68</f>
-        <v>0.34</v>
-      </c>
-      <c r="L68" s="59" t="str">
+        <v>0.3402599943</v>
+      </c>
+      <c r="L68" s="59">
         <f t="shared" si="130"/>
-        <v>0.18</v>
-      </c>
-      <c r="M68" s="59" t="str">
+        <v>0.1796162572</v>
+      </c>
+      <c r="M68" s="59">
         <f t="shared" si="130"/>
-        <v>0.03</v>
-      </c>
-      <c r="N68" s="59" t="str">
+        <v>0.0310232459</v>
+      </c>
+      <c r="N68" s="59">
         <f t="shared" si="130"/>
-        <v>0.03</v>
-      </c>
-      <c r="O68" s="60" t="str">
+        <v>0.02783025617</v>
+      </c>
+      <c r="O68" s="60">
         <f t="shared" si="130"/>
-        <v>0.10</v>
-      </c>
-      <c r="P68" s="61" t="str">
+        <v>0.101790235</v>
+      </c>
+      <c r="P68" s="61">
         <f t="shared" ref="P68:S68" si="131">G68/$F68</f>
-        <v>52.8%</v>
-      </c>
-      <c r="Q68" s="62" t="str">
+        <v>0.5278794458</v>
+      </c>
+      <c r="Q68" s="62">
         <f t="shared" si="131"/>
-        <v>9.1%</v>
-      </c>
-      <c r="R68" s="62" t="str">
+        <v>0.09117512025</v>
+      </c>
+      <c r="R68" s="62">
         <f t="shared" si="131"/>
-        <v>8.2%</v>
-      </c>
-      <c r="S68" s="63" t="str">
+        <v>0.0817911498</v>
+      </c>
+      <c r="S68" s="63">
         <f t="shared" si="131"/>
-        <v>29.9%</v>
-      </c>
-      <c r="T68" s="102" t="str">
+        <v>0.2991542841</v>
+      </c>
+      <c r="T68" s="102">
         <f t="shared" si="132"/>
-        <v>0.23</v>
+        <v>0.2331893805</v>
       </c>
       <c r="U68" s="126">
         <v>0.294848872988823</v>
@@ -7649,7 +7710,7 @@
     </row>
     <row r="69" ht="12.0" customHeight="1">
       <c r="A69" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B69" s="99">
         <v>2013.0</v>
@@ -7658,7 +7719,7 @@
         <v>41365.0</v>
       </c>
       <c r="D69" s="101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E69" s="54">
         <v>735188.0</v>
@@ -7678,45 +7739,45 @@
       <c r="J69" s="57">
         <v>68253.0</v>
       </c>
-      <c r="K69" s="58" t="str">
+      <c r="K69" s="58">
         <f t="shared" ref="K69:O69" si="133">F69/$E69</f>
-        <v>0.31</v>
-      </c>
-      <c r="L69" s="59" t="str">
+        <v>0.3062237142</v>
+      </c>
+      <c r="L69" s="59">
         <f t="shared" si="133"/>
-        <v>0.19</v>
-      </c>
-      <c r="M69" s="59" t="str">
+        <v>0.1884361551</v>
+      </c>
+      <c r="M69" s="59">
         <f t="shared" si="133"/>
-        <v>0.01</v>
-      </c>
-      <c r="N69" s="59" t="str">
+        <v>0.009116035626</v>
+      </c>
+      <c r="N69" s="59">
         <f t="shared" si="133"/>
-        <v>0.02</v>
-      </c>
-      <c r="O69" s="60" t="str">
+        <v>0.01583404517</v>
+      </c>
+      <c r="O69" s="60">
         <f t="shared" si="133"/>
-        <v>0.09</v>
-      </c>
-      <c r="P69" s="61" t="str">
+        <v>0.0928374783</v>
+      </c>
+      <c r="P69" s="61">
         <f t="shared" ref="P69:S69" si="134">G69/$F69</f>
-        <v>61.5%</v>
-      </c>
-      <c r="Q69" s="62" t="str">
+        <v>0.6153545476</v>
+      </c>
+      <c r="Q69" s="62">
         <f t="shared" si="134"/>
-        <v>3.0%</v>
-      </c>
-      <c r="R69" s="62" t="str">
+        <v>0.02976920207</v>
+      </c>
+      <c r="R69" s="62">
         <f t="shared" si="134"/>
-        <v>5.2%</v>
-      </c>
-      <c r="S69" s="63" t="str">
+        <v>0.05170744274</v>
+      </c>
+      <c r="S69" s="63">
         <f t="shared" si="134"/>
-        <v>30.3%</v>
-      </c>
-      <c r="T69" s="102" t="str">
+        <v>0.3031688076</v>
+      </c>
+      <c r="T69" s="102">
         <f t="shared" si="132"/>
-        <v>0.25</v>
+        <v>0.2535121229</v>
       </c>
       <c r="U69" s="126">
         <v>0.317838482486709</v>
@@ -7724,7 +7785,7 @@
     </row>
     <row r="70" ht="12.0" customHeight="1">
       <c r="A70" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B70" s="99">
         <v>2013.0</v>
@@ -7733,7 +7794,7 @@
         <v>41395.0</v>
       </c>
       <c r="D70" s="101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E70" s="54">
         <v>800624.0</v>
@@ -7753,45 +7814,45 @@
       <c r="J70" s="57">
         <v>24541.0</v>
       </c>
-      <c r="K70" s="58" t="str">
+      <c r="K70" s="58">
         <f t="shared" ref="K70:O70" si="135">F70/$E70</f>
-        <v>0.41</v>
-      </c>
-      <c r="L70" s="59" t="str">
+        <v>0.4141994244</v>
+      </c>
+      <c r="L70" s="59">
         <f t="shared" si="135"/>
-        <v>0.30</v>
-      </c>
-      <c r="M70" s="59" t="str">
+        <v>0.3037043606</v>
+      </c>
+      <c r="M70" s="59">
         <f t="shared" si="135"/>
-        <v>0.02</v>
-      </c>
-      <c r="N70" s="59" t="str">
+        <v>0.02015178161</v>
+      </c>
+      <c r="N70" s="59">
         <f t="shared" si="135"/>
-        <v>0.06</v>
-      </c>
-      <c r="O70" s="60" t="str">
+        <v>0.05969094107</v>
+      </c>
+      <c r="O70" s="60">
         <f t="shared" si="135"/>
-        <v>0.03</v>
-      </c>
-      <c r="P70" s="61" t="str">
+        <v>0.03065234117</v>
+      </c>
+      <c r="P70" s="61">
         <f t="shared" ref="P70:S70" si="136">G70/$F70</f>
-        <v>73.3%</v>
-      </c>
-      <c r="Q70" s="62" t="str">
+        <v>0.733232213</v>
+      </c>
+      <c r="Q70" s="62">
         <f t="shared" si="136"/>
-        <v>4.9%</v>
-      </c>
-      <c r="R70" s="62" t="str">
+        <v>0.04865236507</v>
+      </c>
+      <c r="R70" s="62">
         <f t="shared" si="136"/>
-        <v>14.4%</v>
-      </c>
-      <c r="S70" s="63" t="str">
+        <v>0.1441115983</v>
+      </c>
+      <c r="S70" s="63">
         <f t="shared" si="136"/>
-        <v>7.4%</v>
-      </c>
-      <c r="T70" s="102" t="str">
+        <v>0.07400382368</v>
+      </c>
+      <c r="T70" s="102">
         <f t="shared" si="132"/>
-        <v>0.29</v>
+        <v>0.2908812216</v>
       </c>
       <c r="U70" s="126">
         <v>0.374314264970925</v>
@@ -7799,7 +7860,7 @@
     </row>
     <row r="71" ht="12.0" customHeight="1">
       <c r="A71" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B71" s="99">
         <v>2013.0</v>
@@ -7808,7 +7869,7 @@
         <v>41426.0</v>
       </c>
       <c r="D71" s="101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E71" s="54">
         <v>828148.0</v>
@@ -7828,45 +7889,45 @@
       <c r="J71" s="57">
         <v>68752.0</v>
       </c>
-      <c r="K71" s="58" t="str">
+      <c r="K71" s="58">
         <f t="shared" ref="K71:O71" si="137">F71/$E71</f>
-        <v>1.45</v>
-      </c>
-      <c r="L71" s="59" t="str">
+        <v>1.445900974</v>
+      </c>
+      <c r="L71" s="59">
         <f t="shared" si="137"/>
-        <v>0.47</v>
-      </c>
-      <c r="M71" s="59" t="str">
+        <v>0.4725218198</v>
+      </c>
+      <c r="M71" s="59">
         <f t="shared" si="137"/>
-        <v>0.65</v>
-      </c>
-      <c r="N71" s="59" t="str">
+        <v>0.6549276216</v>
+      </c>
+      <c r="N71" s="59">
         <f t="shared" si="137"/>
-        <v>0.24</v>
-      </c>
-      <c r="O71" s="60" t="str">
+        <v>0.2354325555</v>
+      </c>
+      <c r="O71" s="60">
         <f t="shared" si="137"/>
-        <v>0.08</v>
-      </c>
-      <c r="P71" s="61" t="str">
+        <v>0.08301897728</v>
+      </c>
+      <c r="P71" s="61">
         <f t="shared" ref="P71:S71" si="138">G71/$F71</f>
-        <v>32.7%</v>
-      </c>
-      <c r="Q71" s="62" t="str">
+        <v>0.3268009554</v>
+      </c>
+      <c r="Q71" s="62">
         <f t="shared" si="138"/>
-        <v>45.3%</v>
-      </c>
-      <c r="R71" s="62" t="str">
+        <v>0.4529546859</v>
+      </c>
+      <c r="R71" s="62">
         <f t="shared" si="138"/>
-        <v>16.3%</v>
-      </c>
-      <c r="S71" s="63" t="str">
+        <v>0.1628275793</v>
+      </c>
+      <c r="S71" s="63">
         <f t="shared" si="138"/>
-        <v>5.7%</v>
-      </c>
-      <c r="T71" s="102" t="str">
+        <v>0.05741677941</v>
+      </c>
+      <c r="T71" s="102">
         <f t="shared" si="132"/>
-        <v>0.51</v>
+        <v>0.5148485015</v>
       </c>
       <c r="U71" s="126">
         <v>0.469444269368613</v>
@@ -7874,7 +7935,7 @@
     </row>
     <row r="72" ht="12.0" customHeight="1">
       <c r="A72" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B72" s="99">
         <v>2013.0</v>
@@ -7883,7 +7944,7 @@
         <v>41456.0</v>
       </c>
       <c r="D72" s="101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E72" s="54">
         <v>865725.0</v>
@@ -7903,45 +7964,45 @@
       <c r="J72" s="57">
         <v>12891.0</v>
       </c>
-      <c r="K72" s="58" t="str">
+      <c r="K72" s="58">
         <f t="shared" ref="K72:O72" si="139">F72/$E72</f>
-        <v>0.83</v>
-      </c>
-      <c r="L72" s="59" t="str">
+        <v>0.8344046897</v>
+      </c>
+      <c r="L72" s="59">
         <f t="shared" si="139"/>
-        <v>0.49</v>
-      </c>
-      <c r="M72" s="59" t="str">
+        <v>0.4894591239</v>
+      </c>
+      <c r="M72" s="59">
         <f t="shared" si="139"/>
-        <v>0.04</v>
-      </c>
-      <c r="N72" s="59" t="str">
+        <v>0.03742296919</v>
+      </c>
+      <c r="N72" s="59">
         <f t="shared" si="139"/>
-        <v>0.29</v>
-      </c>
-      <c r="O72" s="60" t="str">
+        <v>0.2926321869</v>
+      </c>
+      <c r="O72" s="60">
         <f t="shared" si="139"/>
-        <v>0.01</v>
-      </c>
-      <c r="P72" s="61" t="str">
+        <v>0.01489040977</v>
+      </c>
+      <c r="P72" s="61">
         <f t="shared" ref="P72:S72" si="140">G72/$F72</f>
-        <v>58.7%</v>
-      </c>
-      <c r="Q72" s="62" t="str">
+        <v>0.5865968036</v>
+      </c>
+      <c r="Q72" s="62">
         <f t="shared" si="140"/>
-        <v>4.5%</v>
-      </c>
-      <c r="R72" s="62" t="str">
+        <v>0.04484990275</v>
+      </c>
+      <c r="R72" s="62">
         <f t="shared" si="140"/>
-        <v>35.1%</v>
-      </c>
-      <c r="S72" s="63" t="str">
+        <v>0.3507077447</v>
+      </c>
+      <c r="S72" s="63">
         <f t="shared" si="140"/>
-        <v>1.8%</v>
-      </c>
-      <c r="T72" s="102" t="str">
+        <v>0.017845549</v>
+      </c>
+      <c r="T72" s="102">
         <f t="shared" si="132"/>
-        <v>0.57</v>
+        <v>0.5687070724</v>
       </c>
       <c r="U72" s="126">
         <v>0.598009145717968</v>
@@ -7949,7 +8010,7 @@
     </row>
     <row r="73" ht="12.0" customHeight="1">
       <c r="A73" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B73" s="99">
         <v>2013.0</v>
@@ -7958,7 +8019,7 @@
         <v>41487.0</v>
       </c>
       <c r="D73" s="101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E73" s="54">
         <v>854328.0</v>
@@ -7978,45 +8039,45 @@
       <c r="J73" s="57">
         <v>9570.0</v>
       </c>
-      <c r="K73" s="58" t="str">
+      <c r="K73" s="58">
         <f t="shared" ref="K73:O73" si="141">F73/$E73</f>
-        <v>0.61</v>
-      </c>
-      <c r="L73" s="59" t="str">
+        <v>0.6112031913</v>
+      </c>
+      <c r="L73" s="59">
         <f t="shared" si="141"/>
-        <v>0.46</v>
-      </c>
-      <c r="M73" s="59" t="str">
+        <v>0.4640723469</v>
+      </c>
+      <c r="M73" s="59">
         <f t="shared" si="141"/>
-        <v>0.00</v>
-      </c>
-      <c r="N73" s="59" t="str">
+        <v>0.003928233653</v>
+      </c>
+      <c r="N73" s="59">
         <f t="shared" si="141"/>
-        <v>0.13</v>
-      </c>
-      <c r="O73" s="60" t="str">
+        <v>0.132000824</v>
+      </c>
+      <c r="O73" s="60">
         <f t="shared" si="141"/>
-        <v>0.01</v>
-      </c>
-      <c r="P73" s="61" t="str">
+        <v>0.01120178667</v>
+      </c>
+      <c r="P73" s="61">
         <f t="shared" ref="P73:S73" si="142">G73/$F73</f>
-        <v>75.9%</v>
-      </c>
-      <c r="Q73" s="62" t="str">
+        <v>0.7592767079</v>
+      </c>
+      <c r="Q73" s="62">
         <f t="shared" si="142"/>
-        <v>0.6%</v>
-      </c>
-      <c r="R73" s="62" t="str">
+        <v>0.006427050298</v>
+      </c>
+      <c r="R73" s="62">
         <f t="shared" si="142"/>
-        <v>21.6%</v>
-      </c>
-      <c r="S73" s="63" t="str">
+        <v>0.215968807</v>
+      </c>
+      <c r="S73" s="63">
         <f t="shared" si="142"/>
-        <v>1.8%</v>
-      </c>
-      <c r="T73" s="102" t="str">
+        <v>0.01832743485</v>
+      </c>
+      <c r="T73" s="102">
         <f t="shared" si="132"/>
-        <v>0.57</v>
+        <v>0.5747672131</v>
       </c>
       <c r="U73" s="126">
         <v>0.635814896386863</v>
@@ -8024,7 +8085,7 @@
     </row>
     <row r="74" ht="12.0" customHeight="1">
       <c r="A74" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B74" s="99">
         <v>2013.0</v>
@@ -8033,7 +8094,7 @@
         <v>41518.0</v>
       </c>
       <c r="D74" s="101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E74" s="54">
         <v>833288.0</v>
@@ -8053,45 +8114,45 @@
       <c r="J74" s="57">
         <v>61961.0</v>
       </c>
-      <c r="K74" s="58" t="str">
+      <c r="K74" s="58">
         <f t="shared" ref="K74:O74" si="143">F74/$E74</f>
-        <v>0.49</v>
-      </c>
-      <c r="L74" s="59" t="str">
+        <v>0.4902098674</v>
+      </c>
+      <c r="L74" s="59">
         <f t="shared" si="143"/>
-        <v>0.33</v>
-      </c>
-      <c r="M74" s="59" t="str">
+        <v>0.3326856981</v>
+      </c>
+      <c r="M74" s="59">
         <f t="shared" si="143"/>
-        <v>0.05</v>
-      </c>
-      <c r="N74" s="59" t="str">
+        <v>0.05287967665</v>
+      </c>
+      <c r="N74" s="59">
         <f t="shared" si="143"/>
-        <v>0.03</v>
-      </c>
-      <c r="O74" s="60" t="str">
+        <v>0.03028724763</v>
+      </c>
+      <c r="O74" s="60">
         <f t="shared" si="143"/>
-        <v>0.07</v>
-      </c>
-      <c r="P74" s="61" t="str">
+        <v>0.07435724503</v>
+      </c>
+      <c r="P74" s="61">
         <f t="shared" ref="P74:S74" si="144">G74/$F74</f>
-        <v>67.9%</v>
-      </c>
-      <c r="Q74" s="62" t="str">
+        <v>0.6786597337</v>
+      </c>
+      <c r="Q74" s="62">
         <f t="shared" si="144"/>
-        <v>10.8%</v>
-      </c>
-      <c r="R74" s="62" t="str">
+        <v>0.107871506</v>
+      </c>
+      <c r="R74" s="62">
         <f t="shared" si="144"/>
-        <v>6.2%</v>
-      </c>
-      <c r="S74" s="63" t="str">
+        <v>0.0617842472</v>
+      </c>
+      <c r="S74" s="63">
         <f t="shared" si="144"/>
-        <v>15.2%</v>
-      </c>
-      <c r="T74" s="102" t="str">
+        <v>0.1516845131</v>
+      </c>
+      <c r="T74" s="102">
         <f t="shared" si="132"/>
-        <v>0.56</v>
+        <v>0.564442066</v>
       </c>
       <c r="U74" s="126">
         <v>0.644913232717284</v>
@@ -8099,7 +8160,7 @@
     </row>
     <row r="75" ht="12.0" customHeight="1">
       <c r="A75" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B75" s="99">
         <v>2013.0</v>
@@ -8108,7 +8169,7 @@
         <v>41548.0</v>
       </c>
       <c r="D75" s="101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E75" s="54">
         <v>794737.0</v>
@@ -8128,45 +8189,45 @@
       <c r="J75" s="57">
         <v>93804.0</v>
       </c>
-      <c r="K75" s="58" t="str">
+      <c r="K75" s="58">
         <f t="shared" ref="K75:O75" si="145">F75/$E75</f>
-        <v>0.53</v>
-      </c>
-      <c r="L75" s="59" t="str">
+        <v>0.5287862526</v>
+      </c>
+      <c r="L75" s="59">
         <f t="shared" si="145"/>
-        <v>0.23</v>
-      </c>
-      <c r="M75" s="59" t="str">
+        <v>0.2342246555</v>
+      </c>
+      <c r="M75" s="59">
         <f t="shared" si="145"/>
-        <v>0.16</v>
-      </c>
-      <c r="N75" s="59" t="str">
+        <v>0.15577732</v>
+      </c>
+      <c r="N75" s="59">
         <f t="shared" si="145"/>
-        <v>0.02</v>
-      </c>
-      <c r="O75" s="60" t="str">
+        <v>0.02075277733</v>
+      </c>
+      <c r="O75" s="60">
         <f t="shared" si="145"/>
-        <v>0.12</v>
-      </c>
-      <c r="P75" s="61" t="str">
+        <v>0.1180314997</v>
+      </c>
+      <c r="P75" s="61">
         <f t="shared" ref="P75:S75" si="146">G75/$F75</f>
-        <v>44.3%</v>
-      </c>
-      <c r="Q75" s="62" t="str">
+        <v>0.4429477021</v>
+      </c>
+      <c r="Q75" s="62">
         <f t="shared" si="146"/>
-        <v>29.5%</v>
-      </c>
-      <c r="R75" s="62" t="str">
+        <v>0.2945941187</v>
+      </c>
+      <c r="R75" s="62">
         <f t="shared" si="146"/>
-        <v>3.9%</v>
-      </c>
-      <c r="S75" s="63" t="str">
+        <v>0.03924606064</v>
+      </c>
+      <c r="S75" s="63">
         <f t="shared" si="146"/>
-        <v>22.3%</v>
-      </c>
-      <c r="T75" s="102" t="str">
+        <v>0.2232121186</v>
+      </c>
+      <c r="T75" s="102">
         <f t="shared" si="132"/>
-        <v>0.56</v>
+        <v>0.5607227698</v>
       </c>
       <c r="U75" s="126">
         <v>0.635924798969024</v>
@@ -8174,7 +8235,7 @@
     </row>
     <row r="76" ht="12.0" customHeight="1">
       <c r="A76" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76" s="99">
         <v>2013.0</v>
@@ -8183,7 +8244,7 @@
         <v>41579.0</v>
       </c>
       <c r="D76" s="101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E76" s="54">
         <v>663499.0</v>
@@ -8203,45 +8264,45 @@
       <c r="J76" s="57">
         <v>71693.0</v>
       </c>
-      <c r="K76" s="58" t="str">
+      <c r="K76" s="58">
         <f t="shared" ref="K76:O76" si="147">F76/$E76</f>
-        <v>0.24</v>
-      </c>
-      <c r="L76" s="59" t="str">
+        <v>0.2443018</v>
+      </c>
+      <c r="L76" s="59">
         <f t="shared" si="147"/>
-        <v>0.12</v>
-      </c>
-      <c r="M76" s="59" t="str">
+        <v>0.1201554185</v>
+      </c>
+      <c r="M76" s="59">
         <f t="shared" si="147"/>
-        <v>0.01</v>
-      </c>
-      <c r="N76" s="59" t="str">
+        <v>0.01296007982</v>
+      </c>
+      <c r="N76" s="59">
         <f t="shared" si="147"/>
-        <v>0.00</v>
-      </c>
-      <c r="O76" s="60" t="str">
+        <v>0.003133388294</v>
+      </c>
+      <c r="O76" s="60">
         <f t="shared" si="147"/>
-        <v>0.11</v>
-      </c>
-      <c r="P76" s="61" t="str">
+        <v>0.1080529134</v>
+      </c>
+      <c r="P76" s="61">
         <f t="shared" ref="P76:S76" si="148">G76/$F76</f>
-        <v>49.2%</v>
-      </c>
-      <c r="Q76" s="62" t="str">
+        <v>0.4918319</v>
+      </c>
+      <c r="Q76" s="62">
         <f t="shared" si="148"/>
-        <v>5.3%</v>
-      </c>
-      <c r="R76" s="62" t="str">
+        <v>0.05304946513</v>
+      </c>
+      <c r="R76" s="62">
         <f t="shared" si="148"/>
-        <v>1.3%</v>
-      </c>
-      <c r="S76" s="63" t="str">
+        <v>0.01282589115</v>
+      </c>
+      <c r="S76" s="63">
         <f t="shared" si="148"/>
-        <v>44.2%</v>
-      </c>
-      <c r="T76" s="102" t="str">
+        <v>0.4422927437</v>
+      </c>
+      <c r="T76" s="102">
         <f t="shared" si="132"/>
-        <v>0.54</v>
+        <v>0.5353744779</v>
       </c>
       <c r="U76" s="126">
         <v>0.609430964893397</v>
@@ -8249,7 +8310,7 @@
     </row>
     <row r="77" ht="12.0" customHeight="1">
       <c r="A77" s="104" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77" s="105">
         <v>2013.0</v>
@@ -8258,7 +8319,7 @@
         <v>41609.0</v>
       </c>
       <c r="D77" s="107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E77" s="108">
         <v>628228.0</v>
@@ -8278,45 +8339,45 @@
       <c r="J77" s="111">
         <v>129633.0</v>
       </c>
-      <c r="K77" s="112" t="str">
+      <c r="K77" s="112">
         <f t="shared" ref="K77:O77" si="149">F77/$E77</f>
-        <v>0.66</v>
-      </c>
-      <c r="L77" s="113" t="str">
+        <v>0.6581097945</v>
+      </c>
+      <c r="L77" s="113">
         <f t="shared" si="149"/>
-        <v>0.20</v>
-      </c>
-      <c r="M77" s="113" t="str">
+        <v>0.2043254997</v>
+      </c>
+      <c r="M77" s="113">
         <f t="shared" si="149"/>
-        <v>0.23</v>
-      </c>
-      <c r="N77" s="113" t="str">
+        <v>0.2264082467</v>
+      </c>
+      <c r="N77" s="113">
         <f t="shared" si="149"/>
-        <v>0.02</v>
-      </c>
-      <c r="O77" s="114" t="str">
+        <v>0.02102898948</v>
+      </c>
+      <c r="O77" s="114">
         <f t="shared" si="149"/>
-        <v>0.21</v>
-      </c>
-      <c r="P77" s="115" t="str">
+        <v>0.2063470587</v>
+      </c>
+      <c r="P77" s="115">
         <f t="shared" ref="P77:S77" si="150">G77/$F77</f>
-        <v>31.0%</v>
-      </c>
-      <c r="Q77" s="116" t="str">
+        <v>0.3104732696</v>
+      </c>
+      <c r="Q77" s="116">
         <f t="shared" si="150"/>
-        <v>34.4%</v>
-      </c>
-      <c r="R77" s="116" t="str">
+        <v>0.3440280764</v>
+      </c>
+      <c r="R77" s="116">
         <f t="shared" si="150"/>
-        <v>3.2%</v>
-      </c>
-      <c r="S77" s="117" t="str">
+        <v>0.03195361876</v>
+      </c>
+      <c r="S77" s="117">
         <f t="shared" si="150"/>
-        <v>31.4%</v>
-      </c>
-      <c r="T77" s="118" t="str">
+        <v>0.3135450352</v>
+      </c>
+      <c r="T77" s="118">
         <f t="shared" si="132"/>
-        <v>0.54</v>
+        <v>0.5440277017</v>
       </c>
       <c r="U77" s="127">
         <v>0.6</v>
@@ -8324,7 +8385,7 @@
     </row>
     <row r="78" ht="12.0" customHeight="1">
       <c r="A78" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" s="120">
         <v>2014.0</v>
@@ -8333,7 +8394,7 @@
         <v>41640.0</v>
       </c>
       <c r="D78" s="122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E78" s="128"/>
       <c r="F78" s="129"/>
@@ -8355,7 +8416,7 @@
     </row>
     <row r="79" ht="12.0" customHeight="1">
       <c r="A79" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" s="99">
         <v>2014.0</v>
@@ -8364,7 +8425,7 @@
         <v>41671.0</v>
       </c>
       <c r="D79" s="101" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E79" s="133"/>
       <c r="F79" s="134"/>
@@ -8386,7 +8447,7 @@
     </row>
     <row r="80" ht="12.0" customHeight="1">
       <c r="A80" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" s="99">
         <v>2014.0</v>
@@ -8395,7 +8456,7 @@
         <v>41699.0</v>
       </c>
       <c r="D80" s="101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E80" s="133"/>
       <c r="F80" s="134"/>
@@ -8417,7 +8478,7 @@
     </row>
     <row r="81" ht="12.0" customHeight="1">
       <c r="A81" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" s="99">
         <v>2014.0</v>
@@ -8426,7 +8487,7 @@
         <v>41730.0</v>
       </c>
       <c r="D81" s="101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E81" s="133"/>
       <c r="F81" s="134"/>
@@ -8448,7 +8509,7 @@
     </row>
     <row r="82" ht="12.0" customHeight="1">
       <c r="A82" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="99">
         <v>2014.0</v>
@@ -8457,7 +8518,7 @@
         <v>41760.0</v>
       </c>
       <c r="D82" s="101" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E82" s="133"/>
       <c r="F82" s="134"/>
@@ -8479,7 +8540,7 @@
     </row>
     <row r="83" ht="12.0" customHeight="1">
       <c r="A83" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="99">
         <v>2014.0</v>
@@ -8488,7 +8549,7 @@
         <v>41791.0</v>
       </c>
       <c r="D83" s="101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E83" s="133"/>
       <c r="F83" s="134"/>
@@ -8510,7 +8571,7 @@
     </row>
     <row r="84" ht="12.0" customHeight="1">
       <c r="A84" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="99">
         <v>2014.0</v>
@@ -8519,7 +8580,7 @@
         <v>41821.0</v>
       </c>
       <c r="D84" s="101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E84" s="133"/>
       <c r="F84" s="134"/>
@@ -8541,7 +8602,7 @@
     </row>
     <row r="85" ht="12.0" customHeight="1">
       <c r="A85" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B85" s="99">
         <v>2014.0</v>
@@ -8550,7 +8611,7 @@
         <v>41852.0</v>
       </c>
       <c r="D85" s="101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E85" s="133"/>
       <c r="F85" s="134"/>
@@ -8572,7 +8633,7 @@
     </row>
     <row r="86" ht="12.0" customHeight="1">
       <c r="A86" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B86" s="99">
         <v>2014.0</v>
@@ -8581,7 +8642,7 @@
         <v>41883.0</v>
       </c>
       <c r="D86" s="101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E86" s="133"/>
       <c r="F86" s="134"/>
@@ -8603,7 +8664,7 @@
     </row>
     <row r="87" ht="12.0" customHeight="1">
       <c r="A87" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B87" s="99">
         <v>2014.0</v>
@@ -8612,7 +8673,7 @@
         <v>41913.0</v>
       </c>
       <c r="D87" s="101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E87" s="133"/>
       <c r="F87" s="134"/>
@@ -8634,7 +8695,7 @@
     </row>
     <row r="88" ht="12.0" customHeight="1">
       <c r="A88" s="52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B88" s="99">
         <v>2014.0</v>
@@ -8643,7 +8704,7 @@
         <v>41944.0</v>
       </c>
       <c r="D88" s="101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E88" s="133"/>
       <c r="F88" s="134"/>
@@ -8665,7 +8726,7 @@
     </row>
     <row r="89" ht="12.0" customHeight="1">
       <c r="A89" s="68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B89" s="138">
         <v>2014.0</v>
@@ -8674,7 +8735,7 @@
         <v>41974.0</v>
       </c>
       <c r="D89" s="140" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E89" s="141"/>
       <c r="F89" s="142"/>
@@ -8703,37 +8764,39 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F1"/>
-    <hyperlink r:id="rId2" ref="F2"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="140.71"/>
+    <col customWidth="1" min="1" max="1" width="9.25"/>
+    <col customWidth="1" min="2" max="2" width="15.88"/>
+    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="123.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
       <c r="A1" s="149" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B1" s="150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="150" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D1" s="149" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" ht="24.0" customHeight="1">
@@ -8741,13 +8804,13 @@
         <v>41311.0</v>
       </c>
       <c r="B2" s="152" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="153" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D2" s="154" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
@@ -8755,13 +8818,13 @@
         <v>41410.0</v>
       </c>
       <c r="B3" s="152" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="153" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="154" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" ht="12.0" customHeight="1">
@@ -8769,13 +8832,13 @@
         <v>42031.0</v>
       </c>
       <c r="B4" s="152" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="153">
         <v>2012.0</v>
       </c>
       <c r="D4" s="154" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
